--- a/part3/tables-3/dom_validty_part-3.xlsx
+++ b/part3/tables-3/dom_validty_part-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="7">
   <si>
     <t>Test ID</t>
   </si>
@@ -420,119 +420,143 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2057</v>
+        <v>4059</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1.4E-05</v>
       </c>
       <c r="D2">
-        <v>2.5E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F2">
-        <v>-0.7205549999999999</v>
+        <v>-0.929993</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>110</v>
+        <v>2112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0.000264</v>
       </c>
       <c r="D3">
-        <v>0.000328</v>
+        <v>0.000346</v>
       </c>
       <c r="F3">
-        <v>-0.243859</v>
+        <v>-0.311309</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>990</v>
+        <v>2992</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2E-06</v>
       </c>
       <c r="D4">
-        <v>1E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="F4">
-        <v>-4.301245</v>
+        <v>-2.677498</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>152</v>
+        <v>2154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0.001023</v>
       </c>
       <c r="D5">
-        <v>0.000845</v>
+        <v>0.000574</v>
       </c>
       <c r="F5">
-        <v>0.174281</v>
+        <v>0.438739</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>89</v>
+        <v>2091</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0.000156</v>
       </c>
       <c r="D6">
-        <v>0.000134</v>
+        <v>0.000128</v>
       </c>
       <c r="F6">
-        <v>0.14125</v>
+        <v>0.180524</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>959</v>
+        <v>2961</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0.008300999999999999</v>
       </c>
       <c r="D7">
-        <v>0.008555</v>
+        <v>0.008669</v>
       </c>
       <c r="F7">
-        <v>-0.030581</v>
+        <v>-0.044379</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>846</v>
+        <v>2848</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0.000327</v>
       </c>
       <c r="D8">
-        <v>0.000156</v>
+        <v>0.000153</v>
       </c>
       <c r="F8">
-        <v>0.522958</v>
+        <v>0.533206</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1942</v>
+        <v>3944</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
       <c r="C9">
         <v>4.8E-05</v>
       </c>
       <c r="D9">
-        <v>3.1E-05</v>
+        <v>3.7E-05</v>
       </c>
       <c r="F9">
-        <v>0.348259</v>
+        <v>0.234585</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>1354</v>
+        <v>3356</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -541,71 +565,83 @@
         <v>0.00169</v>
       </c>
       <c r="D10">
-        <v>0.001021</v>
+        <v>0.00116</v>
       </c>
       <c r="F10">
-        <v>0.395761</v>
+        <v>0.313891</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>2194</v>
+        <v>4196</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
       </c>
       <c r="C11">
         <v>0.000103</v>
       </c>
       <c r="D11">
-        <v>0.000354</v>
+        <v>0.000254</v>
       </c>
       <c r="F11">
-        <v>-2.442865</v>
+        <v>-1.478358</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>1077</v>
+        <v>3079</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
       <c r="C12">
         <v>0.002624</v>
       </c>
       <c r="D12">
-        <v>0.003003</v>
+        <v>0.00212</v>
       </c>
       <c r="F12">
-        <v>-0.144533</v>
+        <v>0.191981</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>961</v>
+        <v>2963</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0.000625</v>
       </c>
       <c r="D13">
-        <v>0.000366</v>
+        <v>0.000362</v>
       </c>
       <c r="F13">
-        <v>0.415356</v>
+        <v>0.421181</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>1124</v>
+        <v>3126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
       </c>
       <c r="C14">
         <v>2.8E-05</v>
       </c>
       <c r="D14">
-        <v>1.4E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F14">
-        <v>0.512755</v>
+        <v>-0.000219</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>2314</v>
+        <v>4316</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -614,57 +650,66 @@
         <v>0.000105</v>
       </c>
       <c r="D15">
-        <v>8.3E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="F15">
-        <v>0.212519</v>
+        <v>0.529558</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>1662</v>
+        <v>3664</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
       </c>
       <c r="C16">
         <v>6E-06</v>
       </c>
       <c r="D16">
-        <v>1.7E-05</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F16">
-        <v>-1.725854</v>
+        <v>-2.817246</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>357</v>
+        <v>2359</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
       </c>
       <c r="C17">
         <v>0.000588</v>
       </c>
       <c r="D17">
-        <v>0.000427</v>
+        <v>0.000449</v>
       </c>
       <c r="F17">
-        <v>0.273198</v>
+        <v>0.236983</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>2027</v>
+        <v>4029</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
       </c>
       <c r="C18">
         <v>2.9E-05</v>
       </c>
       <c r="D18">
-        <v>2.5E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F18">
-        <v>0.13038</v>
+        <v>0.024523</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>1746</v>
+        <v>3748</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -673,197 +718,236 @@
         <v>0.000151</v>
       </c>
       <c r="D19">
-        <v>0.000114</v>
+        <v>0.000109</v>
       </c>
       <c r="F19">
-        <v>0.246534</v>
+        <v>0.276873</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>1527</v>
+        <v>3529</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
       </c>
       <c r="C20">
         <v>0.000222</v>
       </c>
       <c r="D20">
-        <v>0.000133</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F20">
-        <v>0.400383</v>
+        <v>0.560658</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>2241</v>
+        <v>4243</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
       </c>
       <c r="C21">
         <v>0.000347</v>
       </c>
       <c r="D21">
-        <v>0.000172</v>
+        <v>0.000248</v>
       </c>
       <c r="F21">
-        <v>0.503649</v>
+        <v>0.285696</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>1416</v>
+        <v>3418</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
       </c>
       <c r="C22">
         <v>0.00256</v>
       </c>
       <c r="D22">
-        <v>0.002022</v>
+        <v>0.001744</v>
       </c>
       <c r="F22">
-        <v>0.210027</v>
+        <v>0.318779</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>151</v>
+        <v>2153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
       </c>
       <c r="C23">
         <v>0.00233</v>
       </c>
       <c r="D23">
-        <v>0.001832</v>
+        <v>0.001189</v>
       </c>
       <c r="F23">
-        <v>0.213648</v>
+        <v>0.489813</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>1539</v>
+        <v>3541</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
       </c>
       <c r="C24">
         <v>3.9E-05</v>
       </c>
       <c r="D24">
-        <v>2.1E-05</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F24">
-        <v>0.470759</v>
+        <v>0.202808</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>611</v>
+        <v>2613</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
       </c>
       <c r="C25">
         <v>0.000842</v>
       </c>
       <c r="D25">
-        <v>0.000559</v>
+        <v>0.000442</v>
       </c>
       <c r="F25">
-        <v>0.336587</v>
+        <v>0.474901</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>778</v>
+        <v>2780</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
       </c>
       <c r="C26">
         <v>0.000205</v>
       </c>
       <c r="D26">
-        <v>4.9E-05</v>
+        <v>3.6E-05</v>
       </c>
       <c r="F26">
-        <v>0.759167</v>
+        <v>0.8238839999999999</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>1987</v>
+        <v>3989</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
       </c>
       <c r="C27">
         <v>8.6E-05</v>
       </c>
       <c r="D27">
-        <v>2.2E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F27">
-        <v>0.750719</v>
+        <v>0.773234</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>58</v>
+        <v>2060</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
       </c>
       <c r="C28">
         <v>0.000447</v>
       </c>
       <c r="D28">
-        <v>0.000161</v>
+        <v>0.000146</v>
       </c>
       <c r="F28">
-        <v>0.63928</v>
+        <v>0.6728189999999999</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>1394</v>
+        <v>3396</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
       </c>
       <c r="C29">
         <v>3E-06</v>
       </c>
       <c r="D29">
-        <v>3.2E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="F29">
-        <v>-10.865413</v>
+        <v>-10.046467</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>1923</v>
+        <v>3925</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
       </c>
       <c r="C30">
         <v>1.1E-05</v>
       </c>
       <c r="D30">
-        <v>6E-06</v>
+        <v>3E-06</v>
       </c>
       <c r="F30">
-        <v>0.443268</v>
+        <v>0.7201340000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>361</v>
+        <v>2363</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
       </c>
       <c r="C31">
         <v>0.000803</v>
       </c>
       <c r="D31">
-        <v>0.001301</v>
+        <v>0.001241</v>
       </c>
       <c r="F31">
-        <v>-0.620469</v>
+        <v>-0.545147</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>1440</v>
+        <v>3442</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
       </c>
       <c r="C32">
         <v>0.00967</v>
       </c>
       <c r="D32">
-        <v>0.012475</v>
+        <v>0.011706</v>
       </c>
       <c r="F32">
-        <v>-0.290091</v>
+        <v>-0.210583</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>2212</v>
+        <v>4214</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -872,113 +956,134 @@
         <v>1.8E-05</v>
       </c>
       <c r="D33">
-        <v>4E-05</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F33">
-        <v>-1.196331</v>
+        <v>-3.504864</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>1204</v>
+        <v>3206</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
       </c>
       <c r="C34">
         <v>0.000382</v>
       </c>
       <c r="D34">
-        <v>0.000406</v>
+        <v>0.000405</v>
       </c>
       <c r="F34">
-        <v>-0.06342399999999999</v>
+        <v>-0.061248</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>1812</v>
+        <v>3814</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
       </c>
       <c r="C35">
         <v>1.9E-05</v>
       </c>
       <c r="D35">
-        <v>2E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="F35">
-        <v>-0.010677</v>
+        <v>0.476789</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>540</v>
+        <v>2542</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
       </c>
       <c r="C36">
         <v>1.7E-05</v>
       </c>
       <c r="D36">
-        <v>6.499999999999999E-05</v>
+        <v>6.3E-05</v>
       </c>
       <c r="F36">
-        <v>-2.836431</v>
+        <v>-2.701679</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>1523</v>
+        <v>3525</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
       </c>
       <c r="C37">
         <v>0.000232</v>
       </c>
       <c r="D37">
-        <v>0.00022</v>
+        <v>0.000229</v>
       </c>
       <c r="F37">
-        <v>0.053324</v>
+        <v>0.011419</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>445</v>
+        <v>2447</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
       </c>
       <c r="C38">
         <v>0.000166</v>
       </c>
       <c r="D38">
-        <v>0.000102</v>
+        <v>6E-05</v>
       </c>
       <c r="F38">
-        <v>0.385892</v>
+        <v>0.638557</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>1373</v>
+        <v>3375</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
       </c>
       <c r="C39">
         <v>0.001709</v>
       </c>
       <c r="D39">
-        <v>0.001095</v>
+        <v>0.001181</v>
       </c>
       <c r="F39">
-        <v>0.359394</v>
+        <v>0.308932</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>2352</v>
+        <v>4354</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
       </c>
       <c r="C40">
         <v>0.000547</v>
       </c>
       <c r="D40">
-        <v>0.000785</v>
+        <v>0.00056</v>
       </c>
       <c r="F40">
-        <v>-0.43444</v>
+        <v>-0.023498</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>1671</v>
+        <v>3673</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -987,29 +1092,32 @@
         <v>0.000113</v>
       </c>
       <c r="D41">
-        <v>3.2E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F41">
-        <v>0.717213</v>
+        <v>0.86346</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>643</v>
+        <v>2645</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
       </c>
       <c r="C42">
         <v>2.6E-05</v>
       </c>
       <c r="D42">
-        <v>5.5E-05</v>
+        <v>5.4E-05</v>
       </c>
       <c r="F42">
-        <v>-1.130612</v>
+        <v>-1.095615</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>229</v>
+        <v>2231</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1018,15 +1126,15 @@
         <v>0.000484</v>
       </c>
       <c r="D43">
-        <v>0.000225</v>
+        <v>0.000327</v>
       </c>
       <c r="F43">
-        <v>0.534362</v>
+        <v>0.323893</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>1325</v>
+        <v>3327</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1035,71 +1143,83 @@
         <v>5E-06</v>
       </c>
       <c r="D44">
-        <v>2.1E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F44">
-        <v>-3.267624</v>
+        <v>-3.536234</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>1189</v>
+        <v>3191</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
       </c>
       <c r="C45">
         <v>0.001161</v>
       </c>
       <c r="D45">
-        <v>0.001387</v>
+        <v>0.001596</v>
       </c>
       <c r="F45">
-        <v>-0.195148</v>
+        <v>-0.375075</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>1681</v>
+        <v>3683</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
       </c>
       <c r="C46">
         <v>5.3E-05</v>
       </c>
       <c r="D46">
-        <v>2.5E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F46">
-        <v>0.532925</v>
+        <v>0.586813</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>386</v>
+        <v>2388</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
       </c>
       <c r="C47">
         <v>3.2E-05</v>
       </c>
       <c r="D47">
-        <v>0.000224</v>
+        <v>0.000198</v>
       </c>
       <c r="F47">
-        <v>-5.99636</v>
+        <v>-5.195245</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>1361</v>
+        <v>3363</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
       </c>
       <c r="C48">
         <v>6.2E-05</v>
       </c>
       <c r="D48">
-        <v>3E-05</v>
+        <v>4.6E-05</v>
       </c>
       <c r="F48">
-        <v>0.506122</v>
+        <v>0.257848</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>1203</v>
+        <v>3205</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1108,85 +1228,100 @@
         <v>0.000516</v>
       </c>
       <c r="D49">
-        <v>0.000475</v>
+        <v>0.000412</v>
       </c>
       <c r="F49">
-        <v>0.078982</v>
+        <v>0.202063</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>1333</v>
+        <v>3335</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
       </c>
       <c r="C50">
         <v>2.4E-05</v>
       </c>
       <c r="D50">
-        <v>1.3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F50">
-        <v>0.437269</v>
+        <v>0.1701</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>1777</v>
+        <v>3779</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
       </c>
       <c r="C51">
         <v>0.000119</v>
       </c>
       <c r="D51">
-        <v>5.1E-05</v>
+        <v>4.4E-05</v>
       </c>
       <c r="F51">
-        <v>0.567865</v>
+        <v>0.631065</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>1483</v>
+        <v>3485</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
       </c>
       <c r="C52">
         <v>0.00302</v>
       </c>
       <c r="D52">
-        <v>0.002415</v>
+        <v>0.002991</v>
       </c>
       <c r="F52">
-        <v>0.200312</v>
+        <v>0.009520000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>366</v>
+        <v>2368</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
       </c>
       <c r="C53">
         <v>0.000246</v>
       </c>
       <c r="D53">
-        <v>0.000424</v>
+        <v>0.00051</v>
       </c>
       <c r="F53">
-        <v>-0.724464</v>
+        <v>-1.072599</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>1638</v>
+        <v>3640</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
       </c>
       <c r="C54">
         <v>1.4E-05</v>
       </c>
       <c r="D54">
-        <v>5.3E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F54">
-        <v>-2.633584</v>
+        <v>-3.858387</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>57</v>
+        <v>2059</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1195,15 +1330,15 @@
         <v>0.001139</v>
       </c>
       <c r="D55">
-        <v>0.000417</v>
+        <v>0.000376</v>
       </c>
       <c r="F55">
-        <v>0.633684</v>
+        <v>0.66981</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>775</v>
+        <v>2777</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -1212,43 +1347,49 @@
         <v>0.000294</v>
       </c>
       <c r="D56">
-        <v>0.000178</v>
+        <v>0.000169</v>
       </c>
       <c r="F56">
-        <v>0.393607</v>
+        <v>0.426622</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>330</v>
+        <v>2332</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
       </c>
       <c r="C57">
         <v>0.004426</v>
       </c>
       <c r="D57">
-        <v>0.006528</v>
+        <v>0.006373</v>
       </c>
       <c r="F57">
-        <v>-0.474861</v>
+        <v>-0.439919</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>2275</v>
+        <v>4277</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
       </c>
       <c r="C58">
         <v>0.000109</v>
       </c>
       <c r="D58">
-        <v>0.00011</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="F58">
-        <v>-0.008429000000000001</v>
+        <v>0.171257</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>1820</v>
+        <v>3822</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -1257,15 +1398,15 @@
         <v>5E-05</v>
       </c>
       <c r="D59">
-        <v>3.4E-05</v>
+        <v>3.6E-05</v>
       </c>
       <c r="F59">
-        <v>0.316478</v>
+        <v>0.292893</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1678</v>
+        <v>3680</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -1274,435 +1415,525 @@
         <v>4E-05</v>
       </c>
       <c r="D60">
-        <v>3.7E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="F60">
-        <v>0.08709</v>
+        <v>0.266482</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>1172</v>
+        <v>3174</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
       </c>
       <c r="C61">
         <v>1.7E-05</v>
       </c>
       <c r="D61">
-        <v>5.9E-05</v>
+        <v>4.4E-05</v>
       </c>
       <c r="F61">
-        <v>-2.480207</v>
+        <v>-1.600341</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>538</v>
+        <v>2540</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
       </c>
       <c r="C62">
         <v>3.9E-05</v>
       </c>
       <c r="D62">
-        <v>0.000223</v>
+        <v>0.000217</v>
       </c>
       <c r="F62">
-        <v>-4.710118</v>
+        <v>-4.56158</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>1346</v>
+        <v>3348</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
       </c>
       <c r="C63">
         <v>7.4E-05</v>
       </c>
       <c r="D63">
-        <v>4.7E-05</v>
+        <v>6.3E-05</v>
       </c>
       <c r="F63">
-        <v>0.363305</v>
+        <v>0.137738</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1213</v>
+        <v>3215</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="C64">
         <v>0.000931</v>
       </c>
       <c r="D64">
-        <v>0.000742</v>
+        <v>0.000523</v>
       </c>
       <c r="F64">
-        <v>0.202489</v>
+        <v>0.437846</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>1960</v>
+        <v>3962</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
       </c>
       <c r="C65">
         <v>0.000117</v>
       </c>
       <c r="D65">
-        <v>4.3E-05</v>
+        <v>4.4E-05</v>
       </c>
       <c r="F65">
-        <v>0.636308</v>
+        <v>0.625148</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>1852</v>
+        <v>3854</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
       </c>
       <c r="C66">
         <v>6.1E-05</v>
       </c>
       <c r="D66">
-        <v>6.499999999999999E-05</v>
+        <v>5.9E-05</v>
       </c>
       <c r="F66">
-        <v>-0.055044</v>
+        <v>0.038544</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>1672</v>
+        <v>3674</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
       </c>
       <c r="C67">
         <v>1E-05</v>
       </c>
       <c r="D67">
-        <v>3.5E-05</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F67">
-        <v>-2.583891</v>
+        <v>-0.27391</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>1381</v>
+        <v>3383</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
       </c>
       <c r="C68">
         <v>1.5E-05</v>
       </c>
       <c r="D68">
-        <v>2.6E-05</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F68">
-        <v>-0.704307</v>
+        <v>-1.106038</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>2294</v>
+        <v>4296</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
       </c>
       <c r="C69">
         <v>5.1E-05</v>
       </c>
       <c r="D69">
-        <v>7.3E-05</v>
+        <v>7.4E-05</v>
       </c>
       <c r="F69">
-        <v>-0.417188</v>
+        <v>-0.44355</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>219</v>
+        <v>2221</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
       </c>
       <c r="C70">
         <v>0.000447</v>
       </c>
       <c r="D70">
-        <v>0.000331</v>
+        <v>0.000364</v>
       </c>
       <c r="F70">
-        <v>0.259838</v>
+        <v>0.18675</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>1548</v>
+        <v>3550</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
       </c>
       <c r="C71">
         <v>2E-06</v>
       </c>
       <c r="D71">
-        <v>3E-06</v>
+        <v>4E-06</v>
       </c>
       <c r="F71">
-        <v>-0.77654</v>
+        <v>-1.403376</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>1817</v>
+        <v>3819</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
       </c>
       <c r="C72">
         <v>2.5E-05</v>
       </c>
       <c r="D72">
-        <v>1.5E-05</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F72">
-        <v>0.419738</v>
+        <v>0.432359</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>1485</v>
+        <v>3487</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
       </c>
       <c r="C73">
         <v>0.000651</v>
       </c>
       <c r="D73">
-        <v>0.000491</v>
+        <v>0.000588</v>
       </c>
       <c r="F73">
-        <v>0.246365</v>
+        <v>0.09679</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>1504</v>
+        <v>3506</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
       </c>
       <c r="C74">
         <v>0.000535</v>
       </c>
       <c r="D74">
-        <v>0.000289</v>
+        <v>0.000267</v>
       </c>
       <c r="F74">
-        <v>0.459391</v>
+        <v>0.501076</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>1317</v>
+        <v>3319</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
       </c>
       <c r="C75">
         <v>0.0008229999999999999</v>
       </c>
       <c r="D75">
-        <v>0.000416</v>
+        <v>0.000328</v>
       </c>
       <c r="F75">
-        <v>0.494139</v>
+        <v>0.601158</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>1225</v>
+        <v>3227</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
       </c>
       <c r="C76">
         <v>0.000501</v>
       </c>
       <c r="D76">
-        <v>0.000343</v>
+        <v>0.000227</v>
       </c>
       <c r="F76">
-        <v>0.315635</v>
+        <v>0.547477</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>1616</v>
+        <v>3618</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
       </c>
       <c r="C77">
         <v>1.3E-05</v>
       </c>
       <c r="D77">
-        <v>1.2E-05</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F77">
-        <v>0.062456</v>
+        <v>-0.360601</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>2260</v>
+        <v>4262</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
       </c>
       <c r="C78">
         <v>2.5E-05</v>
       </c>
       <c r="D78">
-        <v>4.3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="F78">
-        <v>-0.7355429999999999</v>
+        <v>-0.617788</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>371</v>
+        <v>2373</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
       </c>
       <c r="C79">
         <v>0.001364</v>
       </c>
       <c r="D79">
-        <v>0.000567</v>
+        <v>0.0005730000000000001</v>
       </c>
       <c r="F79">
-        <v>0.584667</v>
+        <v>0.579944</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>631</v>
+        <v>2633</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
       </c>
       <c r="C80">
         <v>0.000298</v>
       </c>
       <c r="D80">
-        <v>0.000501</v>
+        <v>0.000505</v>
       </c>
       <c r="F80">
-        <v>-0.6819</v>
+        <v>-0.695867</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>1249</v>
+        <v>3251</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
       </c>
       <c r="C81">
         <v>0.002552</v>
       </c>
       <c r="D81">
-        <v>0.00246</v>
+        <v>0.001675</v>
       </c>
       <c r="F81">
-        <v>0.036243</v>
+        <v>0.343569</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>751</v>
+        <v>2753</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
       </c>
       <c r="C82">
         <v>0.006959</v>
       </c>
       <c r="D82">
-        <v>0.004522</v>
+        <v>0.004811</v>
       </c>
       <c r="F82">
-        <v>0.350241</v>
+        <v>0.308708</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>1928</v>
+        <v>3930</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
       </c>
       <c r="C83">
         <v>1E-05</v>
       </c>
       <c r="D83">
-        <v>6E-06</v>
+        <v>1E-06</v>
       </c>
       <c r="F83">
-        <v>0.351804</v>
+        <v>0.879591</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>2103</v>
+        <v>4105</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
       </c>
       <c r="C84">
         <v>0.000268</v>
       </c>
       <c r="D84">
-        <v>0.000118</v>
+        <v>9.899999999999999E-05</v>
       </c>
       <c r="F84">
-        <v>0.55762</v>
+        <v>0.628556</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>1956</v>
+        <v>3958</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
       </c>
       <c r="C85">
         <v>1.2E-05</v>
       </c>
       <c r="D85">
-        <v>5E-06</v>
+        <v>3E-06</v>
       </c>
       <c r="F85">
-        <v>0.593373</v>
+        <v>0.782583</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>587</v>
+        <v>2589</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
       </c>
       <c r="C86">
         <v>0.001258</v>
       </c>
       <c r="D86">
-        <v>0.001091</v>
+        <v>0.000975</v>
       </c>
       <c r="F86">
-        <v>0.13312</v>
+        <v>0.224802</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>1377</v>
+        <v>3379</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
       </c>
       <c r="C87">
         <v>0.000166</v>
       </c>
       <c r="D87">
-        <v>7.499999999999999E-05</v>
+        <v>7.1E-05</v>
       </c>
       <c r="F87">
-        <v>0.546598</v>
+        <v>0.571415</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>1673</v>
+        <v>3675</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
       </c>
       <c r="C88">
         <v>3E-06</v>
       </c>
       <c r="D88">
-        <v>6E-06</v>
+        <v>1E-05</v>
       </c>
       <c r="F88">
-        <v>-1.256227</v>
+        <v>-2.675982</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>453</v>
+        <v>2455</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
       </c>
       <c r="C89">
         <v>0.001279</v>
       </c>
       <c r="D89">
-        <v>0.000659</v>
+        <v>0.000586</v>
       </c>
       <c r="F89">
-        <v>0.484383</v>
+        <v>0.541786</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>1211</v>
+        <v>3213</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
       </c>
       <c r="C90">
         <v>0.001356</v>
       </c>
       <c r="D90">
-        <v>0.000943</v>
+        <v>0.000621</v>
       </c>
       <c r="F90">
-        <v>0.304359</v>
+        <v>0.542156</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>192</v>
+        <v>2194</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -1711,15 +1942,15 @@
         <v>0.00248</v>
       </c>
       <c r="D91">
-        <v>0.002522</v>
+        <v>0.002263</v>
       </c>
       <c r="F91">
-        <v>-0.017002</v>
+        <v>0.087324</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>866</v>
+        <v>2868</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -1728,15 +1959,15 @@
         <v>0.000796</v>
       </c>
       <c r="D92">
-        <v>0.0008229999999999999</v>
+        <v>0.000628</v>
       </c>
       <c r="F92">
-        <v>-0.034305</v>
+        <v>0.210643</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>1900</v>
+        <v>3902</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -1745,155 +1976,188 @@
         <v>9E-06</v>
       </c>
       <c r="D93">
-        <v>8E-06</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F93">
-        <v>0.102236</v>
+        <v>-1.446071</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>1372</v>
+        <v>3374</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
       </c>
       <c r="C94">
         <v>0.003763</v>
       </c>
       <c r="D94">
-        <v>0.001805</v>
+        <v>0.001725</v>
       </c>
       <c r="F94">
-        <v>0.520304</v>
+        <v>0.541544</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>1779</v>
+        <v>3781</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
       </c>
       <c r="C95">
         <v>4.2E-05</v>
       </c>
       <c r="D95">
-        <v>2.1E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F95">
-        <v>0.499001</v>
+        <v>0.542058</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>2327</v>
+        <v>4329</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
       </c>
       <c r="C96">
         <v>0.000381</v>
       </c>
       <c r="D96">
-        <v>0.000494</v>
+        <v>0.000472</v>
       </c>
       <c r="F96">
-        <v>-0.294455</v>
+        <v>-0.237648</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>987</v>
+        <v>2989</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
       </c>
       <c r="C97">
         <v>0.002314</v>
       </c>
       <c r="D97">
-        <v>0.001823</v>
+        <v>0.001969</v>
       </c>
       <c r="F97">
-        <v>0.212356</v>
+        <v>0.149096</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>1384</v>
+        <v>3386</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
       </c>
       <c r="C98">
         <v>8E-06</v>
       </c>
       <c r="D98">
-        <v>1.4E-05</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F98">
-        <v>-0.749229</v>
+        <v>-1.98627</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>1311</v>
+        <v>3313</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
       </c>
       <c r="C99">
         <v>0.001965</v>
       </c>
       <c r="D99">
-        <v>0.000361</v>
+        <v>0.000304</v>
       </c>
       <c r="F99">
-        <v>0.816349</v>
+        <v>0.845088</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>1363</v>
+        <v>3365</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
       </c>
       <c r="C100">
         <v>0.000149</v>
       </c>
       <c r="D100">
-        <v>8.000000000000001E-05</v>
+        <v>7.4E-05</v>
       </c>
       <c r="F100">
-        <v>0.458715</v>
+        <v>0.499797</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>2375</v>
+        <v>4377</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
       </c>
       <c r="C101">
         <v>0.000758</v>
       </c>
       <c r="D101">
-        <v>0.001069</v>
+        <v>0.00065</v>
       </c>
       <c r="F101">
-        <v>-0.409787</v>
+        <v>0.143017</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>421</v>
+        <v>2423</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
       </c>
       <c r="C102">
         <v>0.002458</v>
       </c>
       <c r="D102">
-        <v>0.003637</v>
+        <v>0.003316</v>
       </c>
       <c r="F102">
-        <v>-0.479461</v>
+        <v>-0.349099</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>1955</v>
+        <v>3957</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
       </c>
       <c r="C103">
         <v>7.4E-05</v>
       </c>
       <c r="D103">
-        <v>1.7E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="F103">
-        <v>0.773336</v>
+        <v>0.875108</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>1235</v>
+        <v>3237</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
       </c>
       <c r="C104">
         <v>0.000124</v>
@@ -1902,40 +2166,49 @@
         <v>0.000113</v>
       </c>
       <c r="F104">
-        <v>0.085699</v>
+        <v>0.084296</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>2227</v>
+        <v>4229</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
       </c>
       <c r="C105">
         <v>7.8E-05</v>
       </c>
       <c r="D105">
-        <v>8.500000000000001E-05</v>
+        <v>0.000145</v>
       </c>
       <c r="F105">
-        <v>-0.093158</v>
+        <v>-0.860326</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>715</v>
+        <v>2717</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
       </c>
       <c r="C106">
         <v>0.000854</v>
       </c>
       <c r="D106">
-        <v>0.000193</v>
+        <v>0.000184</v>
       </c>
       <c r="F106">
-        <v>0.774133</v>
+        <v>0.784011</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>1293</v>
+        <v>3295</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
       </c>
       <c r="C107">
         <v>1E-05</v>
@@ -1944,68 +2217,80 @@
         <v>1E-06</v>
       </c>
       <c r="F107">
-        <v>0.929875</v>
+        <v>0.940941</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>1426</v>
+        <v>3428</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
       </c>
       <c r="C108">
         <v>0.000432</v>
       </c>
       <c r="D108">
-        <v>0.000399</v>
+        <v>0.000485</v>
       </c>
       <c r="F108">
-        <v>0.076682</v>
+        <v>-0.12321</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>2138</v>
+        <v>4140</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
       </c>
       <c r="C109">
         <v>0.000244</v>
       </c>
       <c r="D109">
-        <v>0.000395</v>
+        <v>0.000464</v>
       </c>
       <c r="F109">
-        <v>-0.614125</v>
+        <v>-0.897182</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>513</v>
+        <v>2515</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
       </c>
       <c r="C110">
         <v>0.00055</v>
       </c>
       <c r="D110">
-        <v>0.0009840000000000001</v>
+        <v>0.000932</v>
       </c>
       <c r="F110">
-        <v>-0.788967</v>
+        <v>-0.692974</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>770</v>
+        <v>2772</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
       </c>
       <c r="C111">
         <v>0.001879</v>
       </c>
       <c r="D111">
-        <v>0.001288</v>
+        <v>0.00131</v>
       </c>
       <c r="F111">
-        <v>0.314764</v>
+        <v>0.302755</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>13</v>
+        <v>2015</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -2014,99 +2299,120 @@
         <v>0.001824</v>
       </c>
       <c r="D112">
-        <v>0.000754</v>
+        <v>0.000341</v>
       </c>
       <c r="F112">
-        <v>0.58645</v>
+        <v>0.81324</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>837</v>
+        <v>2839</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
       </c>
       <c r="C113">
         <v>6.600000000000001E-05</v>
       </c>
       <c r="D113">
-        <v>6.600000000000001E-05</v>
+        <v>6.1E-05</v>
       </c>
       <c r="F113">
-        <v>-0.004996</v>
+        <v>0.07291300000000001</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>627</v>
+        <v>2629</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
       </c>
       <c r="C114">
         <v>1.5E-05</v>
       </c>
       <c r="D114">
-        <v>4.4E-05</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F114">
-        <v>-1.948004</v>
+        <v>-1.12293</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>2164</v>
+        <v>4166</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
       </c>
       <c r="C115">
         <v>1.8E-05</v>
       </c>
       <c r="D115">
-        <v>0.000103</v>
+        <v>7.7E-05</v>
       </c>
       <c r="F115">
-        <v>-4.598077</v>
+        <v>-3.20624</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>1938</v>
+        <v>3940</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
       </c>
       <c r="C116">
         <v>0.00011</v>
       </c>
       <c r="D116">
-        <v>7.2E-05</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F116">
-        <v>0.345477</v>
+        <v>0.530193</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>1619</v>
+        <v>3621</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
       </c>
       <c r="C117">
         <v>1.1E-05</v>
       </c>
       <c r="D117">
-        <v>6.2E-05</v>
+        <v>7.2E-05</v>
       </c>
       <c r="F117">
-        <v>-4.437324</v>
+        <v>-5.328623</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>54</v>
+        <v>2056</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
       </c>
       <c r="C118">
         <v>0.000192</v>
       </c>
       <c r="D118">
-        <v>0.00014</v>
+        <v>0.000104</v>
       </c>
       <c r="F118">
-        <v>0.270726</v>
+        <v>0.458539</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>758</v>
+        <v>2760</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
       </c>
       <c r="C119">
         <v>1.4E-05</v>
@@ -2115,278 +2421,335 @@
         <v>3E-06</v>
       </c>
       <c r="F119">
-        <v>0.811878</v>
+        <v>0.764571</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>1358</v>
+        <v>3360</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
       </c>
       <c r="C120">
         <v>0.000248</v>
       </c>
       <c r="D120">
-        <v>0.000142</v>
+        <v>0.00012</v>
       </c>
       <c r="F120">
-        <v>0.426884</v>
+        <v>0.515416</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>2134</v>
+        <v>4136</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
       </c>
       <c r="C121">
         <v>2.8E-05</v>
       </c>
       <c r="D121">
-        <v>0.000103</v>
+        <v>7.7E-05</v>
       </c>
       <c r="F121">
-        <v>-2.717112</v>
+        <v>-1.792935</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>337</v>
+        <v>2339</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
       </c>
       <c r="C122">
         <v>0.003275</v>
       </c>
       <c r="D122">
-        <v>0.003435</v>
+        <v>0.003144</v>
       </c>
       <c r="F122">
-        <v>-0.048814</v>
+        <v>0.039947</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>1968</v>
+        <v>3970</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
       </c>
       <c r="C123">
         <v>8E-06</v>
       </c>
       <c r="D123">
-        <v>6E-06</v>
+        <v>5E-06</v>
       </c>
       <c r="F123">
-        <v>0.191629</v>
+        <v>0.374133</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>1715</v>
+        <v>3717</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
       </c>
       <c r="C124">
         <v>1.3E-05</v>
       </c>
       <c r="D124">
-        <v>1.7E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F124">
-        <v>-0.299319</v>
+        <v>-0.172848</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>1159</v>
+        <v>3161</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
       </c>
       <c r="C125">
         <v>0.000501</v>
       </c>
       <c r="D125">
-        <v>0.000626</v>
+        <v>0.000462</v>
       </c>
       <c r="F125">
-        <v>-0.250792</v>
+        <v>0.077235</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>2203</v>
+        <v>4205</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
       </c>
       <c r="C126">
         <v>2.4E-05</v>
       </c>
       <c r="D126">
-        <v>0.000115</v>
+        <v>0.000116</v>
       </c>
       <c r="F126">
-        <v>-3.811949</v>
+        <v>-3.85677</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>1628</v>
+        <v>3630</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
       </c>
       <c r="C127">
         <v>1.5E-05</v>
       </c>
       <c r="D127">
-        <v>3.1E-05</v>
+        <v>5.7E-05</v>
       </c>
       <c r="F127">
-        <v>-1.082319</v>
+        <v>-2.854638</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>1513</v>
+        <v>3515</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
       </c>
       <c r="C128">
         <v>5.7E-05</v>
       </c>
       <c r="D128">
-        <v>4.6E-05</v>
+        <v>4.7E-05</v>
       </c>
       <c r="F128">
-        <v>0.200379</v>
+        <v>0.180182</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>1945</v>
+        <v>3947</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
       </c>
       <c r="C129">
         <v>9.2E-05</v>
       </c>
       <c r="D129">
-        <v>0.00014</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F129">
-        <v>-0.526603</v>
+        <v>0.109391</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>263</v>
+        <v>2265</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
       </c>
       <c r="C130">
         <v>4.3E-05</v>
       </c>
       <c r="D130">
-        <v>3.5E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="F130">
-        <v>0.186798</v>
+        <v>0.301028</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>1862</v>
+        <v>3864</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
       </c>
       <c r="C131">
         <v>2E-05</v>
       </c>
       <c r="D131">
-        <v>1.5E-05</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F131">
-        <v>0.231911</v>
+        <v>0.100145</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>1450</v>
+        <v>3452</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
       </c>
       <c r="C132">
         <v>0.0114</v>
       </c>
       <c r="D132">
-        <v>0.012051</v>
+        <v>0.010311</v>
       </c>
       <c r="F132">
-        <v>-0.057062</v>
+        <v>0.095541</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>397</v>
+        <v>2399</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
       </c>
       <c r="C133">
         <v>0.001222</v>
       </c>
       <c r="D133">
-        <v>0.000779</v>
+        <v>0.000841</v>
       </c>
       <c r="F133">
-        <v>0.362714</v>
+        <v>0.311623</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>647</v>
+        <v>2649</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
       </c>
       <c r="C134">
         <v>0.000328</v>
       </c>
       <c r="D134">
-        <v>0.000446</v>
+        <v>0.000487</v>
       </c>
       <c r="F134">
-        <v>-0.359109</v>
+        <v>-0.483224</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>1423</v>
+        <v>3425</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
       </c>
       <c r="C135">
         <v>0.00208</v>
       </c>
       <c r="D135">
-        <v>0.000437</v>
+        <v>0.000462</v>
       </c>
       <c r="F135">
-        <v>0.789934</v>
+        <v>0.77802</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>403</v>
+        <v>2405</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
       </c>
       <c r="C136">
         <v>0.002544</v>
       </c>
       <c r="D136">
-        <v>0.002587</v>
+        <v>0.002396</v>
       </c>
       <c r="F136">
-        <v>-0.016919</v>
+        <v>0.058311</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>1633</v>
+        <v>3635</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
       </c>
       <c r="C137">
         <v>1.8E-05</v>
       </c>
       <c r="D137">
-        <v>1E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F137">
-        <v>0.475097</v>
+        <v>-0.205558</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>2359</v>
+        <v>4361</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
       </c>
       <c r="C138">
         <v>0.00048</v>
       </c>
       <c r="D138">
-        <v>0.000686</v>
+        <v>0.000545</v>
       </c>
       <c r="F138">
-        <v>-0.428539</v>
+        <v>-0.134306</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>1946</v>
+        <v>3948</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -2395,57 +2758,66 @@
         <v>5E-06</v>
       </c>
       <c r="D139">
-        <v>6E-06</v>
+        <v>5E-06</v>
       </c>
       <c r="F139">
-        <v>-0.039347</v>
+        <v>0.050706</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>1991</v>
+        <v>3993</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
       </c>
       <c r="C140">
         <v>0.000687</v>
       </c>
       <c r="D140">
-        <v>5.9E-05</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F140">
-        <v>0.914731</v>
+        <v>0.9224909999999999</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>1151</v>
+        <v>3153</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
       </c>
       <c r="C141">
         <v>0.000308</v>
       </c>
       <c r="D141">
-        <v>0.000311</v>
+        <v>0.000228</v>
       </c>
       <c r="F141">
-        <v>-0.008531</v>
+        <v>0.260177</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>1747</v>
+        <v>3749</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
       </c>
       <c r="C142">
         <v>0.000109</v>
       </c>
       <c r="D142">
-        <v>0.0001</v>
+        <v>9.7E-05</v>
       </c>
       <c r="F142">
-        <v>0.08652600000000001</v>
+        <v>0.108828</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>2293</v>
+        <v>4295</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -2454,15 +2826,15 @@
         <v>9.000000000000001E-05</v>
       </c>
       <c r="D143">
-        <v>0.000127</v>
+        <v>0.000113</v>
       </c>
       <c r="F143">
-        <v>-0.417329</v>
+        <v>-0.265758</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>1482</v>
+        <v>3484</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -2471,127 +2843,151 @@
         <v>0.00374</v>
       </c>
       <c r="D144">
-        <v>0.003728</v>
+        <v>0.004715</v>
       </c>
       <c r="F144">
-        <v>0.003094</v>
+        <v>-0.260784</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>2137</v>
+        <v>4139</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
       </c>
       <c r="C145">
         <v>4.7E-05</v>
       </c>
       <c r="D145">
-        <v>8.7E-05</v>
+        <v>0.00012</v>
       </c>
       <c r="F145">
-        <v>-0.866671</v>
+        <v>-1.580801</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>142</v>
+        <v>2144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
       </c>
       <c r="C146">
         <v>0.000523</v>
       </c>
       <c r="D146">
-        <v>0.000565</v>
+        <v>0.000384</v>
       </c>
       <c r="F146">
-        <v>-0.08119700000000001</v>
+        <v>0.265025</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>805</v>
+        <v>2807</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
       </c>
       <c r="C147">
         <v>0.0006579999999999999</v>
       </c>
       <c r="D147">
-        <v>0.000211</v>
+        <v>0.000219</v>
       </c>
       <c r="F147">
-        <v>0.678721</v>
+        <v>0.667277</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>2345</v>
+        <v>4347</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
       </c>
       <c r="C148">
         <v>0.000503</v>
       </c>
       <c r="D148">
-        <v>0.000456</v>
+        <v>0.000619</v>
       </c>
       <c r="F148">
-        <v>0.092983</v>
+        <v>-0.23203</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>1127</v>
+        <v>3129</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
       </c>
       <c r="C149">
         <v>9.7E-05</v>
       </c>
       <c r="D149">
-        <v>3.7E-05</v>
+        <v>2.7E-05</v>
       </c>
       <c r="F149">
-        <v>0.61899</v>
+        <v>0.720349</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>858</v>
+        <v>2860</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
       </c>
       <c r="C150">
         <v>7E-06</v>
       </c>
       <c r="D150">
-        <v>0.000445</v>
+        <v>0.000423</v>
       </c>
       <c r="F150">
-        <v>-62.524256</v>
+        <v>-59.376266</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>1674</v>
+        <v>3676</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
       </c>
       <c r="C151">
         <v>2E-06</v>
       </c>
       <c r="D151">
-        <v>1.5E-05</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F151">
-        <v>-6.738667</v>
+        <v>-5.522967</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>1954</v>
+        <v>3956</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
       </c>
       <c r="C152">
         <v>7.3E-05</v>
       </c>
       <c r="D152">
-        <v>6.3E-05</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F152">
-        <v>0.13004</v>
+        <v>0.269308</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>1434</v>
+        <v>3436</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -2600,15 +2996,15 @@
         <v>0.0144</v>
       </c>
       <c r="D153">
-        <v>0.01267</v>
+        <v>0.012601</v>
       </c>
       <c r="F153">
-        <v>0.120117</v>
+        <v>0.124961</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>91</v>
+        <v>2093</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -2617,71 +3013,83 @@
         <v>0.000239</v>
       </c>
       <c r="D154">
-        <v>0.000145</v>
+        <v>0.000156</v>
       </c>
       <c r="F154">
-        <v>0.394636</v>
+        <v>0.346348</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>1728</v>
+        <v>3730</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
       </c>
       <c r="C155">
         <v>0.000155</v>
       </c>
       <c r="D155">
-        <v>8.000000000000001E-05</v>
+        <v>5.8E-05</v>
       </c>
       <c r="F155">
-        <v>0.485748</v>
+        <v>0.62454</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>42</v>
+        <v>2044</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
       </c>
       <c r="C156">
         <v>0.00041</v>
       </c>
       <c r="D156">
-        <v>0.00024</v>
+        <v>0.000162</v>
       </c>
       <c r="F156">
-        <v>0.41486</v>
+        <v>0.604893</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>1401</v>
+        <v>3403</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
       </c>
       <c r="C157">
         <v>9.7E-05</v>
       </c>
       <c r="D157">
-        <v>0.000145</v>
+        <v>0.000126</v>
       </c>
       <c r="F157">
-        <v>-0.498707</v>
+        <v>-0.307278</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>1221</v>
+        <v>3223</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
       </c>
       <c r="C158">
         <v>9.899999999999999E-05</v>
       </c>
       <c r="D158">
-        <v>0.000106</v>
+        <v>0.000103</v>
       </c>
       <c r="F158">
-        <v>-0.067361</v>
+        <v>-0.037752</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>1178</v>
+        <v>3180</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -2690,15 +3098,18 @@
         <v>1.6E-05</v>
       </c>
       <c r="D159">
-        <v>0.000114</v>
+        <v>0.000131</v>
       </c>
       <c r="F159">
-        <v>-5.942328</v>
+        <v>-7.023063</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>1891</v>
+        <v>3893</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
       </c>
       <c r="C160">
         <v>8.7E-05</v>
@@ -2707,390 +3118,471 @@
         <v>8.1E-05</v>
       </c>
       <c r="F160">
-        <v>0.07654900000000001</v>
+        <v>0.07703400000000001</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>1304</v>
+        <v>3306</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
       </c>
       <c r="C161">
         <v>0.002918</v>
       </c>
       <c r="D161">
-        <v>0.002987</v>
+        <v>0.001475</v>
       </c>
       <c r="F161">
-        <v>-0.023837</v>
+        <v>0.494584</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>1258</v>
+        <v>3260</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
       </c>
       <c r="C162">
         <v>0.000245</v>
       </c>
       <c r="D162">
-        <v>0.000294</v>
+        <v>0.00029</v>
       </c>
       <c r="F162">
-        <v>-0.199794</v>
+        <v>-0.183789</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>2334</v>
+        <v>4336</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
       </c>
       <c r="C163">
         <v>0.000574</v>
       </c>
       <c r="D163">
-        <v>0.000513</v>
+        <v>0.000414</v>
       </c>
       <c r="F163">
-        <v>0.107491</v>
+        <v>0.278384</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>1847</v>
+        <v>3849</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
       </c>
       <c r="C164">
         <v>2.7E-05</v>
       </c>
       <c r="D164">
-        <v>3.5E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="F164">
-        <v>-0.289019</v>
+        <v>-0.5294180000000001</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>674</v>
+        <v>2676</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
       </c>
       <c r="C165">
         <v>3.8E-05</v>
       </c>
       <c r="D165">
-        <v>4.6E-05</v>
+        <v>5.1E-05</v>
       </c>
       <c r="F165">
-        <v>-0.215319</v>
+        <v>-0.344334</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>1439</v>
+        <v>3441</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
       </c>
       <c r="C166">
         <v>0.00716</v>
       </c>
       <c r="D166">
-        <v>0.008817</v>
+        <v>0.006982</v>
       </c>
       <c r="F166">
-        <v>-0.231376</v>
+        <v>0.024897</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>1164</v>
+        <v>3166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
       </c>
       <c r="C167">
         <v>5.7E-05</v>
       </c>
       <c r="D167">
-        <v>0.000152</v>
+        <v>0.000105</v>
       </c>
       <c r="F167">
-        <v>-1.675481</v>
+        <v>-0.840235</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>1578</v>
+        <v>3580</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
       </c>
       <c r="C168">
         <v>1E-06</v>
       </c>
       <c r="D168">
-        <v>3E-06</v>
+        <v>4E-06</v>
       </c>
       <c r="F168">
-        <v>-1.11392</v>
+        <v>-1.92928</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>90</v>
+        <v>2092</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
       </c>
       <c r="C169">
         <v>0.00116</v>
       </c>
       <c r="D169">
-        <v>0.000955</v>
+        <v>0.000876</v>
       </c>
       <c r="F169">
-        <v>0.176754</v>
+        <v>0.24445</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>1793</v>
+        <v>3795</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
       </c>
       <c r="C170">
         <v>8E-06</v>
       </c>
       <c r="D170">
-        <v>2.2E-05</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F170">
-        <v>-1.834187</v>
+        <v>-0.506216</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>2367</v>
+        <v>4369</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
       </c>
       <c r="C171">
         <v>0.000633</v>
       </c>
       <c r="D171">
-        <v>0.000528</v>
+        <v>0.000424</v>
       </c>
       <c r="F171">
-        <v>0.164617</v>
+        <v>0.329268</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>1996</v>
+        <v>3998</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
       </c>
       <c r="C172">
         <v>4.8E-05</v>
       </c>
       <c r="D172">
-        <v>2.5E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F172">
-        <v>0.477031</v>
+        <v>0.413371</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>1810</v>
+        <v>3812</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
       </c>
       <c r="C173">
         <v>3.6E-05</v>
       </c>
       <c r="D173">
-        <v>6.3E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F173">
-        <v>-0.738549</v>
+        <v>0.035229</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>157</v>
+        <v>2159</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
       </c>
       <c r="C174">
         <v>0.001327</v>
       </c>
       <c r="D174">
-        <v>0.000674</v>
+        <v>0.000628</v>
       </c>
       <c r="F174">
-        <v>0.492184</v>
+        <v>0.527045</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>1929</v>
+        <v>3931</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
       </c>
       <c r="C175">
         <v>4E-06</v>
       </c>
       <c r="D175">
-        <v>3E-06</v>
+        <v>1E-06</v>
       </c>
       <c r="F175">
-        <v>0.198777</v>
+        <v>0.638378</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>2217</v>
+        <v>4219</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
       </c>
       <c r="C176">
         <v>8E-06</v>
       </c>
       <c r="D176">
-        <v>2.3E-05</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="F176">
-        <v>-1.647867</v>
+        <v>-6.74555</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>1167</v>
+        <v>3169</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
       </c>
       <c r="C177">
         <v>9.500000000000001E-05</v>
       </c>
       <c r="D177">
-        <v>0.000181</v>
+        <v>0.00015</v>
       </c>
       <c r="F177">
-        <v>-0.9104950000000001</v>
+        <v>-0.582072</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>542</v>
+        <v>2544</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
       </c>
       <c r="C178">
         <v>0.00071</v>
       </c>
       <c r="D178">
-        <v>0.001085</v>
+        <v>0.001003</v>
       </c>
       <c r="F178">
-        <v>-0.528714</v>
+        <v>-0.41211</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>942</v>
+        <v>2944</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
       </c>
       <c r="C179">
         <v>0.002279</v>
       </c>
       <c r="D179">
-        <v>0.00106</v>
+        <v>0.001176</v>
       </c>
       <c r="F179">
-        <v>0.534799</v>
+        <v>0.484057</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>31</v>
+        <v>2033</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
       </c>
       <c r="C180">
         <v>0.000193</v>
       </c>
       <c r="D180">
-        <v>7.3E-05</v>
+        <v>3.7E-05</v>
       </c>
       <c r="F180">
-        <v>0.619152</v>
+        <v>0.809845</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>1781</v>
+        <v>3783</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
       </c>
       <c r="C181">
         <v>8.500000000000001E-05</v>
       </c>
       <c r="D181">
-        <v>3.3E-05</v>
+        <v>2.7E-05</v>
       </c>
       <c r="F181">
-        <v>0.606203</v>
+        <v>0.678216</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>356</v>
+        <v>2358</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
       </c>
       <c r="C182">
         <v>1.6E-05</v>
       </c>
       <c r="D182">
-        <v>0.000135</v>
+        <v>0.000134</v>
       </c>
       <c r="F182">
-        <v>-7.414456</v>
+        <v>-7.400243</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>895</v>
+        <v>2897</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
       </c>
       <c r="C183">
         <v>1.5E-05</v>
       </c>
       <c r="D183">
-        <v>4E-06</v>
+        <v>5E-06</v>
       </c>
       <c r="F183">
-        <v>0.732155</v>
+        <v>0.638773</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>1352</v>
+        <v>3354</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
       </c>
       <c r="C184">
         <v>3.3E-05</v>
       </c>
       <c r="D184">
-        <v>3.8E-05</v>
+        <v>4.6E-05</v>
       </c>
       <c r="F184">
-        <v>-0.147837</v>
+        <v>-0.38626</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>2310</v>
+        <v>4312</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
       </c>
       <c r="C185">
         <v>0.000139</v>
       </c>
       <c r="D185">
-        <v>0.00013</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F185">
-        <v>0.060412</v>
+        <v>0.500424</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>2051</v>
+        <v>4053</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
       </c>
       <c r="C186">
         <v>6.999999999999999E-05</v>
       </c>
       <c r="D186">
-        <v>1.7E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F186">
-        <v>0.762679</v>
+        <v>0.722298</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>17</v>
+        <v>2019</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
       </c>
       <c r="C187">
         <v>0.000447</v>
       </c>
       <c r="D187">
-        <v>0.000145</v>
+        <v>9.899999999999999E-05</v>
       </c>
       <c r="F187">
-        <v>0.676403</v>
+        <v>0.777481</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>1940</v>
+        <v>3942</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -3099,85 +3591,100 @@
         <v>3E-06</v>
       </c>
       <c r="D188">
-        <v>9E-06</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F188">
-        <v>-2.645082</v>
+        <v>-3.834747</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>1254</v>
+        <v>3256</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
       </c>
       <c r="C189">
         <v>0.003954</v>
       </c>
       <c r="D189">
-        <v>0.003384</v>
+        <v>0.002385</v>
       </c>
       <c r="F189">
-        <v>0.144035</v>
+        <v>0.396858</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>651</v>
+        <v>2653</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
       </c>
       <c r="C190">
         <v>0.001587</v>
       </c>
       <c r="D190">
-        <v>0.002395</v>
+        <v>0.003568</v>
       </c>
       <c r="F190">
-        <v>-0.5090789999999999</v>
+        <v>-1.248105</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>1296</v>
+        <v>3298</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
       </c>
       <c r="C191">
         <v>0.00143</v>
       </c>
       <c r="D191">
-        <v>0.000767</v>
+        <v>0.000674</v>
       </c>
       <c r="F191">
-        <v>0.463449</v>
+        <v>0.528721</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>1762</v>
+        <v>3764</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
       </c>
       <c r="C192">
         <v>6.8E-05</v>
       </c>
       <c r="D192">
-        <v>3.5E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="F192">
-        <v>0.486946</v>
+        <v>0.400771</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>685</v>
+        <v>2687</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
       </c>
       <c r="C193">
         <v>3.7E-05</v>
       </c>
       <c r="D193">
-        <v>4.4E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F193">
-        <v>-0.189515</v>
+        <v>0.369546</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>612</v>
+        <v>2614</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -3186,29 +3693,32 @@
         <v>0.001464</v>
       </c>
       <c r="D194">
-        <v>0.001063</v>
+        <v>0.000968</v>
       </c>
       <c r="F194">
-        <v>0.274216</v>
+        <v>0.3387</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>919</v>
+        <v>2921</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
       </c>
       <c r="C195">
         <v>0.003416</v>
       </c>
       <c r="D195">
-        <v>0.003539</v>
+        <v>0.002642</v>
       </c>
       <c r="F195">
-        <v>-0.036184</v>
+        <v>0.226437</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>385</v>
+        <v>2387</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -3217,253 +3727,304 @@
         <v>0.00387</v>
       </c>
       <c r="D196">
-        <v>0.003637</v>
+        <v>0.003316</v>
       </c>
       <c r="F196">
-        <v>0.060332</v>
+        <v>0.143131</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>2054</v>
+        <v>4056</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
       </c>
       <c r="C197">
         <v>3.2E-05</v>
       </c>
       <c r="D197">
-        <v>2E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F197">
-        <v>0.377438</v>
+        <v>0.1246</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>1801</v>
+        <v>3803</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
       </c>
       <c r="C198">
         <v>1.9E-05</v>
       </c>
       <c r="D198">
-        <v>1.5E-05</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F198">
-        <v>0.222063</v>
+        <v>0.269951</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>1319</v>
+        <v>3321</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
       </c>
       <c r="C199">
         <v>5.9E-05</v>
       </c>
       <c r="D199">
-        <v>6.2E-05</v>
+        <v>5.7E-05</v>
       </c>
       <c r="F199">
-        <v>-0.051233</v>
+        <v>0.032857</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>53</v>
+        <v>2055</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
       </c>
       <c r="C200">
         <v>0.000474</v>
       </c>
       <c r="D200">
-        <v>0.000234</v>
+        <v>0.000175</v>
       </c>
       <c r="F200">
-        <v>0.5072</v>
+        <v>0.630707</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>1191</v>
+        <v>3193</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
       </c>
       <c r="C201">
         <v>0.002878</v>
       </c>
       <c r="D201">
-        <v>0.002969</v>
+        <v>0.002103</v>
       </c>
       <c r="F201">
-        <v>-0.031625</v>
+        <v>0.269414</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>2303</v>
+        <v>4305</v>
+      </c>
+      <c r="B202" t="s">
+        <v>6</v>
       </c>
       <c r="C202">
         <v>0.00017</v>
       </c>
       <c r="D202">
-        <v>0.000274</v>
+        <v>0.000142</v>
       </c>
       <c r="F202">
-        <v>-0.604603</v>
+        <v>0.168773</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>1648</v>
+        <v>3650</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
       </c>
       <c r="C203">
         <v>5E-06</v>
       </c>
       <c r="D203">
-        <v>1.7E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F203">
-        <v>-2.336566</v>
+        <v>-2.209988</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>1778</v>
+        <v>3780</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
       </c>
       <c r="C204">
         <v>0.000165</v>
       </c>
       <c r="D204">
-        <v>6.1E-05</v>
+        <v>5.1E-05</v>
       </c>
       <c r="F204">
-        <v>0.6306310000000001</v>
+        <v>0.690486</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>936</v>
+        <v>2938</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
       </c>
       <c r="C205">
         <v>0.001796</v>
       </c>
       <c r="D205">
-        <v>0.001006</v>
+        <v>0.001095</v>
       </c>
       <c r="F205">
-        <v>0.439699</v>
+        <v>0.390181</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>396</v>
+        <v>2398</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
       </c>
       <c r="C206">
         <v>0.000353</v>
       </c>
       <c r="D206">
-        <v>0.000181</v>
+        <v>0.000217</v>
       </c>
       <c r="F206">
-        <v>0.486405</v>
+        <v>0.385674</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>465</v>
+        <v>2467</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
       </c>
       <c r="C207">
         <v>4.7E-05</v>
       </c>
       <c r="D207">
-        <v>2.7E-05</v>
+        <v>3.3E-05</v>
       </c>
       <c r="F207">
-        <v>0.428134</v>
+        <v>0.298361</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>998</v>
+        <v>3000</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
       </c>
       <c r="C208">
         <v>0.007011</v>
       </c>
       <c r="D208">
-        <v>0.007337</v>
+        <v>0.007081</v>
       </c>
       <c r="F208">
-        <v>-0.046474</v>
+        <v>-0.009945000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>687</v>
+        <v>2689</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
       </c>
       <c r="C209">
         <v>0.000354</v>
       </c>
       <c r="D209">
-        <v>0.000175</v>
+        <v>0.00017</v>
       </c>
       <c r="F209">
-        <v>0.505444</v>
+        <v>0.519369</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>1961</v>
+        <v>3963</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
       </c>
       <c r="C210">
         <v>5.5E-05</v>
       </c>
       <c r="D210">
-        <v>7E-06</v>
+        <v>1E-05</v>
       </c>
       <c r="F210">
-        <v>0.877244</v>
+        <v>0.8236059999999999</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>194</v>
+        <v>2196</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
       </c>
       <c r="C211">
         <v>0.00035</v>
       </c>
       <c r="D211">
-        <v>0.00035</v>
+        <v>0.000378</v>
       </c>
       <c r="F211">
-        <v>0.0005240000000000001</v>
+        <v>-0.080508</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>870</v>
+        <v>2872</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
       </c>
       <c r="C212">
         <v>0.010002</v>
       </c>
       <c r="D212">
-        <v>0.009497999999999999</v>
+        <v>0.009475000000000001</v>
       </c>
       <c r="F212">
-        <v>0.050423</v>
+        <v>0.052743</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>1206</v>
+        <v>3208</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6</v>
       </c>
       <c r="C213">
         <v>1.3E-05</v>
       </c>
       <c r="D213">
-        <v>2.9E-05</v>
+        <v>2.7E-05</v>
       </c>
       <c r="F213">
-        <v>-1.201987</v>
+        <v>-1.041427</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>2346</v>
+        <v>4348</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -3472,15 +4033,15 @@
         <v>0.000597</v>
       </c>
       <c r="D214">
-        <v>0.000456</v>
+        <v>0.000619</v>
       </c>
       <c r="F214">
-        <v>0.236172</v>
+        <v>-0.037532</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>1120</v>
+        <v>3122</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -3489,85 +4050,100 @@
         <v>0.00206</v>
       </c>
       <c r="D215">
-        <v>0.004443</v>
+        <v>0.001485</v>
       </c>
       <c r="F215">
-        <v>-1.156576</v>
+        <v>0.279321</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>2364</v>
+        <v>4366</v>
+      </c>
+      <c r="B216" t="s">
+        <v>6</v>
       </c>
       <c r="C216">
         <v>0.000354</v>
       </c>
       <c r="D216">
-        <v>0.000383</v>
+        <v>0.000346</v>
       </c>
       <c r="F216">
-        <v>-0.08094999999999999</v>
+        <v>0.025326</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>47</v>
+        <v>2049</v>
+      </c>
+      <c r="B217" t="s">
+        <v>6</v>
       </c>
       <c r="C217">
         <v>0.000932</v>
       </c>
       <c r="D217">
-        <v>0.000549</v>
+        <v>0.000396</v>
       </c>
       <c r="F217">
-        <v>0.410474</v>
+        <v>0.57509</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>1694</v>
+        <v>3696</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
       </c>
       <c r="C218">
         <v>0.000122</v>
       </c>
       <c r="D218">
-        <v>0.000112</v>
+        <v>0.000107</v>
       </c>
       <c r="F218">
-        <v>0.085518</v>
+        <v>0.122897</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>1764</v>
+        <v>3766</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
       </c>
       <c r="C219">
         <v>0.000176</v>
       </c>
       <c r="D219">
-        <v>7.7E-05</v>
+        <v>7.8E-05</v>
       </c>
       <c r="F219">
-        <v>0.560096</v>
+        <v>0.556884</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>1751</v>
+        <v>3753</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6</v>
       </c>
       <c r="C220">
         <v>0.000128</v>
       </c>
       <c r="D220">
-        <v>0.000147</v>
+        <v>0.000135</v>
       </c>
       <c r="F220">
-        <v>-0.148996</v>
+        <v>-0.057224</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>2121</v>
+        <v>4123</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -3576,141 +4152,168 @@
         <v>2E-06</v>
       </c>
       <c r="D221">
-        <v>1.7E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F221">
-        <v>-6.068662</v>
+        <v>-7.271405</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>186</v>
+        <v>2188</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
       </c>
       <c r="C222">
         <v>0.003216</v>
       </c>
       <c r="D222">
-        <v>0.003709</v>
+        <v>0.002751</v>
       </c>
       <c r="F222">
-        <v>-0.153152</v>
+        <v>0.14473</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>2328</v>
+        <v>4330</v>
+      </c>
+      <c r="B223" t="s">
+        <v>6</v>
       </c>
       <c r="C223">
         <v>0.000781</v>
       </c>
       <c r="D223">
-        <v>0.000546</v>
+        <v>0.000611</v>
       </c>
       <c r="F223">
-        <v>0.300751</v>
+        <v>0.217875</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>940</v>
+        <v>2942</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
       </c>
       <c r="C224">
         <v>5.9E-05</v>
       </c>
       <c r="D224">
-        <v>4.9E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F224">
-        <v>0.164397</v>
+        <v>-0.19191</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>2055</v>
+        <v>4057</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
       </c>
       <c r="C225">
         <v>0.000113</v>
       </c>
       <c r="D225">
-        <v>2.7E-05</v>
+        <v>3.8E-05</v>
       </c>
       <c r="F225">
-        <v>0.758526</v>
+        <v>0.664797</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>2330</v>
+        <v>4332</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
       </c>
       <c r="C226">
         <v>0.000408</v>
       </c>
       <c r="D226">
-        <v>0.000546</v>
+        <v>0.000611</v>
       </c>
       <c r="F226">
-        <v>-0.337015</v>
+        <v>-0.49548</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>2312</v>
+        <v>4314</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
       </c>
       <c r="C227">
         <v>7.8E-05</v>
       </c>
       <c r="D227">
-        <v>7.9E-05</v>
+        <v>4.7E-05</v>
       </c>
       <c r="F227">
-        <v>-0.0062</v>
+        <v>0.394312</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>212</v>
+        <v>2214</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
       </c>
       <c r="C228">
         <v>0.001005</v>
       </c>
       <c r="D228">
-        <v>0.000843</v>
+        <v>0.0008720000000000001</v>
       </c>
       <c r="F228">
-        <v>0.161168</v>
+        <v>0.132228</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229">
-        <v>2192</v>
+        <v>4194</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
       </c>
       <c r="C229">
         <v>2.9E-05</v>
       </c>
       <c r="D229">
-        <v>0.000106</v>
+        <v>9.1E-05</v>
       </c>
       <c r="F229">
-        <v>-2.599726</v>
+        <v>-2.105984</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>2028</v>
+        <v>4030</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
       </c>
       <c r="C230">
         <v>0.000512</v>
       </c>
       <c r="D230">
-        <v>0.000101</v>
+        <v>0.000105</v>
       </c>
       <c r="F230">
-        <v>0.8032820000000001</v>
+        <v>0.795876</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>137</v>
+        <v>2139</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
@@ -3719,85 +4322,103 @@
         <v>0.00026</v>
       </c>
       <c r="D231">
-        <v>0.000384</v>
+        <v>0.000319</v>
       </c>
       <c r="F231">
-        <v>-0.476884</v>
+        <v>-0.228023</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>2382</v>
+        <v>4384</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
       </c>
       <c r="C232">
         <v>0.000197</v>
       </c>
       <c r="D232">
-        <v>0.000123</v>
+        <v>0.000162</v>
       </c>
       <c r="F232">
-        <v>0.375715</v>
+        <v>0.180651</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>2215</v>
+        <v>4217</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
       </c>
       <c r="C233">
         <v>1.7E-05</v>
       </c>
       <c r="D233">
-        <v>2.4E-05</v>
+        <v>7.1E-05</v>
       </c>
       <c r="F233">
-        <v>-0.405318</v>
+        <v>-3.077352</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>1721</v>
+        <v>3723</v>
+      </c>
+      <c r="B234" t="s">
+        <v>6</v>
       </c>
       <c r="C234">
         <v>5.3E-05</v>
       </c>
       <c r="D234">
-        <v>2.9E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F234">
-        <v>0.457166</v>
+        <v>0.562087</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>408</v>
+        <v>2410</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
       </c>
       <c r="C235">
         <v>0.000311</v>
       </c>
       <c r="D235">
-        <v>7.9E-05</v>
+        <v>6.8E-05</v>
       </c>
       <c r="F235">
-        <v>0.747281</v>
+        <v>0.77995</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>575</v>
+        <v>2577</v>
+      </c>
+      <c r="B236" t="s">
+        <v>6</v>
       </c>
       <c r="C236">
         <v>0.000567</v>
       </c>
       <c r="D236">
-        <v>0.000647</v>
+        <v>0.000496</v>
       </c>
       <c r="F236">
-        <v>-0.141319</v>
+        <v>0.125073</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>800</v>
+        <v>2802</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
       </c>
       <c r="C237">
         <v>3.2E-05</v>
@@ -3806,236 +4427,287 @@
         <v>8E-06</v>
       </c>
       <c r="F237">
-        <v>0.746256</v>
+        <v>0.752258</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>844</v>
+        <v>2846</v>
+      </c>
+      <c r="B238" t="s">
+        <v>6</v>
       </c>
       <c r="C238">
         <v>3.1E-05</v>
       </c>
       <c r="D238">
-        <v>6E-06</v>
+        <v>5E-06</v>
       </c>
       <c r="F238">
-        <v>0.80728</v>
+        <v>0.852212</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>2297</v>
+        <v>4299</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6</v>
       </c>
       <c r="C239">
         <v>6.4E-05</v>
       </c>
       <c r="D239">
-        <v>7.4E-05</v>
+        <v>7.1E-05</v>
       </c>
       <c r="F239">
-        <v>-0.161661</v>
+        <v>-0.121951</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>342</v>
+        <v>2344</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6</v>
       </c>
       <c r="C240">
         <v>0.0004</v>
       </c>
       <c r="D240">
-        <v>0.000224</v>
+        <v>0.000194</v>
       </c>
       <c r="F240">
-        <v>0.44028</v>
+        <v>0.514394</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>1192</v>
+        <v>3194</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
       </c>
       <c r="C241">
         <v>0.000105</v>
       </c>
       <c r="D241">
-        <v>0.000122</v>
+        <v>0.000136</v>
       </c>
       <c r="F241">
-        <v>-0.161409</v>
+        <v>-0.299362</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>41</v>
+        <v>2043</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
       </c>
       <c r="C242">
         <v>0.000657</v>
       </c>
       <c r="D242">
-        <v>0.000249</v>
+        <v>0.000165</v>
       </c>
       <c r="F242">
-        <v>0.620299</v>
+        <v>0.748274</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>1918</v>
+        <v>3920</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
       </c>
       <c r="C243">
         <v>9.2E-05</v>
       </c>
       <c r="D243">
-        <v>0.000104</v>
+        <v>6.4E-05</v>
       </c>
       <c r="F243">
-        <v>-0.135279</v>
+        <v>0.296655</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>1541</v>
+        <v>3543</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
       </c>
       <c r="C244">
         <v>0.0002</v>
       </c>
       <c r="D244">
-        <v>0.000133</v>
+        <v>0.000122</v>
       </c>
       <c r="F244">
-        <v>0.334338</v>
+        <v>0.392488</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>350</v>
+        <v>2352</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
       </c>
       <c r="C245">
         <v>0.003586</v>
       </c>
       <c r="D245">
-        <v>0.001608</v>
+        <v>0.001039</v>
       </c>
       <c r="F245">
-        <v>0.551655</v>
+        <v>0.710215</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>493</v>
+        <v>2495</v>
+      </c>
+      <c r="B246" t="s">
+        <v>6</v>
       </c>
       <c r="C246">
         <v>0.001051</v>
       </c>
       <c r="D246">
-        <v>0.000566</v>
+        <v>0.000427</v>
       </c>
       <c r="F246">
-        <v>0.461833</v>
+        <v>0.593963</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>610</v>
+        <v>2612</v>
+      </c>
+      <c r="B247" t="s">
+        <v>6</v>
       </c>
       <c r="C247">
         <v>6.2E-05</v>
       </c>
       <c r="D247">
-        <v>5.6E-05</v>
+        <v>5.5E-05</v>
       </c>
       <c r="F247">
-        <v>0.09637800000000001</v>
+        <v>0.119953</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>2043</v>
+        <v>4045</v>
+      </c>
+      <c r="B248" t="s">
+        <v>6</v>
       </c>
       <c r="C248">
         <v>2E-06</v>
       </c>
       <c r="D248">
-        <v>5E-06</v>
+        <v>1E-05</v>
       </c>
       <c r="F248">
-        <v>-2.383497</v>
+        <v>-5.47426</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>1719</v>
+        <v>3721</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
       </c>
       <c r="C249">
         <v>1.2E-05</v>
       </c>
       <c r="D249">
-        <v>1.7E-05</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F249">
-        <v>-0.440722</v>
+        <v>-0.203198</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>977</v>
+        <v>2979</v>
+      </c>
+      <c r="B250" t="s">
+        <v>6</v>
       </c>
       <c r="C250">
         <v>0.0002</v>
       </c>
       <c r="D250">
-        <v>0.000135</v>
+        <v>0.000125</v>
       </c>
       <c r="F250">
-        <v>0.325376</v>
+        <v>0.373084</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>2032</v>
+        <v>4034</v>
+      </c>
+      <c r="B251" t="s">
+        <v>6</v>
       </c>
       <c r="C251">
         <v>0.001344</v>
       </c>
       <c r="D251">
-        <v>0.000354</v>
+        <v>0.000254</v>
       </c>
       <c r="F251">
-        <v>0.736897</v>
+        <v>0.810604</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>1406</v>
+        <v>3408</v>
+      </c>
+      <c r="B252" t="s">
+        <v>6</v>
       </c>
       <c r="C252">
         <v>0.00117</v>
       </c>
       <c r="D252">
-        <v>0.002177</v>
+        <v>0.002074</v>
       </c>
       <c r="F252">
-        <v>-0.861042</v>
+        <v>-0.772357</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>2232</v>
+        <v>4234</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6</v>
       </c>
       <c r="C253">
         <v>3.7E-05</v>
       </c>
       <c r="D253">
-        <v>4.3E-05</v>
+        <v>0.000107</v>
       </c>
       <c r="F253">
-        <v>-0.16633</v>
+        <v>-1.864619</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>1837</v>
+        <v>3839</v>
+      </c>
+      <c r="B254" t="s">
+        <v>6</v>
       </c>
       <c r="C254">
         <v>6E-06</v>
@@ -4044,152 +4716,182 @@
         <v>6E-06</v>
       </c>
       <c r="F254">
-        <v>-0.042653</v>
+        <v>0.058049</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>1895</v>
+        <v>3897</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
       </c>
       <c r="C255">
         <v>0.000415</v>
       </c>
       <c r="D255">
-        <v>0.000192</v>
+        <v>0.000228</v>
       </c>
       <c r="F255">
-        <v>0.5366610000000001</v>
+        <v>0.449584</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>2158</v>
+        <v>4160</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
       </c>
       <c r="C256">
         <v>6E-06</v>
       </c>
       <c r="D256">
-        <v>0.000101</v>
+        <v>0.000105</v>
       </c>
       <c r="F256">
-        <v>-14.872507</v>
+        <v>-15.470012</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>1927</v>
+        <v>3929</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
       </c>
       <c r="C257">
         <v>1E-06</v>
       </c>
       <c r="D257">
-        <v>5E-06</v>
+        <v>1E-06</v>
       </c>
       <c r="F257">
-        <v>-2.382025</v>
+        <v>0.526185</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>437</v>
+        <v>2439</v>
+      </c>
+      <c r="B258" t="s">
+        <v>6</v>
       </c>
       <c r="C258">
         <v>0.001122</v>
       </c>
       <c r="D258">
-        <v>0.00057</v>
+        <v>0.000563</v>
       </c>
       <c r="F258">
-        <v>0.49162</v>
+        <v>0.498562</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>1177</v>
+        <v>3179</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
       </c>
       <c r="C259">
         <v>7E-06</v>
       </c>
       <c r="D259">
-        <v>4.4E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F259">
-        <v>-4.957205</v>
+        <v>-3.8345</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>452</v>
+        <v>2454</v>
+      </c>
+      <c r="B260" t="s">
+        <v>6</v>
       </c>
       <c r="C260">
         <v>0.00104</v>
       </c>
       <c r="D260">
-        <v>0.000506</v>
+        <v>0.000286</v>
       </c>
       <c r="F260">
-        <v>0.513632</v>
+        <v>0.724763</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>1143</v>
+        <v>3145</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
       </c>
       <c r="C261">
         <v>3.6E-05</v>
       </c>
       <c r="D261">
-        <v>7E-06</v>
+        <v>3.8E-05</v>
       </c>
       <c r="F261">
-        <v>0.7990660000000001</v>
+        <v>-0.047523</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>1144</v>
+        <v>3146</v>
+      </c>
+      <c r="B262" t="s">
+        <v>6</v>
       </c>
       <c r="C262">
         <v>7.3E-05</v>
       </c>
       <c r="D262">
-        <v>0.000113</v>
+        <v>0.000129</v>
       </c>
       <c r="F262">
-        <v>-0.537806</v>
+        <v>-0.758996</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>692</v>
+        <v>2694</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
       </c>
       <c r="C263">
         <v>2.5E-05</v>
       </c>
       <c r="D263">
-        <v>4.9E-05</v>
+        <v>4.3E-05</v>
       </c>
       <c r="F263">
-        <v>-0.981907</v>
+        <v>-0.712639</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>2342</v>
+        <v>4344</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
       </c>
       <c r="C264">
         <v>0.000678</v>
       </c>
       <c r="D264">
-        <v>0.000915</v>
+        <v>0.000714</v>
       </c>
       <c r="F264">
-        <v>-0.350432</v>
+        <v>-0.053382</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>1969</v>
+        <v>3971</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
@@ -4198,365 +4900,443 @@
         <v>4E-06</v>
       </c>
       <c r="D265">
-        <v>4E-06</v>
+        <v>5E-06</v>
       </c>
       <c r="F265">
-        <v>-0.122403</v>
+        <v>-0.432626</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>2306</v>
+        <v>4308</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6</v>
       </c>
       <c r="C266">
         <v>0.000105</v>
       </c>
       <c r="D266">
-        <v>0.00019</v>
+        <v>9.6E-05</v>
       </c>
       <c r="F266">
-        <v>-0.81131</v>
+        <v>0.080289</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>1362</v>
+        <v>3364</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
       </c>
       <c r="C267">
         <v>0.000629</v>
       </c>
       <c r="D267">
-        <v>0.000214</v>
+        <v>0.000213</v>
       </c>
       <c r="F267">
-        <v>0.6600279999999999</v>
+        <v>0.661409</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>1388</v>
+        <v>3390</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
       </c>
       <c r="C268">
         <v>6.8E-05</v>
       </c>
       <c r="D268">
-        <v>6.4E-05</v>
+        <v>7.1E-05</v>
       </c>
       <c r="F268">
-        <v>0.048181</v>
+        <v>-0.051463</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>997</v>
+        <v>2999</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
       </c>
       <c r="C269">
         <v>0.00533</v>
       </c>
       <c r="D269">
-        <v>0.004558</v>
+        <v>0.003801</v>
       </c>
       <c r="F269">
-        <v>0.144935</v>
+        <v>0.286888</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>1490</v>
+        <v>3492</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
       </c>
       <c r="C270">
         <v>0.000837</v>
       </c>
       <c r="D270">
-        <v>0.000955</v>
+        <v>0.001276</v>
       </c>
       <c r="F270">
-        <v>-0.141369</v>
+        <v>-0.524435</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>1630</v>
+        <v>3632</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6</v>
       </c>
       <c r="C271">
         <v>4E-06</v>
       </c>
       <c r="D271">
-        <v>3.6E-05</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F271">
-        <v>-8.555353</v>
+        <v>-5.810175</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>1478</v>
+        <v>3480</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
       </c>
       <c r="C272">
         <v>0.000907</v>
       </c>
       <c r="D272">
-        <v>0.0008899999999999999</v>
+        <v>0.001215</v>
       </c>
       <c r="F272">
-        <v>0.018937</v>
+        <v>-0.339324</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>2274</v>
+        <v>4276</v>
+      </c>
+      <c r="B273" t="s">
+        <v>6</v>
       </c>
       <c r="C273">
         <v>0.000123</v>
       </c>
       <c r="D273">
-        <v>0.000125</v>
+        <v>9.899999999999999E-05</v>
       </c>
       <c r="F273">
-        <v>-0.017197</v>
+        <v>0.192468</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>1611</v>
+        <v>3613</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
       </c>
       <c r="C274">
         <v>2E-06</v>
       </c>
       <c r="D274">
-        <v>1.6E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F274">
-        <v>-6.275556</v>
+        <v>-7.340819</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>1748</v>
+        <v>3750</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
       </c>
       <c r="C275">
         <v>2.9E-05</v>
       </c>
       <c r="D275">
-        <v>3.1E-05</v>
+        <v>3.8E-05</v>
       </c>
       <c r="F275">
-        <v>-0.084177</v>
+        <v>-0.297274</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>351</v>
+        <v>2353</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
       </c>
       <c r="C276">
         <v>0.000672</v>
       </c>
       <c r="D276">
-        <v>0.000878</v>
+        <v>0.00091</v>
       </c>
       <c r="F276">
-        <v>-0.306599</v>
+        <v>-0.354031</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>1397</v>
+        <v>3399</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
       </c>
       <c r="C277">
         <v>6E-06</v>
       </c>
       <c r="D277">
-        <v>3.2E-05</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F277">
-        <v>-4.269698</v>
+        <v>-4.045238</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>2361</v>
+        <v>4363</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6</v>
       </c>
       <c r="C278">
         <v>0.000552</v>
       </c>
       <c r="D278">
-        <v>0.000915</v>
+        <v>0.000714</v>
       </c>
       <c r="F278">
-        <v>-0.65776</v>
+        <v>-0.293108</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>2391</v>
+        <v>4393</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
       </c>
       <c r="C279">
         <v>0.000193</v>
       </c>
       <c r="D279">
-        <v>0.000209</v>
+        <v>0.00023</v>
       </c>
       <c r="F279">
-        <v>-0.082251</v>
+        <v>-0.194868</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>2354</v>
+        <v>4356</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
       </c>
       <c r="C280">
         <v>0.000485</v>
       </c>
       <c r="D280">
-        <v>0.000686</v>
+        <v>0.000545</v>
       </c>
       <c r="F280">
-        <v>-0.415273</v>
+        <v>-0.123773</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>2322</v>
+        <v>4324</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6</v>
       </c>
       <c r="C281">
         <v>0.000175</v>
       </c>
       <c r="D281">
-        <v>0.00013</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F281">
-        <v>0.255847</v>
+        <v>0.604336</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>1696</v>
+        <v>3698</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
       </c>
       <c r="C282">
         <v>3.1E-05</v>
       </c>
       <c r="D282">
-        <v>3.1E-05</v>
+        <v>3.7E-05</v>
       </c>
       <c r="F282">
-        <v>0.002373</v>
+        <v>-0.19252</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>971</v>
+        <v>2973</v>
+      </c>
+      <c r="B283" t="s">
+        <v>6</v>
       </c>
       <c r="C283">
         <v>0.004818</v>
       </c>
       <c r="D283">
-        <v>0.00537</v>
+        <v>0.004879</v>
       </c>
       <c r="F283">
-        <v>-0.114492</v>
+        <v>-0.01268</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>2360</v>
+        <v>4362</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
       </c>
       <c r="C284">
         <v>0.00039</v>
       </c>
       <c r="D284">
-        <v>0.000513</v>
+        <v>0.000414</v>
       </c>
       <c r="F284">
-        <v>-0.313266</v>
+        <v>-0.061809</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>1083</v>
+        <v>3085</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
       </c>
       <c r="C285">
         <v>0.000145</v>
       </c>
       <c r="D285">
-        <v>0.00013</v>
+        <v>0.000123</v>
       </c>
       <c r="F285">
-        <v>0.101031</v>
+        <v>0.148897</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>1535</v>
+        <v>3537</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
       </c>
       <c r="C286">
         <v>0.000309</v>
       </c>
       <c r="D286">
-        <v>0.000191</v>
+        <v>0.000147</v>
       </c>
       <c r="F286">
-        <v>0.381641</v>
+        <v>0.52521</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>727</v>
+        <v>2729</v>
+      </c>
+      <c r="B287" t="s">
+        <v>6</v>
       </c>
       <c r="C287">
         <v>0.006818</v>
       </c>
       <c r="D287">
-        <v>0.005235</v>
+        <v>0.005382</v>
       </c>
       <c r="F287">
-        <v>0.232172</v>
+        <v>0.210629</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288">
-        <v>1770</v>
+        <v>3772</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
       </c>
       <c r="C288">
         <v>0.000124</v>
       </c>
       <c r="D288">
-        <v>5.4E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="F288">
-        <v>0.567788</v>
+        <v>0.672194</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289">
-        <v>2084</v>
+        <v>4086</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6</v>
       </c>
       <c r="C289">
         <v>0.000186</v>
       </c>
       <c r="D289">
-        <v>5.9E-05</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F289">
-        <v>0.685925</v>
+        <v>0.7145089999999999</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290">
-        <v>380</v>
+        <v>2382</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
       </c>
       <c r="C290">
         <v>0.000252</v>
       </c>
       <c r="D290">
-        <v>0.000428</v>
+        <v>0.000517</v>
       </c>
       <c r="F290">
-        <v>-0.699059</v>
+        <v>-1.049931</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291">
-        <v>1784</v>
+        <v>3786</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
       </c>
       <c r="C291">
         <v>5E-06</v>
@@ -4565,26 +5345,32 @@
         <v>6E-06</v>
       </c>
       <c r="F291">
-        <v>-0.249014</v>
+        <v>-0.275887</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292">
-        <v>213</v>
+        <v>2215</v>
+      </c>
+      <c r="B292" t="s">
+        <v>6</v>
       </c>
       <c r="C292">
         <v>0.000626</v>
       </c>
       <c r="D292">
-        <v>0.000489</v>
+        <v>0.000487</v>
       </c>
       <c r="F292">
-        <v>0.21845</v>
+        <v>0.221703</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293">
-        <v>1925</v>
+        <v>3927</v>
+      </c>
+      <c r="B293" t="s">
+        <v>6</v>
       </c>
       <c r="C293">
         <v>6E-06</v>
@@ -4593,502 +5379,607 @@
         <v>1E-06</v>
       </c>
       <c r="F293">
-        <v>0.813768</v>
+        <v>0.852171</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294">
-        <v>917</v>
+        <v>2919</v>
+      </c>
+      <c r="B294" t="s">
+        <v>6</v>
       </c>
       <c r="C294">
         <v>0.000677</v>
       </c>
       <c r="D294">
-        <v>0.000906</v>
+        <v>0.000705</v>
       </c>
       <c r="F294">
-        <v>-0.338758</v>
+        <v>-0.041099</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295">
-        <v>2410</v>
+        <v>4412</v>
+      </c>
+      <c r="B295" t="s">
+        <v>6</v>
       </c>
       <c r="C295">
         <v>1.6E-05</v>
       </c>
       <c r="D295">
-        <v>9.1E-05</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F295">
-        <v>-4.844899</v>
+        <v>-4.438895</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296">
-        <v>1410</v>
+        <v>3412</v>
+      </c>
+      <c r="B296" t="s">
+        <v>6</v>
       </c>
       <c r="C296">
         <v>0.00658</v>
       </c>
       <c r="D296">
-        <v>0.007937</v>
+        <v>0.008265</v>
       </c>
       <c r="F296">
-        <v>-0.206218</v>
+        <v>-0.25609</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297">
-        <v>2373</v>
+        <v>4375</v>
+      </c>
+      <c r="B297" t="s">
+        <v>6</v>
       </c>
       <c r="C297">
         <v>0.000651</v>
       </c>
       <c r="D297">
-        <v>0.00083</v>
+        <v>0.000537</v>
       </c>
       <c r="F297">
-        <v>-0.275886</v>
+        <v>0.174228</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298">
-        <v>1524</v>
+        <v>3526</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
       </c>
       <c r="C298">
         <v>0.000167</v>
       </c>
       <c r="D298">
-        <v>0.000101</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F298">
-        <v>0.393406</v>
+        <v>0.49053</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299">
-        <v>2228</v>
+        <v>4230</v>
+      </c>
+      <c r="B299" t="s">
+        <v>6</v>
       </c>
       <c r="C299">
         <v>4.9E-05</v>
       </c>
       <c r="D299">
-        <v>7.8E-05</v>
+        <v>0.000132</v>
       </c>
       <c r="F299">
-        <v>-0.594349</v>
+        <v>-1.714523</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300">
-        <v>347</v>
+        <v>2349</v>
+      </c>
+      <c r="B300" t="s">
+        <v>6</v>
       </c>
       <c r="C300">
         <v>0.00049</v>
       </c>
       <c r="D300">
-        <v>0.00033</v>
+        <v>0.000305</v>
       </c>
       <c r="F300">
-        <v>0.326472</v>
+        <v>0.377655</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301">
-        <v>1830</v>
+        <v>3832</v>
+      </c>
+      <c r="B301" t="s">
+        <v>6</v>
       </c>
       <c r="C301">
         <v>6.499999999999999E-05</v>
       </c>
       <c r="D301">
-        <v>1.6E-05</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F301">
-        <v>0.754398</v>
+        <v>0.741524</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302">
-        <v>2061</v>
+        <v>4063</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
       </c>
       <c r="C302">
         <v>0.000676</v>
       </c>
       <c r="D302">
-        <v>0.000106</v>
+        <v>9.1E-05</v>
       </c>
       <c r="F302">
-        <v>0.843701</v>
+        <v>0.865139</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303">
-        <v>1791</v>
+        <v>3793</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
       </c>
       <c r="C303">
         <v>1.5E-05</v>
       </c>
       <c r="D303">
-        <v>5.7E-05</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F303">
-        <v>-2.692565</v>
+        <v>-2.666326</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304">
-        <v>1308</v>
+        <v>3310</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
       </c>
       <c r="C304">
         <v>0.000117</v>
       </c>
       <c r="D304">
-        <v>0.000104</v>
+        <v>0.000122</v>
       </c>
       <c r="F304">
-        <v>0.111992</v>
+        <v>-0.041845</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305">
-        <v>1788</v>
+        <v>3790</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
       </c>
       <c r="C305">
         <v>5E-06</v>
       </c>
       <c r="D305">
-        <v>8E-06</v>
+        <v>9E-06</v>
       </c>
       <c r="F305">
-        <v>-0.6846139999999999</v>
+        <v>-0.842263</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306">
-        <v>1176</v>
+        <v>3178</v>
+      </c>
+      <c r="B306" t="s">
+        <v>6</v>
       </c>
       <c r="C306">
         <v>1.6E-05</v>
       </c>
       <c r="D306">
-        <v>5.6E-05</v>
+        <v>4.6E-05</v>
       </c>
       <c r="F306">
-        <v>-2.536842</v>
+        <v>-1.879378</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307">
-        <v>765</v>
+        <v>2767</v>
+      </c>
+      <c r="B307" t="s">
+        <v>6</v>
       </c>
       <c r="C307">
         <v>0.003636</v>
       </c>
       <c r="D307">
-        <v>0.00294</v>
+        <v>0.002412</v>
       </c>
       <c r="F307">
-        <v>0.191408</v>
+        <v>0.336713</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308">
-        <v>463</v>
+        <v>2465</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
       </c>
       <c r="C308">
         <v>0.00013</v>
       </c>
       <c r="D308">
-        <v>4.3E-05</v>
+        <v>3.9E-05</v>
       </c>
       <c r="F308">
-        <v>0.665887</v>
+        <v>0.702847</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309">
-        <v>678</v>
+        <v>2680</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
       </c>
       <c r="C309">
         <v>4.8E-05</v>
       </c>
       <c r="D309">
-        <v>5.5E-05</v>
+        <v>5.4E-05</v>
       </c>
       <c r="F309">
-        <v>-0.154458</v>
+        <v>-0.135495</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310">
-        <v>1896</v>
+        <v>3898</v>
+      </c>
+      <c r="B310" t="s">
+        <v>6</v>
       </c>
       <c r="C310">
         <v>0.000142</v>
       </c>
       <c r="D310">
-        <v>8.4E-05</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="F310">
-        <v>0.410115</v>
+        <v>0.474852</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311">
-        <v>2349</v>
+        <v>4351</v>
+      </c>
+      <c r="B311" t="s">
+        <v>6</v>
       </c>
       <c r="C311">
         <v>0.000449</v>
       </c>
       <c r="D311">
-        <v>0.000456</v>
+        <v>0.000619</v>
       </c>
       <c r="F311">
-        <v>-0.01577</v>
+        <v>-0.379753</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312">
-        <v>1542</v>
+        <v>3544</v>
+      </c>
+      <c r="B312" t="s">
+        <v>6</v>
       </c>
       <c r="C312">
         <v>0.000159</v>
       </c>
       <c r="D312">
-        <v>7.4E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="F312">
-        <v>0.533744</v>
+        <v>0.49599</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313">
-        <v>2392</v>
+        <v>4394</v>
+      </c>
+      <c r="B313" t="s">
+        <v>6</v>
       </c>
       <c r="C313">
         <v>0.000197</v>
       </c>
       <c r="D313">
-        <v>0.000209</v>
+        <v>0.00023</v>
       </c>
       <c r="F313">
-        <v>-0.05758</v>
+        <v>-0.16763</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314">
-        <v>1432</v>
+        <v>3434</v>
+      </c>
+      <c r="B314" t="s">
+        <v>6</v>
       </c>
       <c r="C314">
         <v>0.00991</v>
       </c>
       <c r="D314">
-        <v>0.010375</v>
+        <v>0.006999</v>
       </c>
       <c r="F314">
-        <v>-0.046909</v>
+        <v>0.293721</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315">
-        <v>39</v>
+        <v>2041</v>
+      </c>
+      <c r="B315" t="s">
+        <v>6</v>
       </c>
       <c r="C315">
         <v>0.000198</v>
       </c>
       <c r="D315">
-        <v>5.9E-05</v>
+        <v>5.1E-05</v>
       </c>
       <c r="F315">
-        <v>0.703785</v>
+        <v>0.745111</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316">
-        <v>2102</v>
+        <v>4104</v>
+      </c>
+      <c r="B316" t="s">
+        <v>6</v>
       </c>
       <c r="C316">
         <v>2.1E-05</v>
       </c>
       <c r="D316">
-        <v>0.000103</v>
+        <v>7.7E-05</v>
       </c>
       <c r="F316">
-        <v>-3.955606</v>
+        <v>-2.723505</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317">
-        <v>2221</v>
+        <v>4223</v>
+      </c>
+      <c r="B317" t="s">
+        <v>6</v>
       </c>
       <c r="C317">
         <v>1E-06</v>
       </c>
       <c r="D317">
-        <v>1E-05</v>
+        <v>4.4E-05</v>
       </c>
       <c r="F317">
-        <v>-9.442045</v>
+        <v>-43.127114</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318">
-        <v>1827</v>
+        <v>3829</v>
+      </c>
+      <c r="B318" t="s">
+        <v>6</v>
       </c>
       <c r="C318">
         <v>3.2E-05</v>
       </c>
       <c r="D318">
-        <v>1.4E-05</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F318">
-        <v>0.568089</v>
+        <v>0.64639</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319">
-        <v>2002</v>
+        <v>4004</v>
+      </c>
+      <c r="B319" t="s">
+        <v>6</v>
       </c>
       <c r="C319">
         <v>9.3E-05</v>
       </c>
       <c r="D319">
-        <v>7E-06</v>
+        <v>6E-06</v>
       </c>
       <c r="F319">
-        <v>0.927712</v>
+        <v>0.932786</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320">
-        <v>963</v>
+        <v>2965</v>
+      </c>
+      <c r="B320" t="s">
+        <v>6</v>
       </c>
       <c r="C320">
         <v>0.003252</v>
       </c>
       <c r="D320">
-        <v>0.002544</v>
+        <v>0.002698</v>
       </c>
       <c r="F320">
-        <v>0.217894</v>
+        <v>0.170426</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321">
-        <v>1690</v>
+        <v>3692</v>
+      </c>
+      <c r="B321" t="s">
+        <v>6</v>
       </c>
       <c r="C321">
         <v>4.3E-05</v>
       </c>
       <c r="D321">
-        <v>4.3E-05</v>
+        <v>3.9E-05</v>
       </c>
       <c r="F321">
-        <v>0.00065</v>
+        <v>0.104388</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322">
-        <v>1816</v>
+        <v>3818</v>
+      </c>
+      <c r="B322" t="s">
+        <v>6</v>
       </c>
       <c r="C322">
         <v>1.5E-05</v>
       </c>
       <c r="D322">
-        <v>6E-06</v>
+        <v>7E-06</v>
       </c>
       <c r="F322">
-        <v>0.566527</v>
+        <v>0.5533090000000001</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323">
-        <v>8</v>
+        <v>2010</v>
+      </c>
+      <c r="B323" t="s">
+        <v>6</v>
       </c>
       <c r="C323">
         <v>0.001481</v>
       </c>
       <c r="D323">
-        <v>0.004925</v>
+        <v>0.003305</v>
       </c>
       <c r="F323">
-        <v>-2.326198</v>
+        <v>-1.231906</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324">
-        <v>1175</v>
+        <v>3177</v>
+      </c>
+      <c r="B324" t="s">
+        <v>6</v>
       </c>
       <c r="C324">
         <v>2.3E-05</v>
       </c>
       <c r="D324">
-        <v>6.999999999999999E-05</v>
+        <v>5.9E-05</v>
       </c>
       <c r="F324">
-        <v>-2.059529</v>
+        <v>-1.600646</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325">
-        <v>1745</v>
+        <v>3747</v>
+      </c>
+      <c r="B325" t="s">
+        <v>6</v>
       </c>
       <c r="C325">
         <v>6.7E-05</v>
       </c>
       <c r="D325">
-        <v>5.8E-05</v>
+        <v>6.2E-05</v>
       </c>
       <c r="F325">
-        <v>0.125404</v>
+        <v>0.075332</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326">
-        <v>2219</v>
+        <v>4221</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
       </c>
       <c r="C326">
         <v>2E-06</v>
       </c>
       <c r="D326">
-        <v>1.2E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="F326">
-        <v>-5.7946</v>
+        <v>-26.668171</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327">
-        <v>1978</v>
+        <v>3980</v>
+      </c>
+      <c r="B327" t="s">
+        <v>6</v>
       </c>
       <c r="C327">
         <v>4E-06</v>
       </c>
       <c r="D327">
-        <v>2E-06</v>
+        <v>8E-06</v>
       </c>
       <c r="F327">
-        <v>0.413556</v>
+        <v>-0.802598</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328">
-        <v>710</v>
+        <v>2712</v>
+      </c>
+      <c r="B328" t="s">
+        <v>6</v>
       </c>
       <c r="C328">
         <v>0.000925</v>
       </c>
       <c r="D328">
-        <v>0.000498</v>
+        <v>0.000521</v>
       </c>
       <c r="F328">
-        <v>0.46213</v>
+        <v>0.436523</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329">
-        <v>896</v>
+        <v>2898</v>
       </c>
       <c r="B329" t="s">
         <v>6</v>
@@ -5097,15 +5988,18 @@
         <v>4.3E-05</v>
       </c>
       <c r="D329">
-        <v>7E-06</v>
+        <v>9E-06</v>
       </c>
       <c r="F329">
-        <v>0.8380840000000001</v>
+        <v>0.798878</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330">
-        <v>1881</v>
+        <v>3883</v>
+      </c>
+      <c r="B330" t="s">
+        <v>6</v>
       </c>
       <c r="C330">
         <v>4.9E-05</v>
@@ -5114,26 +6008,29 @@
         <v>9.8E-05</v>
       </c>
       <c r="F330">
-        <v>-0.994279</v>
+        <v>-0.98011</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331">
-        <v>1739</v>
+        <v>3741</v>
+      </c>
+      <c r="B331" t="s">
+        <v>6</v>
       </c>
       <c r="C331">
         <v>5.2E-05</v>
       </c>
       <c r="D331">
-        <v>2.7E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F331">
-        <v>0.484563</v>
+        <v>0.555955</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332">
-        <v>1149</v>
+        <v>3151</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -5142,99 +6039,117 @@
         <v>8E-06</v>
       </c>
       <c r="D332">
-        <v>4.8E-05</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F332">
-        <v>-4.995661</v>
+        <v>-2.031663</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333">
-        <v>943</v>
+        <v>2945</v>
+      </c>
+      <c r="B333" t="s">
+        <v>6</v>
       </c>
       <c r="C333">
         <v>0.003205</v>
       </c>
       <c r="D333">
-        <v>0.002147</v>
+        <v>0.002294</v>
       </c>
       <c r="F333">
-        <v>0.330125</v>
+        <v>0.284229</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334">
-        <v>1408</v>
+        <v>3410</v>
+      </c>
+      <c r="B334" t="s">
+        <v>6</v>
       </c>
       <c r="C334">
         <v>0.000708</v>
       </c>
       <c r="D334">
-        <v>0.001157</v>
+        <v>0.0008140000000000001</v>
       </c>
       <c r="F334">
-        <v>-0.6335460000000001</v>
+        <v>-0.14924</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335">
-        <v>141</v>
+        <v>2143</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
       </c>
       <c r="C335">
         <v>0.00096</v>
       </c>
       <c r="D335">
-        <v>0.000914</v>
+        <v>0.000619</v>
       </c>
       <c r="F335">
-        <v>0.047891</v>
+        <v>0.355249</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336">
-        <v>1511</v>
+        <v>3513</v>
+      </c>
+      <c r="B336" t="s">
+        <v>6</v>
       </c>
       <c r="C336">
         <v>0.000301</v>
       </c>
       <c r="D336">
-        <v>0.000212</v>
+        <v>0.000192</v>
       </c>
       <c r="F336">
-        <v>0.297065</v>
+        <v>0.362438</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337">
-        <v>862</v>
+        <v>2864</v>
+      </c>
+      <c r="B337" t="s">
+        <v>6</v>
       </c>
       <c r="C337">
         <v>0.0005910000000000001</v>
       </c>
       <c r="D337">
-        <v>0.000389</v>
+        <v>0.000382</v>
       </c>
       <c r="F337">
-        <v>0.342525</v>
+        <v>0.353709</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338">
-        <v>2096</v>
+        <v>4098</v>
+      </c>
+      <c r="B338" t="s">
+        <v>6</v>
       </c>
       <c r="C338">
         <v>8E-06</v>
       </c>
       <c r="D338">
-        <v>1.9E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F338">
-        <v>-1.431919</v>
+        <v>-1.447824</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339">
-        <v>1729</v>
+        <v>3731</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -5243,15 +6158,18 @@
         <v>0.00012</v>
       </c>
       <c r="D339">
-        <v>6.2E-05</v>
+        <v>4.6E-05</v>
       </c>
       <c r="F339">
-        <v>0.486994</v>
+        <v>0.616105</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340">
-        <v>1547</v>
+        <v>3549</v>
+      </c>
+      <c r="B340" t="s">
+        <v>6</v>
       </c>
       <c r="C340">
         <v>1.4E-05</v>
@@ -5260,54 +6178,63 @@
         <v>1E-05</v>
       </c>
       <c r="F340">
-        <v>0.258736</v>
+        <v>0.309558</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341">
-        <v>1543</v>
+        <v>3545</v>
+      </c>
+      <c r="B341" t="s">
+        <v>6</v>
       </c>
       <c r="C341">
         <v>0.000389</v>
       </c>
       <c r="D341">
-        <v>0.000234</v>
+        <v>0.000183</v>
       </c>
       <c r="F341">
-        <v>0.39831</v>
+        <v>0.528471</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342">
-        <v>1846</v>
+        <v>3848</v>
+      </c>
+      <c r="B342" t="s">
+        <v>6</v>
       </c>
       <c r="C342">
         <v>1.5E-05</v>
       </c>
       <c r="D342">
-        <v>2.4E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F342">
-        <v>-0.582821</v>
+        <v>-0.847665</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343">
-        <v>327</v>
+        <v>2329</v>
+      </c>
+      <c r="B343" t="s">
+        <v>6</v>
       </c>
       <c r="C343">
         <v>0.000708</v>
       </c>
       <c r="D343">
-        <v>0.001157</v>
+        <v>0.0008140000000000001</v>
       </c>
       <c r="F343">
-        <v>-0.633548</v>
+        <v>-0.149242</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344">
-        <v>694</v>
+        <v>2696</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -5316,10 +6243,10 @@
         <v>0.00023</v>
       </c>
       <c r="D344">
-        <v>0.000203</v>
+        <v>0.000196</v>
       </c>
       <c r="F344">
-        <v>0.117224</v>
+        <v>0.14588</v>
       </c>
     </row>
   </sheetData>

--- a/part3/tables-3/dom_validty_part-3.xlsx
+++ b/part3/tables-3/dom_validty_part-3.xlsx
@@ -420,4376 +420,4376 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>4059</v>
+        <v>2773</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1.4E-05</v>
+        <v>0.003415</v>
       </c>
       <c r="D2">
-        <v>2.8E-05</v>
+        <v>0.003165</v>
       </c>
       <c r="F2">
-        <v>-0.929993</v>
+        <v>0.073225</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2112</v>
+        <v>3371</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.000264</v>
+        <v>0.000144</v>
       </c>
       <c r="D3">
-        <v>0.000346</v>
+        <v>0.000129</v>
       </c>
       <c r="F3">
-        <v>-0.311309</v>
+        <v>0.107488</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>2992</v>
+        <v>4291</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>2E-06</v>
+        <v>0.000361</v>
       </c>
       <c r="D4">
-        <v>7E-06</v>
+        <v>0.000285</v>
       </c>
       <c r="F4">
-        <v>-2.677498</v>
+        <v>0.209476</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>2154</v>
+        <v>3755</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.001023</v>
+        <v>0.00017</v>
       </c>
       <c r="D5">
-        <v>0.000574</v>
+        <v>0.000108</v>
       </c>
       <c r="F5">
-        <v>0.438739</v>
+        <v>0.362238</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>2091</v>
+        <v>3895</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.000156</v>
+        <v>0.00054</v>
       </c>
       <c r="D6">
-        <v>0.000128</v>
+        <v>0.000345</v>
       </c>
       <c r="F6">
-        <v>0.180524</v>
+        <v>0.362001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>2961</v>
+        <v>3835</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.008300999999999999</v>
+        <v>5E-06</v>
       </c>
       <c r="D7">
-        <v>0.008669</v>
+        <v>5E-06</v>
       </c>
       <c r="F7">
-        <v>-0.044379</v>
+        <v>0.047542</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>2848</v>
+        <v>3966</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.000327</v>
+        <v>3E-06</v>
       </c>
       <c r="D8">
-        <v>0.000153</v>
+        <v>4E-06</v>
       </c>
       <c r="F8">
-        <v>0.533206</v>
+        <v>-0.156339</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>3944</v>
+        <v>3316</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>4.8E-05</v>
+        <v>0.000497</v>
       </c>
       <c r="D9">
-        <v>3.7E-05</v>
+        <v>0.000144</v>
       </c>
       <c r="F9">
-        <v>0.234585</v>
+        <v>0.7097869999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>3356</v>
+        <v>2865</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>0.00169</v>
+        <v>0.001776</v>
       </c>
       <c r="D10">
-        <v>0.00116</v>
+        <v>0.001606</v>
       </c>
       <c r="F10">
-        <v>0.313891</v>
+        <v>0.09578</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>4196</v>
+        <v>2828</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.000103</v>
+        <v>0.00533</v>
       </c>
       <c r="D11">
-        <v>0.000254</v>
+        <v>0.004704</v>
       </c>
       <c r="F11">
-        <v>-1.478358</v>
+        <v>0.117382</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>3079</v>
+        <v>3931</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12">
-        <v>0.002624</v>
+        <v>4E-06</v>
       </c>
       <c r="D12">
-        <v>0.00212</v>
+        <v>3E-06</v>
       </c>
       <c r="F12">
-        <v>0.191981</v>
+        <v>0.232538</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>2963</v>
+        <v>2350</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13">
-        <v>0.000625</v>
+        <v>0.000432</v>
       </c>
       <c r="D13">
-        <v>0.000362</v>
+        <v>0.000333</v>
       </c>
       <c r="F13">
-        <v>0.421181</v>
+        <v>0.229843</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>3126</v>
+        <v>3657</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14">
-        <v>2.8E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="D14">
-        <v>2.8E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F14">
-        <v>-0.000219</v>
+        <v>-2.393117</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>4316</v>
+        <v>4065</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>0.000105</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D15">
-        <v>5E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F15">
-        <v>0.529558</v>
+        <v>-0.392536</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>3664</v>
+        <v>2381</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>6E-06</v>
+        <v>0.000109</v>
       </c>
       <c r="D16">
-        <v>2.4E-05</v>
+        <v>0.000316</v>
       </c>
       <c r="F16">
-        <v>-2.817246</v>
+        <v>-1.895737</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>2359</v>
+        <v>2055</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.000588</v>
+        <v>0.000474</v>
       </c>
       <c r="D17">
-        <v>0.000449</v>
+        <v>0.000223</v>
       </c>
       <c r="F17">
-        <v>0.236983</v>
+        <v>0.528501</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>4029</v>
+        <v>4392</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>2.9E-05</v>
+        <v>0.000152</v>
       </c>
       <c r="D18">
-        <v>2.8E-05</v>
+        <v>0.000119</v>
       </c>
       <c r="F18">
-        <v>0.024523</v>
+        <v>0.2196</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>3748</v>
+        <v>2973</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19">
-        <v>0.000151</v>
+        <v>0.004818</v>
       </c>
       <c r="D19">
-        <v>0.000109</v>
+        <v>0.005764</v>
       </c>
       <c r="F19">
-        <v>0.276873</v>
+        <v>-0.196335</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>3529</v>
+        <v>2942</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>0.000222</v>
+        <v>5.9E-05</v>
       </c>
       <c r="D20">
-        <v>9.8E-05</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F20">
-        <v>0.560658</v>
+        <v>0.109011</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>4243</v>
+        <v>2834</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21">
-        <v>0.000347</v>
+        <v>0.000172</v>
       </c>
       <c r="D21">
-        <v>0.000248</v>
+        <v>0.000157</v>
       </c>
       <c r="F21">
-        <v>0.285696</v>
+        <v>0.08899</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>3418</v>
+        <v>3954</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22">
-        <v>0.00256</v>
+        <v>4E-05</v>
       </c>
       <c r="D22">
-        <v>0.001744</v>
+        <v>5.4E-05</v>
       </c>
       <c r="F22">
-        <v>0.318779</v>
+        <v>-0.361993</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>2153</v>
+        <v>2412</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.00233</v>
+        <v>0.00026</v>
       </c>
       <c r="D23">
-        <v>0.001189</v>
+        <v>0.000187</v>
       </c>
       <c r="F23">
-        <v>0.489813</v>
+        <v>0.281688</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>3541</v>
+        <v>2022</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24">
-        <v>3.9E-05</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D24">
-        <v>3.1E-05</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F24">
-        <v>0.202808</v>
+        <v>-1.30494</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>2613</v>
+        <v>3887</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25">
-        <v>0.000842</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D25">
-        <v>0.000442</v>
+        <v>0.000134</v>
       </c>
       <c r="F25">
-        <v>0.474901</v>
+        <v>-2.307754</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>2780</v>
+        <v>3683</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26">
-        <v>0.000205</v>
+        <v>5.3E-05</v>
       </c>
       <c r="D26">
-        <v>3.6E-05</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F26">
-        <v>0.8238839999999999</v>
+        <v>0.388001</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>3989</v>
+        <v>2597</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>8.6E-05</v>
+        <v>7.3E-05</v>
       </c>
       <c r="D27">
-        <v>2E-05</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F27">
-        <v>0.773234</v>
+        <v>0.230166</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>2060</v>
+        <v>3122</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>0.000447</v>
+        <v>0.00206</v>
       </c>
       <c r="D28">
-        <v>0.000146</v>
+        <v>0.002946</v>
       </c>
       <c r="F28">
-        <v>0.6728189999999999</v>
+        <v>-0.429996</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>3396</v>
+        <v>3354</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>3E-06</v>
+        <v>3.3E-05</v>
       </c>
       <c r="D29">
-        <v>3E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F29">
-        <v>-10.046467</v>
+        <v>0.162957</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>3925</v>
+        <v>3455</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>1.1E-05</v>
+        <v>0.00704</v>
       </c>
       <c r="D30">
-        <v>3E-06</v>
+        <v>0.006641</v>
       </c>
       <c r="F30">
-        <v>0.7201340000000001</v>
+        <v>0.056684</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>2363</v>
+        <v>3317</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>0.000803</v>
+        <v>0.000302</v>
       </c>
       <c r="D31">
-        <v>0.001241</v>
+        <v>0.000134</v>
       </c>
       <c r="F31">
-        <v>-0.545147</v>
+        <v>0.556295</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>3442</v>
+        <v>2122</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>0.00967</v>
+        <v>0.000123</v>
       </c>
       <c r="D32">
-        <v>0.011706</v>
+        <v>9.500000000000001E-05</v>
       </c>
       <c r="F32">
-        <v>-0.210583</v>
+        <v>0.226828</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>4214</v>
+        <v>3654</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>1.8E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="D33">
-        <v>8.2E-05</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F33">
-        <v>-3.504864</v>
+        <v>0.221316</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>3206</v>
+        <v>3724</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>0.000382</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D34">
-        <v>0.000405</v>
+        <v>9E-06</v>
       </c>
       <c r="F34">
-        <v>-0.061248</v>
+        <v>0.469207</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>3814</v>
+        <v>2599</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>1.9E-05</v>
+        <v>0.001426</v>
       </c>
       <c r="D35">
-        <v>1E-05</v>
+        <v>0.0009479999999999999</v>
       </c>
       <c r="F35">
-        <v>0.476789</v>
+        <v>0.334862</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>2542</v>
+        <v>2265</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>1.7E-05</v>
+        <v>4.3E-05</v>
       </c>
       <c r="D36">
-        <v>6.3E-05</v>
+        <v>3.4E-05</v>
       </c>
       <c r="F36">
-        <v>-2.701679</v>
+        <v>0.212271</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>3525</v>
+        <v>2682</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>0.000232</v>
+        <v>0.001436</v>
       </c>
       <c r="D37">
-        <v>0.000229</v>
+        <v>0.0009879999999999999</v>
       </c>
       <c r="F37">
-        <v>0.011419</v>
+        <v>0.31199</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>2447</v>
+        <v>3762</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>0.000166</v>
+        <v>0.000147</v>
       </c>
       <c r="D38">
-        <v>6E-05</v>
+        <v>5.7E-05</v>
       </c>
       <c r="F38">
-        <v>0.638557</v>
+        <v>0.613087</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>3375</v>
+        <v>4311</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>0.001709</v>
+        <v>9.8E-05</v>
       </c>
       <c r="D39">
-        <v>0.001181</v>
+        <v>0.00013</v>
       </c>
       <c r="F39">
-        <v>0.308932</v>
+        <v>-0.328865</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>4354</v>
+        <v>2710</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.000547</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D40">
-        <v>0.00056</v>
+        <v>2E-05</v>
       </c>
       <c r="F40">
-        <v>-0.023498</v>
+        <v>0.032004</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>3673</v>
+        <v>2840</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>0.000113</v>
+        <v>0.000806</v>
       </c>
       <c r="D41">
-        <v>1.5E-05</v>
+        <v>0.000605</v>
       </c>
       <c r="F41">
-        <v>0.86346</v>
+        <v>0.249258</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>2645</v>
+        <v>2978</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>2.6E-05</v>
+        <v>0.000165</v>
       </c>
       <c r="D42">
-        <v>5.4E-05</v>
+        <v>0.000107</v>
       </c>
       <c r="F42">
-        <v>-1.095615</v>
+        <v>0.351863</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>2231</v>
+        <v>3466</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>0.000484</v>
+        <v>0.00718</v>
       </c>
       <c r="D43">
-        <v>0.000327</v>
+        <v>0.007472</v>
       </c>
       <c r="F43">
-        <v>0.323893</v>
+        <v>-0.040609</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>3327</v>
+        <v>2730</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>5E-06</v>
+        <v>0.01</v>
       </c>
       <c r="D44">
-        <v>2.2E-05</v>
+        <v>0.00766</v>
       </c>
       <c r="F44">
-        <v>-3.536234</v>
+        <v>0.233978</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>3191</v>
+        <v>2694</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>0.001161</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D45">
-        <v>0.001596</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F45">
-        <v>-0.375075</v>
+        <v>-1.26162</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>3683</v>
+        <v>3700</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>5.3E-05</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="D46">
-        <v>2.2E-05</v>
+        <v>6.7E-05</v>
       </c>
       <c r="F46">
-        <v>0.586813</v>
+        <v>-0.029172</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>2388</v>
+        <v>3373</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>3.2E-05</v>
+        <v>0.002851</v>
       </c>
       <c r="D47">
-        <v>0.000198</v>
+        <v>0.001733</v>
       </c>
       <c r="F47">
-        <v>-5.195245</v>
+        <v>0.39217</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>3363</v>
+        <v>2374</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>6.2E-05</v>
+        <v>0.000559</v>
       </c>
       <c r="D48">
-        <v>4.6E-05</v>
+        <v>0.000333</v>
       </c>
       <c r="F48">
-        <v>0.257848</v>
+        <v>0.404667</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>3205</v>
+        <v>3760</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>0.000516</v>
+        <v>7.7E-05</v>
       </c>
       <c r="D49">
-        <v>0.000412</v>
+        <v>0.000123</v>
       </c>
       <c r="F49">
-        <v>0.202063</v>
+        <v>-0.610577</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>3335</v>
+        <v>3221</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>2.4E-05</v>
+        <v>0.000256</v>
       </c>
       <c r="D50">
-        <v>2E-05</v>
+        <v>0.000193</v>
       </c>
       <c r="F50">
-        <v>0.1701</v>
+        <v>0.24587</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>3779</v>
+        <v>4248</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>0.000119</v>
+        <v>4.8E-05</v>
       </c>
       <c r="D51">
-        <v>4.4E-05</v>
+        <v>0.000121</v>
       </c>
       <c r="F51">
-        <v>0.631065</v>
+        <v>-1.49392</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>3485</v>
+        <v>3319</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>0.00302</v>
+        <v>0.0008229999999999999</v>
       </c>
       <c r="D52">
-        <v>0.002991</v>
+        <v>0.000391</v>
       </c>
       <c r="F52">
-        <v>0.009520000000000001</v>
+        <v>0.524692</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>2368</v>
+        <v>3228</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>0.000246</v>
+        <v>0.00037</v>
       </c>
       <c r="D53">
-        <v>0.00051</v>
+        <v>0.000406</v>
       </c>
       <c r="F53">
-        <v>-1.072599</v>
+        <v>-0.09675300000000001</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>3640</v>
+        <v>3301</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>1.4E-05</v>
+        <v>0.00045</v>
       </c>
       <c r="D54">
-        <v>6.999999999999999E-05</v>
+        <v>0.000131</v>
       </c>
       <c r="F54">
-        <v>-3.858387</v>
+        <v>0.70771</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>2059</v>
+        <v>4394</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>0.001139</v>
+        <v>0.000197</v>
       </c>
       <c r="D55">
-        <v>0.000376</v>
+        <v>0.000228</v>
       </c>
       <c r="F55">
-        <v>0.66981</v>
+        <v>-0.156639</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>2777</v>
+        <v>4124</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>0.000294</v>
+        <v>0.000174</v>
       </c>
       <c r="D56">
-        <v>0.000169</v>
+        <v>0.000117</v>
       </c>
       <c r="F56">
-        <v>0.426622</v>
+        <v>0.32553</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>2332</v>
+        <v>4386</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>0.004426</v>
+        <v>0.000126</v>
       </c>
       <c r="D57">
-        <v>0.006373</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F57">
-        <v>-0.439919</v>
+        <v>0.443967</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>4277</v>
+        <v>3704</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>0.000109</v>
+        <v>4.6E-05</v>
       </c>
       <c r="D58">
-        <v>9.000000000000001E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F58">
-        <v>0.171257</v>
+        <v>0.5679380000000001</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>3822</v>
+        <v>4040</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>5E-05</v>
+        <v>0.000967</v>
       </c>
       <c r="D59">
-        <v>3.6E-05</v>
+        <v>0.00031</v>
       </c>
       <c r="F59">
-        <v>0.292893</v>
+        <v>0.679081</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>3680</v>
+        <v>2445</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>4E-05</v>
+        <v>0.003023</v>
       </c>
       <c r="D60">
-        <v>3E-05</v>
+        <v>0.001968</v>
       </c>
       <c r="F60">
-        <v>0.266482</v>
+        <v>0.349118</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>3174</v>
+        <v>3926</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>1.7E-05</v>
+        <v>4.6E-05</v>
       </c>
       <c r="D61">
-        <v>4.4E-05</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F61">
-        <v>-1.600341</v>
+        <v>0.615034</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>2540</v>
+        <v>2680</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>3.9E-05</v>
+        <v>4.8E-05</v>
       </c>
       <c r="D62">
-        <v>0.000217</v>
+        <v>4.8E-05</v>
       </c>
       <c r="F62">
-        <v>-4.56158</v>
+        <v>-0.000302</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>3348</v>
+        <v>4374</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>7.4E-05</v>
+        <v>0.000633</v>
       </c>
       <c r="D63">
-        <v>6.3E-05</v>
+        <v>0.0008720000000000001</v>
       </c>
       <c r="F63">
-        <v>0.137738</v>
+        <v>-0.378075</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>3215</v>
+        <v>3434</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>0.000931</v>
+        <v>0.00991</v>
       </c>
       <c r="D64">
-        <v>0.000523</v>
+        <v>0.012018</v>
       </c>
       <c r="F64">
-        <v>0.437846</v>
+        <v>-0.212673</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>3962</v>
+        <v>2349</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>0.000117</v>
+        <v>0.00049</v>
       </c>
       <c r="D65">
-        <v>4.4E-05</v>
+        <v>0.000299</v>
       </c>
       <c r="F65">
-        <v>0.625148</v>
+        <v>0.390102</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>3854</v>
+        <v>3430</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>6.1E-05</v>
+        <v>0.00359</v>
       </c>
       <c r="D66">
-        <v>5.9E-05</v>
+        <v>0.001938</v>
       </c>
       <c r="F66">
-        <v>0.038544</v>
+        <v>0.460225</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>3674</v>
+        <v>4006</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>1E-05</v>
+        <v>0.000773</v>
       </c>
       <c r="D67">
-        <v>1.2E-05</v>
+        <v>0.000108</v>
       </c>
       <c r="F67">
-        <v>-0.27391</v>
+        <v>0.859644</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>3383</v>
+        <v>3881</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>1.5E-05</v>
+        <v>0.000216</v>
       </c>
       <c r="D68">
-        <v>3.2E-05</v>
+        <v>0.000256</v>
       </c>
       <c r="F68">
-        <v>-1.106038</v>
+        <v>-0.18546</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>4296</v>
+        <v>2266</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69">
-        <v>5.1E-05</v>
+        <v>7.2E-05</v>
       </c>
       <c r="D69">
-        <v>7.4E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="F69">
-        <v>-0.44355</v>
+        <v>0.448608</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>2221</v>
+        <v>4045</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>0.000447</v>
+        <v>2E-06</v>
       </c>
       <c r="D70">
-        <v>0.000364</v>
+        <v>4E-06</v>
       </c>
       <c r="F70">
-        <v>0.18675</v>
+        <v>-1.340996</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>3550</v>
+        <v>2496</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>2E-06</v>
+        <v>0.001279</v>
       </c>
       <c r="D71">
-        <v>4E-06</v>
+        <v>0.0009479999999999999</v>
       </c>
       <c r="F71">
-        <v>-1.403376</v>
+        <v>0.258395</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>3819</v>
+        <v>2044</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>2.5E-05</v>
+        <v>0.00041</v>
       </c>
       <c r="D72">
-        <v>1.4E-05</v>
+        <v>0.000327</v>
       </c>
       <c r="F72">
-        <v>0.432359</v>
+        <v>0.200379</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>3487</v>
+        <v>3927</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>0.000651</v>
+        <v>6E-06</v>
       </c>
       <c r="D73">
-        <v>0.000588</v>
+        <v>1E-06</v>
       </c>
       <c r="F73">
-        <v>0.09679</v>
+        <v>0.768998</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>3506</v>
+        <v>3998</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>0.000535</v>
+        <v>4.8E-05</v>
       </c>
       <c r="D74">
-        <v>0.000267</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F74">
-        <v>0.501076</v>
+        <v>0.460933</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>3319</v>
+        <v>3988</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>0.0008229999999999999</v>
+        <v>8E-06</v>
       </c>
       <c r="D75">
-        <v>0.000328</v>
+        <v>5E-06</v>
       </c>
       <c r="F75">
-        <v>0.601158</v>
+        <v>0.338627</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>3227</v>
+        <v>3810</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76">
-        <v>0.000501</v>
+        <v>3.1E-05</v>
       </c>
       <c r="D76">
-        <v>0.000227</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F76">
-        <v>0.547477</v>
+        <v>0.08098</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>3618</v>
+        <v>4088</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77">
-        <v>1.3E-05</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D77">
-        <v>1.8E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F77">
-        <v>-0.360601</v>
+        <v>0.100911</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>4262</v>
+        <v>4130</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78">
-        <v>2.5E-05</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D78">
-        <v>4E-05</v>
+        <v>0.000105</v>
       </c>
       <c r="F78">
-        <v>-0.617788</v>
+        <v>-5.332705</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>2373</v>
+        <v>4140</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>0.001364</v>
+        <v>0.000244</v>
       </c>
       <c r="D79">
-        <v>0.0005730000000000001</v>
+        <v>0.00031</v>
       </c>
       <c r="F79">
-        <v>0.579944</v>
+        <v>-0.269486</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>2633</v>
+        <v>3811</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>0.000298</v>
+        <v>2.8E-05</v>
       </c>
       <c r="D80">
-        <v>0.000505</v>
+        <v>3.4E-05</v>
       </c>
       <c r="F80">
-        <v>-0.695867</v>
+        <v>-0.230736</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>3251</v>
+        <v>4103</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>0.002552</v>
+        <v>5E-06</v>
       </c>
       <c r="D81">
-        <v>0.001675</v>
+        <v>2E-05</v>
       </c>
       <c r="F81">
-        <v>0.343569</v>
+        <v>-3.043352</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>2753</v>
+        <v>2810</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>0.006959</v>
+        <v>0.000589</v>
       </c>
       <c r="D82">
-        <v>0.004811</v>
+        <v>0.0006089999999999999</v>
       </c>
       <c r="F82">
-        <v>0.308708</v>
+        <v>-0.034821</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>3930</v>
+        <v>2955</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>1E-05</v>
+        <v>0.000123</v>
       </c>
       <c r="D83">
-        <v>1E-06</v>
+        <v>0.000146</v>
       </c>
       <c r="F83">
-        <v>0.879591</v>
+        <v>-0.185283</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>4105</v>
+        <v>4371</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>0.000268</v>
+        <v>0.000538</v>
       </c>
       <c r="D84">
-        <v>9.899999999999999E-05</v>
+        <v>0.000456</v>
       </c>
       <c r="F84">
-        <v>0.628556</v>
+        <v>0.152805</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>3958</v>
+        <v>3400</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>1.2E-05</v>
+        <v>5.8E-05</v>
       </c>
       <c r="D85">
-        <v>3E-06</v>
+        <v>0.000108</v>
       </c>
       <c r="F85">
-        <v>0.782583</v>
+        <v>-0.863138</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>2589</v>
+        <v>2952</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86">
-        <v>0.001258</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D86">
-        <v>0.000975</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F86">
-        <v>0.224802</v>
+        <v>-0.084939</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>3379</v>
+        <v>4005</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87">
-        <v>0.000166</v>
+        <v>0.000419</v>
       </c>
       <c r="D87">
-        <v>7.1E-05</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="F87">
-        <v>0.571415</v>
+        <v>0.845437</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>3675</v>
+        <v>2398</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>3E-06</v>
+        <v>0.000353</v>
       </c>
       <c r="D88">
-        <v>1E-05</v>
+        <v>0.000199</v>
       </c>
       <c r="F88">
-        <v>-2.675982</v>
+        <v>0.437262</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>2455</v>
+        <v>2111</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89">
-        <v>0.001279</v>
+        <v>0.000705</v>
       </c>
       <c r="D89">
-        <v>0.000586</v>
+        <v>0.000679</v>
       </c>
       <c r="F89">
-        <v>0.541786</v>
+        <v>0.037217</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>3213</v>
+        <v>3712</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90">
-        <v>0.001356</v>
+        <v>5.5E-05</v>
       </c>
       <c r="D90">
-        <v>0.000621</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F90">
-        <v>0.542156</v>
+        <v>0.72772</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>2194</v>
+        <v>2726</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91">
-        <v>0.00248</v>
+        <v>0.000796</v>
       </c>
       <c r="D91">
-        <v>0.002263</v>
+        <v>0.00078</v>
       </c>
       <c r="F91">
-        <v>0.087324</v>
+        <v>0.020204</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>2868</v>
+        <v>3343</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92">
-        <v>0.000796</v>
+        <v>0.000504</v>
       </c>
       <c r="D92">
-        <v>0.000628</v>
+        <v>0.000127</v>
       </c>
       <c r="F92">
-        <v>0.210643</v>
+        <v>0.747436</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>3902</v>
+        <v>2446</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93">
-        <v>9E-06</v>
+        <v>0.004528</v>
       </c>
       <c r="D93">
-        <v>2.2E-05</v>
+        <v>0.00298</v>
       </c>
       <c r="F93">
-        <v>-1.446071</v>
+        <v>0.341865</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>3374</v>
+        <v>3685</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94">
-        <v>0.003763</v>
+        <v>6.3E-05</v>
       </c>
       <c r="D94">
-        <v>0.001725</v>
+        <v>6E-05</v>
       </c>
       <c r="F94">
-        <v>0.541544</v>
+        <v>0.049524</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>3781</v>
+        <v>3372</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95">
-        <v>4.2E-05</v>
+        <v>0.001041</v>
       </c>
       <c r="D95">
-        <v>1.9E-05</v>
+        <v>0.000356</v>
       </c>
       <c r="F95">
-        <v>0.542058</v>
+        <v>0.657543</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>4329</v>
+        <v>4096</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96">
-        <v>0.000381</v>
+        <v>0.00011</v>
       </c>
       <c r="D96">
-        <v>0.000472</v>
+        <v>0.000105</v>
       </c>
       <c r="F96">
-        <v>-0.237648</v>
+        <v>0.043594</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>2989</v>
+        <v>2469</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97">
-        <v>0.002314</v>
+        <v>0.001239</v>
       </c>
       <c r="D97">
-        <v>0.001969</v>
+        <v>0.000526</v>
       </c>
       <c r="F97">
-        <v>0.149096</v>
+        <v>0.575391</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98">
-        <v>8E-06</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D98">
-        <v>2.4E-05</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F98">
-        <v>-1.98627</v>
+        <v>-1.01743</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>3313</v>
+        <v>3624</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99">
-        <v>0.001965</v>
+        <v>8E-06</v>
       </c>
       <c r="D99">
-        <v>0.000304</v>
+        <v>4.8E-05</v>
       </c>
       <c r="F99">
-        <v>0.845088</v>
+        <v>-4.700085</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>3365</v>
+        <v>3247</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100">
-        <v>0.000149</v>
+        <v>0.001869</v>
       </c>
       <c r="D100">
-        <v>7.4E-05</v>
+        <v>0.001562</v>
       </c>
       <c r="F100">
-        <v>0.499797</v>
+        <v>0.164399</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>4377</v>
+        <v>3285</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101">
-        <v>0.000758</v>
+        <v>5.1E-05</v>
       </c>
       <c r="D101">
-        <v>0.00065</v>
+        <v>9.3E-05</v>
       </c>
       <c r="F101">
-        <v>0.143017</v>
+        <v>-0.835687</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>2423</v>
+        <v>2502</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102">
-        <v>0.002458</v>
+        <v>0.000182</v>
       </c>
       <c r="D102">
-        <v>0.003316</v>
+        <v>0.00026</v>
       </c>
       <c r="F102">
-        <v>-0.349099</v>
+        <v>-0.429333</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>3957</v>
+        <v>4143</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103">
-        <v>7.4E-05</v>
+        <v>0.000513</v>
       </c>
       <c r="D103">
-        <v>9E-06</v>
+        <v>0.000565</v>
       </c>
       <c r="F103">
-        <v>0.875108</v>
+        <v>-0.100559</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>3237</v>
+        <v>3526</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104">
-        <v>0.000124</v>
+        <v>0.000167</v>
       </c>
       <c r="D104">
-        <v>0.000113</v>
+        <v>0.000135</v>
       </c>
       <c r="F104">
-        <v>0.084296</v>
+        <v>0.193631</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>4229</v>
+        <v>3979</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105">
-        <v>7.8E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D105">
-        <v>0.000145</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F105">
-        <v>-0.860326</v>
+        <v>0.297859</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>2717</v>
+        <v>4074</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106">
-        <v>0.000854</v>
+        <v>0.002147</v>
       </c>
       <c r="D106">
-        <v>0.000184</v>
+        <v>0.001439</v>
       </c>
       <c r="F106">
-        <v>0.784011</v>
+        <v>0.330024</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>3295</v>
+        <v>2409</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107">
-        <v>1E-05</v>
+        <v>0.000288</v>
       </c>
       <c r="D107">
-        <v>1E-06</v>
+        <v>0.000354</v>
       </c>
       <c r="F107">
-        <v>0.940941</v>
+        <v>-0.228685</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>3428</v>
+        <v>2375</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108">
-        <v>0.000432</v>
+        <v>2E-05</v>
       </c>
       <c r="D108">
-        <v>0.000485</v>
+        <v>7.7E-05</v>
       </c>
       <c r="F108">
-        <v>-0.12321</v>
+        <v>-2.853266</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>4140</v>
+        <v>4037</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109">
-        <v>0.000244</v>
+        <v>0.000663</v>
       </c>
       <c r="D109">
-        <v>0.000464</v>
+        <v>0.000108</v>
       </c>
       <c r="F109">
-        <v>-0.897182</v>
+        <v>0.836465</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>2515</v>
+        <v>3933</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110">
-        <v>0.00055</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D110">
-        <v>0.000932</v>
+        <v>1E-05</v>
       </c>
       <c r="F110">
-        <v>-0.692974</v>
+        <v>0.510089</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>2772</v>
+        <v>2583</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111">
-        <v>0.001879</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D111">
-        <v>0.00131</v>
+        <v>6.1E-05</v>
       </c>
       <c r="F111">
-        <v>0.302755</v>
+        <v>-3.669391</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>2015</v>
+        <v>3832</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>0.001824</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="D112">
-        <v>0.000341</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F112">
-        <v>0.81324</v>
+        <v>0.624498</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>2839</v>
+        <v>3494</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113">
-        <v>6.600000000000001E-05</v>
+        <v>0.000394</v>
       </c>
       <c r="D113">
-        <v>6.1E-05</v>
+        <v>0.000265</v>
       </c>
       <c r="F113">
-        <v>0.07291300000000001</v>
+        <v>0.328042</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>2629</v>
+        <v>2043</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114">
-        <v>1.5E-05</v>
+        <v>0.000657</v>
       </c>
       <c r="D114">
-        <v>3.2E-05</v>
+        <v>0.000345</v>
       </c>
       <c r="F114">
-        <v>-1.12293</v>
+        <v>0.475161</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>4166</v>
+        <v>2197</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115">
-        <v>1.8E-05</v>
+        <v>0.000799</v>
       </c>
       <c r="D115">
-        <v>7.7E-05</v>
+        <v>0.000634</v>
       </c>
       <c r="F115">
-        <v>-3.20624</v>
+        <v>0.207071</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>3940</v>
+        <v>3450</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116">
-        <v>0.00011</v>
+        <v>0.014</v>
       </c>
       <c r="D116">
-        <v>5.2E-05</v>
+        <v>0.013747</v>
       </c>
       <c r="F116">
-        <v>0.530193</v>
+        <v>0.018059</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>3621</v>
+        <v>3924</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117">
-        <v>1.1E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D117">
-        <v>7.2E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="F117">
-        <v>-5.328623</v>
+        <v>0.6568850000000001</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>2056</v>
+        <v>4380</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118">
-        <v>0.000192</v>
+        <v>0.000139</v>
       </c>
       <c r="D118">
-        <v>0.000104</v>
+        <v>0.000119</v>
       </c>
       <c r="F118">
-        <v>0.458539</v>
+        <v>0.144421</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>2760</v>
+        <v>3807</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
       </c>
       <c r="C119">
-        <v>1.4E-05</v>
+        <v>6.3E-05</v>
       </c>
       <c r="D119">
-        <v>3E-06</v>
+        <v>0.000177</v>
       </c>
       <c r="F119">
-        <v>0.764571</v>
+        <v>-1.836111</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>3360</v>
+        <v>2086</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
       <c r="C120">
-        <v>0.000248</v>
+        <v>0.003614</v>
       </c>
       <c r="D120">
-        <v>0.00012</v>
+        <v>0.003511</v>
       </c>
       <c r="F120">
-        <v>0.515416</v>
+        <v>0.028364</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>4136</v>
+        <v>2690</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121">
-        <v>2.8E-05</v>
+        <v>0.001093</v>
       </c>
       <c r="D121">
-        <v>7.7E-05</v>
+        <v>0.000488</v>
       </c>
       <c r="F121">
-        <v>-1.792935</v>
+        <v>0.553851</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>2339</v>
+        <v>4022</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
       <c r="C122">
-        <v>0.003275</v>
+        <v>4E-06</v>
       </c>
       <c r="D122">
-        <v>0.003144</v>
+        <v>3E-06</v>
       </c>
       <c r="F122">
-        <v>0.039947</v>
+        <v>0.09564300000000001</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>3970</v>
+        <v>4202</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
       <c r="C123">
-        <v>8E-06</v>
+        <v>3E-06</v>
       </c>
       <c r="D123">
-        <v>5E-06</v>
+        <v>0.000106</v>
       </c>
       <c r="F123">
-        <v>0.374133</v>
+        <v>-32.435022</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>3717</v>
+        <v>3535</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124">
-        <v>1.3E-05</v>
+        <v>0.000188</v>
       </c>
       <c r="D124">
-        <v>1.5E-05</v>
+        <v>0.000172</v>
       </c>
       <c r="F124">
-        <v>-0.172848</v>
+        <v>0.087252</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>3161</v>
+        <v>4213</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125">
-        <v>0.000501</v>
+        <v>3.3E-05</v>
       </c>
       <c r="D125">
-        <v>0.000462</v>
+        <v>3.7E-05</v>
       </c>
       <c r="F125">
-        <v>0.077235</v>
+        <v>-0.125226</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>4205</v>
+        <v>4270</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="C126">
-        <v>2.4E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="D126">
-        <v>0.000116</v>
+        <v>4E-06</v>
       </c>
       <c r="F126">
-        <v>-3.85677</v>
+        <v>-0.145861</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>3630</v>
+        <v>3544</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127">
-        <v>1.5E-05</v>
+        <v>0.000159</v>
       </c>
       <c r="D127">
-        <v>5.7E-05</v>
+        <v>7.4E-05</v>
       </c>
       <c r="F127">
-        <v>-2.854638</v>
+        <v>0.533103</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>3515</v>
+        <v>3677</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128">
-        <v>5.7E-05</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D128">
-        <v>4.7E-05</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F128">
-        <v>0.180182</v>
+        <v>0.003764</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>3947</v>
+        <v>4417</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129">
-        <v>9.2E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="D129">
-        <v>8.2E-05</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F129">
-        <v>0.109391</v>
+        <v>0.442263</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>2265</v>
+        <v>2337</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130">
-        <v>4.3E-05</v>
+        <v>0.002556</v>
       </c>
       <c r="D130">
-        <v>3E-05</v>
+        <v>0.002292</v>
       </c>
       <c r="F130">
-        <v>0.301028</v>
+        <v>0.103298</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>3864</v>
+        <v>3374</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131">
-        <v>2E-05</v>
+        <v>0.003763</v>
       </c>
       <c r="D131">
-        <v>1.8E-05</v>
+        <v>0.001622</v>
       </c>
       <c r="F131">
-        <v>0.100145</v>
+        <v>0.569083</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>3452</v>
+        <v>2633</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
       <c r="C132">
-        <v>0.0114</v>
+        <v>0.000298</v>
       </c>
       <c r="D132">
-        <v>0.010311</v>
+        <v>0.000509</v>
       </c>
       <c r="F132">
-        <v>0.095541</v>
+        <v>-0.708391</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>2399</v>
+        <v>3676</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133">
-        <v>0.001222</v>
+        <v>2E-06</v>
       </c>
       <c r="D133">
-        <v>0.000841</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F133">
-        <v>0.311623</v>
+        <v>-8.322400999999999</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>2649</v>
+        <v>2421</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
       <c r="C134">
-        <v>0.000328</v>
+        <v>4.3E-05</v>
       </c>
       <c r="D134">
-        <v>0.000487</v>
+        <v>0.000748</v>
       </c>
       <c r="F134">
-        <v>-0.483224</v>
+        <v>-16.402379</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>3425</v>
+        <v>3191</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135">
-        <v>0.00208</v>
+        <v>0.001161</v>
       </c>
       <c r="D135">
-        <v>0.000462</v>
+        <v>0.001139</v>
       </c>
       <c r="F135">
-        <v>0.77802</v>
+        <v>0.018369</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>2405</v>
+        <v>3392</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136">
-        <v>0.002544</v>
+        <v>0.003414</v>
       </c>
       <c r="D136">
-        <v>0.002396</v>
+        <v>0.003522</v>
       </c>
       <c r="F136">
-        <v>0.058311</v>
+        <v>-0.031526</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>3635</v>
+        <v>3570</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137">
-        <v>1.8E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="D137">
-        <v>2.2E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="F137">
-        <v>-0.205558</v>
+        <v>0.078677</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>4361</v>
+        <v>3772</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
       <c r="C138">
-        <v>0.00048</v>
+        <v>0.000124</v>
       </c>
       <c r="D138">
-        <v>0.000545</v>
+        <v>6.1E-05</v>
       </c>
       <c r="F138">
-        <v>-0.134306</v>
+        <v>0.505745</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>3948</v>
+        <v>3492</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
       <c r="C139">
-        <v>5E-06</v>
+        <v>0.000837</v>
       </c>
       <c r="D139">
-        <v>5E-06</v>
+        <v>0.001191</v>
       </c>
       <c r="F139">
-        <v>0.050706</v>
+        <v>-0.422895</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>3993</v>
+        <v>3078</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
       <c r="C140">
-        <v>0.000687</v>
+        <v>0.001484</v>
       </c>
       <c r="D140">
-        <v>5.3E-05</v>
+        <v>0.001537</v>
       </c>
       <c r="F140">
-        <v>0.9224909999999999</v>
+        <v>-0.035891</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>3153</v>
+        <v>4170</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
       </c>
       <c r="C141">
-        <v>0.000308</v>
+        <v>0.000178</v>
       </c>
       <c r="D141">
-        <v>0.000228</v>
+        <v>0.00031</v>
       </c>
       <c r="F141">
-        <v>0.260177</v>
+        <v>-0.741036</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>3749</v>
+        <v>2608</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="C142">
-        <v>0.000109</v>
+        <v>7.1E-05</v>
       </c>
       <c r="D142">
-        <v>9.7E-05</v>
+        <v>5.1E-05</v>
       </c>
       <c r="F142">
-        <v>0.108828</v>
+        <v>0.279514</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>4295</v>
+        <v>2397</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
       </c>
       <c r="C143">
-        <v>9.000000000000001E-05</v>
+        <v>0.000357</v>
       </c>
       <c r="D143">
-        <v>0.000113</v>
+        <v>0.000131</v>
       </c>
       <c r="F143">
-        <v>-0.265758</v>
+        <v>0.633134</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>3484</v>
+        <v>3690</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
       <c r="C144">
-        <v>0.00374</v>
+        <v>6E-05</v>
       </c>
       <c r="D144">
-        <v>0.004715</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F144">
-        <v>-0.260784</v>
+        <v>-0.36653</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>4139</v>
+        <v>3962</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
       </c>
       <c r="C145">
-        <v>4.7E-05</v>
+        <v>0.000117</v>
       </c>
       <c r="D145">
-        <v>0.00012</v>
+        <v>5E-05</v>
       </c>
       <c r="F145">
-        <v>-1.580801</v>
+        <v>0.569726</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>2144</v>
+        <v>2093</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
       </c>
       <c r="C146">
-        <v>0.000523</v>
+        <v>0.000239</v>
       </c>
       <c r="D146">
-        <v>0.000384</v>
+        <v>0.000146</v>
       </c>
       <c r="F146">
-        <v>0.265025</v>
+        <v>0.388427</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>2807</v>
+        <v>2501</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
       <c r="C147">
-        <v>0.0006579999999999999</v>
+        <v>0.00107</v>
       </c>
       <c r="D147">
-        <v>0.000219</v>
+        <v>0.001222</v>
       </c>
       <c r="F147">
-        <v>0.667277</v>
+        <v>-0.141825</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>4347</v>
+        <v>2012</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
       </c>
       <c r="C148">
-        <v>0.000503</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D148">
-        <v>0.000619</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F148">
-        <v>-0.23203</v>
+        <v>0.469222</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>3129</v>
+        <v>2689</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
       </c>
       <c r="C149">
-        <v>9.7E-05</v>
+        <v>0.000354</v>
       </c>
       <c r="D149">
-        <v>2.7E-05</v>
+        <v>0.000135</v>
       </c>
       <c r="F149">
-        <v>0.720349</v>
+        <v>0.62002</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>2860</v>
+        <v>3649</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
       </c>
       <c r="C150">
-        <v>7E-06</v>
+        <v>2E-05</v>
       </c>
       <c r="D150">
-        <v>0.000423</v>
+        <v>8.3E-05</v>
       </c>
       <c r="F150">
-        <v>-59.376266</v>
+        <v>-3.164196</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>3676</v>
+        <v>2087</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
       <c r="C151">
-        <v>2E-06</v>
+        <v>0.00106</v>
       </c>
       <c r="D151">
-        <v>1.2E-05</v>
+        <v>0.000763</v>
       </c>
       <c r="F151">
-        <v>-5.522967</v>
+        <v>0.280495</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>3956</v>
+        <v>4219</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
       </c>
       <c r="C152">
-        <v>7.3E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="D152">
-        <v>5.3E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F152">
-        <v>0.269308</v>
+        <v>-0.873864</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>3436</v>
+        <v>2972</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
       </c>
       <c r="C153">
-        <v>0.0144</v>
+        <v>0.00266</v>
       </c>
       <c r="D153">
-        <v>0.012601</v>
+        <v>0.002981</v>
       </c>
       <c r="F153">
-        <v>0.124961</v>
+        <v>-0.120604</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>2093</v>
+        <v>2748</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
       </c>
       <c r="C154">
-        <v>0.000239</v>
+        <v>0.000123</v>
       </c>
       <c r="D154">
-        <v>0.000156</v>
+        <v>0.000133</v>
       </c>
       <c r="F154">
-        <v>0.346348</v>
+        <v>-0.077262</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>3730</v>
+        <v>4200</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
       </c>
       <c r="C155">
-        <v>0.000155</v>
+        <v>4E-06</v>
       </c>
       <c r="D155">
-        <v>5.8E-05</v>
+        <v>0.000108</v>
       </c>
       <c r="F155">
-        <v>0.62454</v>
+        <v>-23.343354</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>2044</v>
+        <v>3463</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156">
-        <v>0.00041</v>
+        <v>0.00105</v>
       </c>
       <c r="D156">
-        <v>0.000162</v>
+        <v>0.0009909999999999999</v>
       </c>
       <c r="F156">
-        <v>0.604893</v>
+        <v>0.05585</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>3403</v>
+        <v>4241</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
       </c>
       <c r="C157">
-        <v>9.7E-05</v>
+        <v>0.000405</v>
       </c>
       <c r="D157">
-        <v>0.000126</v>
+        <v>0.000435</v>
       </c>
       <c r="F157">
-        <v>-0.307278</v>
+        <v>-0.07392799999999999</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>3223</v>
+        <v>4238</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
       <c r="C158">
-        <v>9.899999999999999E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="D158">
-        <v>0.000103</v>
+        <v>1E-05</v>
       </c>
       <c r="F158">
-        <v>-0.037752</v>
+        <v>-2.19731</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>3180</v>
+        <v>3326</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="C159">
-        <v>1.6E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="D159">
-        <v>0.000131</v>
+        <v>6.4E-05</v>
       </c>
       <c r="F159">
-        <v>-7.023063</v>
+        <v>0.288614</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>3893</v>
+        <v>3718</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160">
-        <v>8.7E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D160">
-        <v>8.1E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F160">
-        <v>0.07703400000000001</v>
+        <v>-0.457279</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>3306</v>
+        <v>2558</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
       <c r="C161">
-        <v>0.002918</v>
+        <v>0.001058</v>
       </c>
       <c r="D161">
-        <v>0.001475</v>
+        <v>0.001103</v>
       </c>
       <c r="F161">
-        <v>0.494584</v>
+        <v>-0.04227</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>3260</v>
+        <v>4283</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
       </c>
       <c r="C162">
-        <v>0.000245</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D162">
-        <v>0.00029</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F162">
-        <v>-0.183789</v>
+        <v>0.115188</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>4336</v>
+        <v>3396</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
       <c r="C163">
-        <v>0.000574</v>
+        <v>3E-06</v>
       </c>
       <c r="D163">
-        <v>0.000414</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F163">
-        <v>0.278384</v>
+        <v>-10.228395</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>3849</v>
+        <v>2326</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
       </c>
       <c r="C164">
-        <v>2.7E-05</v>
+        <v>0.000186</v>
       </c>
       <c r="D164">
-        <v>4.1E-05</v>
+        <v>0.000468</v>
       </c>
       <c r="F164">
-        <v>-0.5294180000000001</v>
+        <v>-1.516008</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>2676</v>
+        <v>4342</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
       <c r="C165">
-        <v>3.8E-05</v>
+        <v>0.000565</v>
       </c>
       <c r="D165">
-        <v>5.1E-05</v>
+        <v>0.000691</v>
       </c>
       <c r="F165">
-        <v>-0.344334</v>
+        <v>-0.221846</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>3441</v>
+        <v>3839</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
       </c>
       <c r="C166">
-        <v>0.00716</v>
+        <v>6E-06</v>
       </c>
       <c r="D166">
-        <v>0.006982</v>
+        <v>6E-06</v>
       </c>
       <c r="F166">
-        <v>0.024897</v>
+        <v>-0.006964</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>3166</v>
+        <v>3747</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
       <c r="C167">
-        <v>5.7E-05</v>
+        <v>6.7E-05</v>
       </c>
       <c r="D167">
-        <v>0.000105</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F167">
-        <v>-0.840235</v>
+        <v>0.220507</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>3580</v>
+        <v>3754</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
       </c>
       <c r="C168">
-        <v>1E-06</v>
+        <v>2.8E-05</v>
       </c>
       <c r="D168">
-        <v>4E-06</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F168">
-        <v>-1.92928</v>
+        <v>0.08364099999999999</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>2092</v>
+        <v>3462</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
       </c>
       <c r="C169">
-        <v>0.00116</v>
+        <v>0.0053</v>
       </c>
       <c r="D169">
-        <v>0.000876</v>
+        <v>0.004684</v>
       </c>
       <c r="F169">
-        <v>0.24445</v>
+        <v>0.116196</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>3795</v>
+        <v>3656</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
       </c>
       <c r="C170">
-        <v>8E-06</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D170">
-        <v>1.2E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F170">
-        <v>-0.506216</v>
+        <v>-0.689002</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>4369</v>
+        <v>2843</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
       </c>
       <c r="C171">
-        <v>0.000633</v>
+        <v>0.00567</v>
       </c>
       <c r="D171">
-        <v>0.000424</v>
+        <v>0.005168</v>
       </c>
       <c r="F171">
-        <v>0.329268</v>
+        <v>0.08852</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>3998</v>
+        <v>3284</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
       </c>
       <c r="C172">
-        <v>4.8E-05</v>
+        <v>0.000129</v>
       </c>
       <c r="D172">
-        <v>2.8E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="F172">
-        <v>0.413371</v>
+        <v>-0.007736</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>3812</v>
+        <v>3280</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
       <c r="C173">
-        <v>3.6E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="D173">
-        <v>3.5E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="F173">
-        <v>0.035229</v>
+        <v>-4.666174</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>2159</v>
+        <v>3310</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
       </c>
       <c r="C174">
-        <v>0.001327</v>
+        <v>0.000117</v>
       </c>
       <c r="D174">
-        <v>0.000628</v>
+        <v>0.000117</v>
       </c>
       <c r="F174">
-        <v>0.527045</v>
+        <v>-0.003615</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>3931</v>
+        <v>3659</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
       </c>
       <c r="C175">
-        <v>4E-06</v>
+        <v>1.4E-05</v>
       </c>
       <c r="D175">
-        <v>1E-06</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F175">
-        <v>0.638378</v>
+        <v>-0.762988</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>4219</v>
+        <v>2584</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
       </c>
       <c r="C176">
-        <v>8E-06</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D176">
-        <v>6.600000000000001E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F176">
-        <v>-6.74555</v>
+        <v>0.189162</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>3169</v>
+        <v>3912</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
       </c>
       <c r="C177">
-        <v>9.500000000000001E-05</v>
+        <v>0.000331</v>
       </c>
       <c r="D177">
-        <v>0.00015</v>
+        <v>0.000312</v>
       </c>
       <c r="F177">
-        <v>-0.582072</v>
+        <v>0.058228</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>2544</v>
+        <v>2157</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
       </c>
       <c r="C178">
-        <v>0.00071</v>
+        <v>0.000177</v>
       </c>
       <c r="D178">
-        <v>0.001003</v>
+        <v>0.000148</v>
       </c>
       <c r="F178">
-        <v>-0.41211</v>
+        <v>0.160438</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>2944</v>
+        <v>2139</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
       </c>
       <c r="C179">
-        <v>0.002279</v>
+        <v>0.00026</v>
       </c>
       <c r="D179">
-        <v>0.001176</v>
+        <v>0.00032</v>
       </c>
       <c r="F179">
-        <v>0.484057</v>
+        <v>-0.229648</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>2033</v>
+        <v>3332</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
       </c>
       <c r="C180">
-        <v>0.000193</v>
+        <v>0.000239</v>
       </c>
       <c r="D180">
-        <v>3.7E-05</v>
+        <v>0.00012</v>
       </c>
       <c r="F180">
-        <v>0.809845</v>
+        <v>0.49834</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>3783</v>
+        <v>3691</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
       </c>
       <c r="C181">
-        <v>8.500000000000001E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D181">
-        <v>2.7E-05</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F181">
-        <v>0.678216</v>
+        <v>-0.24316</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>2358</v>
+        <v>2041</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
       </c>
       <c r="C182">
-        <v>1.6E-05</v>
+        <v>0.000198</v>
       </c>
       <c r="D182">
-        <v>0.000134</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F182">
-        <v>-7.400243</v>
+        <v>0.649681</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>2897</v>
+        <v>3283</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
       </c>
       <c r="C183">
-        <v>1.5E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="D183">
-        <v>5E-06</v>
+        <v>4.4E-05</v>
       </c>
       <c r="F183">
-        <v>0.638773</v>
+        <v>-4.018094</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>3354</v>
+        <v>3693</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
       </c>
       <c r="C184">
-        <v>3.3E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="D184">
-        <v>4.6E-05</v>
+        <v>0.000111</v>
       </c>
       <c r="F184">
-        <v>-0.38626</v>
+        <v>-0.386361</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>4312</v>
+        <v>3237</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
       </c>
       <c r="C185">
-        <v>0.000139</v>
+        <v>0.000124</v>
       </c>
       <c r="D185">
-        <v>6.9E-05</v>
+        <v>0.000122</v>
       </c>
       <c r="F185">
-        <v>0.500424</v>
+        <v>0.015935</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>4053</v>
+        <v>3361</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
       </c>
       <c r="C186">
-        <v>6.999999999999999E-05</v>
+        <v>4.3E-05</v>
       </c>
       <c r="D186">
-        <v>1.9E-05</v>
+        <v>4.7E-05</v>
       </c>
       <c r="F186">
-        <v>0.722298</v>
+        <v>-0.104093</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>2019</v>
+        <v>3742</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
       </c>
       <c r="C187">
-        <v>0.000447</v>
+        <v>0.000109</v>
       </c>
       <c r="D187">
-        <v>9.899999999999999E-05</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F187">
-        <v>0.777481</v>
+        <v>0.228383</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>3942</v>
+        <v>2135</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
       </c>
       <c r="C188">
-        <v>3E-06</v>
+        <v>0.001924</v>
       </c>
       <c r="D188">
-        <v>1.3E-05</v>
+        <v>0.002281</v>
       </c>
       <c r="F188">
-        <v>-3.834747</v>
+        <v>-0.185466</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>3256</v>
+        <v>4269</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
       </c>
       <c r="C189">
-        <v>0.003954</v>
+        <v>5E-06</v>
       </c>
       <c r="D189">
-        <v>0.002385</v>
+        <v>4E-06</v>
       </c>
       <c r="F189">
-        <v>0.396858</v>
+        <v>0.157179</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>2653</v>
+        <v>4029</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="C190">
-        <v>0.001587</v>
+        <v>2.9E-05</v>
       </c>
       <c r="D190">
-        <v>0.003568</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F190">
-        <v>-1.248105</v>
+        <v>0.103612</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>3298</v>
+        <v>2436</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
       </c>
       <c r="C191">
-        <v>0.00143</v>
+        <v>6.9E-05</v>
       </c>
       <c r="D191">
-        <v>0.000674</v>
+        <v>0.00016</v>
       </c>
       <c r="F191">
-        <v>0.528721</v>
+        <v>-1.325492</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>3764</v>
+        <v>3614</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
       </c>
       <c r="C192">
-        <v>6.8E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D192">
-        <v>4.1E-05</v>
+        <v>7.1E-05</v>
       </c>
       <c r="F192">
-        <v>0.400771</v>
+        <v>-0.736426</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>2687</v>
+        <v>2053</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
       </c>
       <c r="C193">
-        <v>3.7E-05</v>
+        <v>0.00217</v>
       </c>
       <c r="D193">
-        <v>2.3E-05</v>
+        <v>0.001162</v>
       </c>
       <c r="F193">
-        <v>0.369546</v>
+        <v>0.464519</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>2614</v>
+        <v>2251</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
       </c>
       <c r="C194">
-        <v>0.001464</v>
+        <v>0.001878</v>
       </c>
       <c r="D194">
-        <v>0.000968</v>
+        <v>0.002379</v>
       </c>
       <c r="F194">
-        <v>0.3387</v>
+        <v>-0.267004</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>2921</v>
+        <v>4163</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
       </c>
       <c r="C195">
-        <v>0.003416</v>
+        <v>2.9E-05</v>
       </c>
       <c r="D195">
-        <v>0.002642</v>
+        <v>0.000124</v>
       </c>
       <c r="F195">
-        <v>0.226437</v>
+        <v>-3.217163</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>2387</v>
+        <v>3828</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
       </c>
       <c r="C196">
-        <v>0.00387</v>
+        <v>4.9E-05</v>
       </c>
       <c r="D196">
-        <v>0.003316</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F196">
-        <v>0.143131</v>
+        <v>0.479676</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>4056</v>
+        <v>4262</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
       </c>
       <c r="C197">
-        <v>3.2E-05</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D197">
-        <v>2.8E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="F197">
-        <v>0.1246</v>
+        <v>-0.21178</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>3803</v>
+        <v>4260</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
       </c>
       <c r="C198">
-        <v>1.9E-05</v>
+        <v>7.8E-05</v>
       </c>
       <c r="D198">
-        <v>1.4E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="F198">
-        <v>0.269951</v>
+        <v>0.360815</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>3321</v>
+        <v>2872</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
       </c>
       <c r="C199">
-        <v>5.9E-05</v>
+        <v>0.010002</v>
       </c>
       <c r="D199">
-        <v>5.7E-05</v>
+        <v>0.008926</v>
       </c>
       <c r="F199">
-        <v>0.032857</v>
+        <v>0.107546</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>2055</v>
+        <v>3005</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
       </c>
       <c r="C200">
-        <v>0.000474</v>
+        <v>0.000172</v>
       </c>
       <c r="D200">
-        <v>0.000175</v>
+        <v>0.000102</v>
       </c>
       <c r="F200">
-        <v>0.630707</v>
+        <v>0.405041</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>3193</v>
+        <v>3297</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
       </c>
       <c r="C201">
-        <v>0.002878</v>
+        <v>0.000796</v>
       </c>
       <c r="D201">
-        <v>0.002103</v>
+        <v>0.000393</v>
       </c>
       <c r="F201">
-        <v>0.269414</v>
+        <v>0.505946</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>4305</v>
+        <v>2403</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
       </c>
       <c r="C202">
-        <v>0.00017</v>
+        <v>0.005532</v>
       </c>
       <c r="D202">
-        <v>0.000142</v>
+        <v>0.003335</v>
       </c>
       <c r="F202">
-        <v>0.168773</v>
+        <v>0.397216</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>3650</v>
+        <v>3186</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
       </c>
       <c r="C203">
-        <v>5E-06</v>
+        <v>2.2E-05</v>
       </c>
       <c r="D203">
-        <v>1.6E-05</v>
+        <v>3.8E-05</v>
       </c>
       <c r="F203">
-        <v>-2.209988</v>
+        <v>-0.703001</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>3780</v>
+        <v>3530</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
       </c>
       <c r="C204">
-        <v>0.000165</v>
+        <v>0.000336</v>
       </c>
       <c r="D204">
-        <v>5.1E-05</v>
+        <v>0.000206</v>
       </c>
       <c r="F204">
-        <v>0.690486</v>
+        <v>0.385782</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>2938</v>
+        <v>3356</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
       </c>
       <c r="C205">
-        <v>0.001796</v>
+        <v>0.00169</v>
       </c>
       <c r="D205">
-        <v>0.001095</v>
+        <v>0.001349</v>
       </c>
       <c r="F205">
-        <v>0.390181</v>
+        <v>0.201772</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>2398</v>
+        <v>2647</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
       </c>
       <c r="C206">
-        <v>0.000353</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="D206">
-        <v>0.000217</v>
+        <v>0.0009479999999999999</v>
       </c>
       <c r="F206">
-        <v>0.385674</v>
+        <v>-0.065746</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>2467</v>
+        <v>3128</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
       </c>
       <c r="C207">
-        <v>4.7E-05</v>
+        <v>0.000188</v>
       </c>
       <c r="D207">
-        <v>3.3E-05</v>
+        <v>6.3E-05</v>
       </c>
       <c r="F207">
-        <v>0.298361</v>
+        <v>0.664504</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>3000</v>
+        <v>3263</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
       </c>
       <c r="C208">
-        <v>0.007011</v>
+        <v>0.000292</v>
       </c>
       <c r="D208">
-        <v>0.007081</v>
+        <v>0.000301</v>
       </c>
       <c r="F208">
-        <v>-0.009945000000000001</v>
+        <v>-0.030849</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>2689</v>
+        <v>2431</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
       </c>
       <c r="C209">
-        <v>0.000354</v>
+        <v>0.000845</v>
       </c>
       <c r="D209">
-        <v>0.00017</v>
+        <v>0.001253</v>
       </c>
       <c r="F209">
-        <v>0.519369</v>
+        <v>-0.482522</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>3963</v>
+        <v>3885</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
       </c>
       <c r="C210">
-        <v>5.5E-05</v>
+        <v>0.00084</v>
       </c>
       <c r="D210">
-        <v>1E-05</v>
+        <v>0.000866</v>
       </c>
       <c r="F210">
-        <v>0.8236059999999999</v>
+        <v>-0.030442</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>2196</v>
+        <v>2497</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
       </c>
       <c r="C211">
-        <v>0.00035</v>
+        <v>0.002882</v>
       </c>
       <c r="D211">
-        <v>0.000378</v>
+        <v>0.004025</v>
       </c>
       <c r="F211">
-        <v>-0.080508</v>
+        <v>-0.396817</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>2872</v>
+        <v>2379</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
       </c>
       <c r="C212">
-        <v>0.010002</v>
+        <v>0.005383</v>
       </c>
       <c r="D212">
-        <v>0.009475000000000001</v>
+        <v>0.003377</v>
       </c>
       <c r="F212">
-        <v>0.052743</v>
+        <v>0.372682</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>3208</v>
+        <v>2028</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
       </c>
       <c r="C213">
-        <v>1.3E-05</v>
+        <v>0.000227</v>
       </c>
       <c r="D213">
-        <v>2.7E-05</v>
+        <v>0.000135</v>
       </c>
       <c r="F213">
-        <v>-1.041427</v>
+        <v>0.403195</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>4348</v>
+        <v>4230</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
       </c>
       <c r="C214">
-        <v>0.000597</v>
+        <v>4.9E-05</v>
       </c>
       <c r="D214">
-        <v>0.000619</v>
+        <v>7.2E-05</v>
       </c>
       <c r="F214">
-        <v>-0.037532</v>
+        <v>-0.472764</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>3122</v>
+        <v>3637</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
       </c>
       <c r="C215">
-        <v>0.00206</v>
+        <v>4E-06</v>
       </c>
       <c r="D215">
-        <v>0.001485</v>
+        <v>6.4E-05</v>
       </c>
       <c r="F215">
-        <v>0.279321</v>
+        <v>-14.908671</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>4366</v>
+        <v>4250</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
       </c>
       <c r="C216">
-        <v>0.000354</v>
+        <v>0.000111</v>
       </c>
       <c r="D216">
-        <v>0.000346</v>
+        <v>7.4E-05</v>
       </c>
       <c r="F216">
-        <v>0.025326</v>
+        <v>0.331686</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>2049</v>
+        <v>2492</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
       <c r="C217">
-        <v>0.000932</v>
+        <v>0.000443</v>
       </c>
       <c r="D217">
-        <v>0.000396</v>
+        <v>0.000173</v>
       </c>
       <c r="F217">
-        <v>0.57509</v>
+        <v>0.608395</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>3696</v>
+        <v>3961</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
       </c>
       <c r="C218">
-        <v>0.000122</v>
+        <v>3E-06</v>
       </c>
       <c r="D218">
-        <v>0.000107</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F218">
-        <v>0.122897</v>
+        <v>-3.084916</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>3766</v>
+        <v>2433</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
       </c>
       <c r="C219">
-        <v>0.000176</v>
+        <v>0.000488</v>
       </c>
       <c r="D219">
-        <v>7.8E-05</v>
+        <v>0.00087</v>
       </c>
       <c r="F219">
-        <v>0.556884</v>
+        <v>-0.783257</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>3753</v>
+        <v>2919</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
       </c>
       <c r="C220">
-        <v>0.000128</v>
+        <v>0.000677</v>
       </c>
       <c r="D220">
-        <v>0.000135</v>
+        <v>0.00094</v>
       </c>
       <c r="F220">
-        <v>-0.057224</v>
+        <v>-0.388268</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>4123</v>
+        <v>4242</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
       </c>
       <c r="C221">
-        <v>2E-06</v>
+        <v>0.000291</v>
       </c>
       <c r="D221">
-        <v>1.9E-05</v>
+        <v>0.000404</v>
       </c>
       <c r="F221">
-        <v>-7.271405</v>
+        <v>-0.387652</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>2188</v>
+        <v>4339</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
       </c>
       <c r="C222">
-        <v>0.003216</v>
+        <v>0.000494</v>
       </c>
       <c r="D222">
-        <v>0.002751</v>
+        <v>0.00045</v>
       </c>
       <c r="F222">
-        <v>0.14473</v>
+        <v>0.088808</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>4330</v>
+        <v>4397</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
       </c>
       <c r="C223">
-        <v>0.000781</v>
+        <v>0.000543</v>
       </c>
       <c r="D223">
-        <v>0.000611</v>
+        <v>0.000625</v>
       </c>
       <c r="F223">
-        <v>0.217875</v>
+        <v>-0.151121</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>2942</v>
+        <v>3120</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
       </c>
       <c r="C224">
-        <v>5.9E-05</v>
+        <v>0.000594</v>
       </c>
       <c r="D224">
-        <v>6.999999999999999E-05</v>
+        <v>0.000408</v>
       </c>
       <c r="F224">
-        <v>-0.19191</v>
+        <v>0.313804</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>4057</v>
+        <v>3765</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
       </c>
       <c r="C225">
-        <v>0.000113</v>
+        <v>0.000226</v>
       </c>
       <c r="D225">
-        <v>3.8E-05</v>
+        <v>9.500000000000001E-05</v>
       </c>
       <c r="F225">
-        <v>0.664797</v>
+        <v>0.578186</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>4332</v>
+        <v>3674</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
       </c>
       <c r="C226">
-        <v>0.000408</v>
+        <v>1E-05</v>
       </c>
       <c r="D226">
-        <v>0.000611</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F226">
-        <v>-0.49548</v>
+        <v>-1.475355</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>4314</v>
+        <v>3543</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
       </c>
       <c r="C227">
-        <v>7.8E-05</v>
+        <v>0.0002</v>
       </c>
       <c r="D227">
-        <v>4.7E-05</v>
+        <v>0.000163</v>
       </c>
       <c r="F227">
-        <v>0.394312</v>
+        <v>0.182773</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>2214</v>
+        <v>2364</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
       </c>
       <c r="C228">
-        <v>0.001005</v>
+        <v>0.001787</v>
       </c>
       <c r="D228">
-        <v>0.0008720000000000001</v>
+        <v>0.002223</v>
       </c>
       <c r="F228">
-        <v>0.132228</v>
+        <v>-0.243964</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229">
-        <v>4194</v>
+        <v>3322</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
       </c>
       <c r="C229">
-        <v>2.9E-05</v>
+        <v>2.4E-05</v>
       </c>
       <c r="D229">
-        <v>9.1E-05</v>
+        <v>4.5E-05</v>
       </c>
       <c r="F229">
-        <v>-2.105984</v>
+        <v>-0.865017</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>4030</v>
+        <v>2216</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
       </c>
       <c r="C230">
-        <v>0.000512</v>
+        <v>0.004608</v>
       </c>
       <c r="D230">
-        <v>0.000105</v>
+        <v>0.005036</v>
       </c>
       <c r="F230">
-        <v>0.795876</v>
+        <v>-0.092944</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>2139</v>
+        <v>3346</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
       </c>
       <c r="C231">
-        <v>0.00026</v>
+        <v>0.000369</v>
       </c>
       <c r="D231">
-        <v>0.000319</v>
+        <v>0.000127</v>
       </c>
       <c r="F231">
-        <v>-0.228023</v>
+        <v>0.655613</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>4384</v>
+        <v>2676</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
       </c>
       <c r="C232">
-        <v>0.000197</v>
+        <v>3.8E-05</v>
       </c>
       <c r="D232">
-        <v>0.000162</v>
+        <v>6.4E-05</v>
       </c>
       <c r="F232">
-        <v>0.180651</v>
+        <v>-0.673803</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>4217</v>
+        <v>3803</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
       </c>
       <c r="C233">
-        <v>1.7E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="D233">
-        <v>7.1E-05</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F233">
-        <v>-3.077352</v>
+        <v>0.333576</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>3723</v>
+        <v>3775</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
       </c>
       <c r="C234">
-        <v>5.3E-05</v>
+        <v>0.000156</v>
       </c>
       <c r="D234">
-        <v>2.3E-05</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F234">
-        <v>0.562087</v>
+        <v>0.556831</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>2410</v>
+        <v>3914</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
       </c>
       <c r="C235">
-        <v>0.000311</v>
+        <v>0.000507</v>
       </c>
       <c r="D235">
-        <v>6.8E-05</v>
+        <v>0.000903</v>
       </c>
       <c r="F235">
-        <v>0.77995</v>
+        <v>-0.780403</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>2577</v>
+        <v>2537</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
       </c>
       <c r="C236">
-        <v>0.000567</v>
+        <v>0.000176</v>
       </c>
       <c r="D236">
-        <v>0.000496</v>
+        <v>0.000537</v>
       </c>
       <c r="F236">
-        <v>0.125073</v>
+        <v>-2.048602</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>2802</v>
+        <v>3884</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
       </c>
       <c r="C237">
-        <v>3.2E-05</v>
+        <v>0.000873</v>
       </c>
       <c r="D237">
-        <v>8E-06</v>
+        <v>0.001186</v>
       </c>
       <c r="F237">
-        <v>0.752258</v>
+        <v>-0.358029</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>2846</v>
+        <v>3785</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
       </c>
       <c r="C238">
-        <v>3.1E-05</v>
+        <v>5.7E-05</v>
       </c>
       <c r="D238">
-        <v>5E-06</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F238">
-        <v>0.852212</v>
+        <v>0.386411</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>4299</v>
+        <v>4098</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
       </c>
       <c r="C239">
-        <v>6.4E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="D239">
-        <v>7.1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F239">
-        <v>-0.121951</v>
+        <v>-1.514195</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>2344</v>
+        <v>2727</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
       </c>
       <c r="C240">
-        <v>0.0004</v>
+        <v>0.001803</v>
       </c>
       <c r="D240">
-        <v>0.000194</v>
+        <v>0.001336</v>
       </c>
       <c r="F240">
-        <v>0.514394</v>
+        <v>0.259085</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>3194</v>
+        <v>3422</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
       </c>
       <c r="C241">
-        <v>0.000105</v>
+        <v>0.0004</v>
       </c>
       <c r="D241">
-        <v>0.000136</v>
+        <v>0.000164</v>
       </c>
       <c r="F241">
-        <v>-0.299362</v>
+        <v>0.590355</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>2043</v>
+        <v>2224</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
       </c>
       <c r="C242">
-        <v>0.000657</v>
+        <v>0.00154</v>
       </c>
       <c r="D242">
-        <v>0.000165</v>
+        <v>0.00113</v>
       </c>
       <c r="F242">
-        <v>0.748274</v>
+        <v>0.266041</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>3920</v>
+        <v>2049</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
       </c>
       <c r="C243">
-        <v>9.2E-05</v>
+        <v>0.000932</v>
       </c>
       <c r="D243">
-        <v>6.4E-05</v>
+        <v>0.000705</v>
       </c>
       <c r="F243">
-        <v>0.296655</v>
+        <v>0.243768</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>3543</v>
+        <v>3801</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
       </c>
       <c r="C244">
-        <v>0.0002</v>
+        <v>5.7E-05</v>
       </c>
       <c r="D244">
-        <v>0.000122</v>
+        <v>5.9E-05</v>
       </c>
       <c r="F244">
-        <v>0.392488</v>
+        <v>-0.042397</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>2352</v>
+        <v>2456</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
       </c>
       <c r="C245">
-        <v>0.003586</v>
+        <v>0.003042</v>
       </c>
       <c r="D245">
-        <v>0.001039</v>
+        <v>0.002228</v>
       </c>
       <c r="F245">
-        <v>0.710215</v>
+        <v>0.267433</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>2495</v>
+        <v>2549</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
       </c>
       <c r="C246">
-        <v>0.001051</v>
+        <v>0.002602</v>
       </c>
       <c r="D246">
-        <v>0.000427</v>
+        <v>0.004228</v>
       </c>
       <c r="F246">
-        <v>0.593963</v>
+        <v>-0.624892</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>2612</v>
+        <v>2353</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
       </c>
       <c r="C247">
-        <v>6.2E-05</v>
+        <v>0.000672</v>
       </c>
       <c r="D247">
-        <v>5.5E-05</v>
+        <v>0.000827</v>
       </c>
       <c r="F247">
-        <v>0.119953</v>
+        <v>-0.230773</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>4045</v>
+        <v>3159</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
       </c>
       <c r="C248">
-        <v>2E-06</v>
+        <v>5.8E-05</v>
       </c>
       <c r="D248">
-        <v>1E-05</v>
+        <v>0.0009779999999999999</v>
       </c>
       <c r="F248">
-        <v>-5.47426</v>
+        <v>-15.80387</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>3721</v>
+        <v>3703</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
       </c>
       <c r="C249">
-        <v>1.2E-05</v>
+        <v>0.000123</v>
       </c>
       <c r="D249">
-        <v>1.4E-05</v>
+        <v>0.000107</v>
       </c>
       <c r="F249">
-        <v>-0.203198</v>
+        <v>0.130821</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>2979</v>
+        <v>2051</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
       </c>
       <c r="C250">
-        <v>0.0002</v>
+        <v>0.000242</v>
       </c>
       <c r="D250">
-        <v>0.000125</v>
+        <v>0.000188</v>
       </c>
       <c r="F250">
-        <v>0.373084</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>4034</v>
+        <v>2629</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
       </c>
       <c r="C251">
-        <v>0.001344</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D251">
-        <v>0.000254</v>
+        <v>4.4E-05</v>
       </c>
       <c r="F251">
-        <v>0.810604</v>
+        <v>-1.907366</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>3408</v>
+        <v>4172</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
       </c>
       <c r="C252">
-        <v>0.00117</v>
+        <v>6.9E-05</v>
       </c>
       <c r="D252">
-        <v>0.002074</v>
+        <v>0.000126</v>
       </c>
       <c r="F252">
-        <v>-0.772357</v>
+        <v>-0.833019</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>4234</v>
+        <v>3851</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
       </c>
       <c r="C253">
-        <v>3.7E-05</v>
+        <v>8.3E-05</v>
       </c>
       <c r="D253">
-        <v>0.000107</v>
+        <v>5.1E-05</v>
       </c>
       <c r="F253">
-        <v>-1.864619</v>
+        <v>0.393052</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>3839</v>
+        <v>2182</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
       </c>
       <c r="C254">
-        <v>6E-06</v>
+        <v>0.000743</v>
       </c>
       <c r="D254">
-        <v>6E-06</v>
+        <v>0.001027</v>
       </c>
       <c r="F254">
-        <v>0.058049</v>
+        <v>-0.382399</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>3897</v>
+        <v>4287</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
       </c>
       <c r="C255">
-        <v>0.000415</v>
+        <v>4E-06</v>
       </c>
       <c r="D255">
-        <v>0.000228</v>
+        <v>5E-06</v>
       </c>
       <c r="F255">
-        <v>0.449584</v>
+        <v>-0.089021</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>4160</v>
+        <v>3224</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
       </c>
       <c r="C256">
-        <v>6E-06</v>
+        <v>0.000509</v>
       </c>
       <c r="D256">
-        <v>0.000105</v>
+        <v>0.000332</v>
       </c>
       <c r="F256">
-        <v>-15.470012</v>
+        <v>0.348415</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>3929</v>
+        <v>3491</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
       </c>
       <c r="C257">
-        <v>1E-06</v>
+        <v>0.000186</v>
       </c>
       <c r="D257">
-        <v>1E-06</v>
+        <v>0.000227</v>
       </c>
       <c r="F257">
-        <v>0.526185</v>
+        <v>-0.21987</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>2439</v>
+        <v>4375</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
       </c>
       <c r="C258">
-        <v>0.001122</v>
+        <v>0.000651</v>
       </c>
       <c r="D258">
-        <v>0.000563</v>
+        <v>0.000902</v>
       </c>
       <c r="F258">
-        <v>0.498562</v>
+        <v>-0.38649</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>3179</v>
+        <v>2994</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -4798,1455 +4798,1455 @@
         <v>7E-06</v>
       </c>
       <c r="D259">
-        <v>3.5E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F259">
-        <v>-3.8345</v>
+        <v>-1.106698</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>2454</v>
+        <v>3477</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
       </c>
       <c r="C260">
-        <v>0.00104</v>
+        <v>0.000558</v>
       </c>
       <c r="D260">
-        <v>0.000286</v>
+        <v>0.000528</v>
       </c>
       <c r="F260">
-        <v>0.724763</v>
+        <v>0.054488</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>3145</v>
+        <v>2025</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
       </c>
       <c r="C261">
-        <v>3.6E-05</v>
+        <v>0.001464</v>
       </c>
       <c r="D261">
-        <v>3.8E-05</v>
+        <v>0.001366</v>
       </c>
       <c r="F261">
-        <v>-0.047523</v>
+        <v>0.066819</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>3146</v>
+        <v>4259</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
       </c>
       <c r="C262">
-        <v>7.3E-05</v>
+        <v>9.500000000000001E-05</v>
       </c>
       <c r="D262">
-        <v>0.000129</v>
+        <v>5.7E-05</v>
       </c>
       <c r="F262">
-        <v>-0.758996</v>
+        <v>0.39384</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>2694</v>
+        <v>2332</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
       </c>
       <c r="C263">
-        <v>2.5E-05</v>
+        <v>0.004426</v>
       </c>
       <c r="D263">
-        <v>4.3E-05</v>
+        <v>0.005763</v>
       </c>
       <c r="F263">
-        <v>-0.712639</v>
+        <v>-0.302098</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>4344</v>
+        <v>4323</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
       </c>
       <c r="C264">
-        <v>0.000678</v>
+        <v>0.000144</v>
       </c>
       <c r="D264">
-        <v>0.000714</v>
+        <v>0.00013</v>
       </c>
       <c r="F264">
-        <v>-0.053382</v>
+        <v>0.09218899999999999</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>3971</v>
+        <v>3208</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
       </c>
       <c r="C265">
-        <v>4E-06</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D265">
-        <v>5E-06</v>
+        <v>2E-05</v>
       </c>
       <c r="F265">
-        <v>-0.432626</v>
+        <v>-0.512191</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>4308</v>
+        <v>2585</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
       </c>
       <c r="C266">
-        <v>0.000105</v>
+        <v>0.000205</v>
       </c>
       <c r="D266">
-        <v>9.6E-05</v>
+        <v>0.000157</v>
       </c>
       <c r="F266">
-        <v>0.080289</v>
+        <v>0.233239</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>3364</v>
+        <v>3986</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
       </c>
       <c r="C267">
-        <v>0.000629</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D267">
-        <v>0.000213</v>
+        <v>2E-05</v>
       </c>
       <c r="F267">
-        <v>0.661409</v>
+        <v>0.5100710000000001</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>3390</v>
+        <v>2439</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
       </c>
       <c r="C268">
-        <v>6.8E-05</v>
+        <v>0.001122</v>
       </c>
       <c r="D268">
-        <v>7.1E-05</v>
+        <v>0.0005730000000000001</v>
       </c>
       <c r="F268">
-        <v>-0.051463</v>
+        <v>0.489688</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>2999</v>
+        <v>3679</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
       </c>
       <c r="C269">
-        <v>0.00533</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D269">
-        <v>0.003801</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F269">
-        <v>0.286888</v>
+        <v>0.282588</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>3492</v>
+        <v>2592</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
       </c>
       <c r="C270">
-        <v>0.000837</v>
+        <v>8.8E-05</v>
       </c>
       <c r="D270">
-        <v>0.001276</v>
+        <v>5.8E-05</v>
       </c>
       <c r="F270">
-        <v>-0.524435</v>
+        <v>0.336652</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>3632</v>
+        <v>3898</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
       </c>
       <c r="C271">
-        <v>4E-06</v>
+        <v>0.000142</v>
       </c>
       <c r="D271">
-        <v>2.6E-05</v>
+        <v>9.7E-05</v>
       </c>
       <c r="F271">
-        <v>-5.810175</v>
+        <v>0.320226</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>3480</v>
+        <v>3402</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
       </c>
       <c r="C272">
-        <v>0.000907</v>
+        <v>3.7E-05</v>
       </c>
       <c r="D272">
-        <v>0.001215</v>
+        <v>4.2E-05</v>
       </c>
       <c r="F272">
-        <v>-0.339324</v>
+        <v>-0.137344</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>4276</v>
+        <v>3085</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
       </c>
       <c r="C273">
+        <v>0.000145</v>
+      </c>
+      <c r="D273">
         <v>0.000123</v>
       </c>
-      <c r="D273">
-        <v>9.899999999999999E-05</v>
-      </c>
       <c r="F273">
-        <v>0.192468</v>
+        <v>0.153636</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>3613</v>
+        <v>4350</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
       </c>
       <c r="C274">
-        <v>2E-06</v>
+        <v>0.000453</v>
       </c>
       <c r="D274">
-        <v>1.9E-05</v>
+        <v>0.000505</v>
       </c>
       <c r="F274">
-        <v>-7.340819</v>
+        <v>-0.114935</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>3750</v>
+        <v>3728</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
       </c>
       <c r="C275">
-        <v>2.9E-05</v>
+        <v>0.00011</v>
       </c>
       <c r="D275">
-        <v>3.8E-05</v>
+        <v>6.3E-05</v>
       </c>
       <c r="F275">
-        <v>-0.297274</v>
+        <v>0.426329</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>2353</v>
+        <v>3167</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
       </c>
       <c r="C276">
-        <v>0.000672</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D276">
-        <v>0.00091</v>
+        <v>0.000129</v>
       </c>
       <c r="F276">
-        <v>-0.354031</v>
+        <v>-2.553183</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>3399</v>
+        <v>2262</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
       </c>
       <c r="C277">
-        <v>6E-06</v>
+        <v>4.7E-05</v>
       </c>
       <c r="D277">
-        <v>3.1E-05</v>
+        <v>3.9E-05</v>
       </c>
       <c r="F277">
-        <v>-4.045238</v>
+        <v>0.176397</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>4363</v>
+        <v>3610</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
       </c>
       <c r="C278">
-        <v>0.000552</v>
+        <v>6E-06</v>
       </c>
       <c r="D278">
-        <v>0.000714</v>
+        <v>4.6E-05</v>
       </c>
       <c r="F278">
-        <v>-0.293108</v>
+        <v>-6.060492</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>4393</v>
+        <v>3799</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
       </c>
       <c r="C279">
-        <v>0.000193</v>
+        <v>1E-05</v>
       </c>
       <c r="D279">
-        <v>0.00023</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F279">
-        <v>-0.194868</v>
+        <v>-0.250296</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>4356</v>
+        <v>4377</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
       </c>
       <c r="C280">
-        <v>0.000485</v>
+        <v>0.000758</v>
       </c>
       <c r="D280">
-        <v>0.000545</v>
+        <v>0.001138</v>
       </c>
       <c r="F280">
-        <v>-0.123773</v>
+        <v>-0.50045</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>4324</v>
+        <v>4245</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
       </c>
       <c r="C281">
-        <v>0.000175</v>
+        <v>0.000222</v>
       </c>
       <c r="D281">
-        <v>6.9E-05</v>
+        <v>0.000182</v>
       </c>
       <c r="F281">
-        <v>0.604336</v>
+        <v>0.180254</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>3698</v>
+        <v>2050</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
       </c>
       <c r="C282">
-        <v>3.1E-05</v>
+        <v>0.000417</v>
       </c>
       <c r="D282">
-        <v>3.7E-05</v>
+        <v>0.000337</v>
       </c>
       <c r="F282">
-        <v>-0.19252</v>
+        <v>0.190927</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>2973</v>
+        <v>4234</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
       </c>
       <c r="C283">
-        <v>0.004818</v>
+        <v>3.7E-05</v>
       </c>
       <c r="D283">
-        <v>0.004879</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F283">
-        <v>-0.01268</v>
+        <v>0.218702</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>4362</v>
+        <v>3172</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
       </c>
       <c r="C284">
-        <v>0.00039</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D284">
-        <v>0.000414</v>
+        <v>4.5E-05</v>
       </c>
       <c r="F284">
-        <v>-0.061809</v>
+        <v>-1.649709</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>3085</v>
+        <v>4369</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
       </c>
       <c r="C285">
-        <v>0.000145</v>
+        <v>0.000633</v>
       </c>
       <c r="D285">
-        <v>0.000123</v>
+        <v>0.000603</v>
       </c>
       <c r="F285">
-        <v>0.148897</v>
+        <v>0.047361</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>3537</v>
+        <v>2491</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
       </c>
       <c r="C286">
-        <v>0.000309</v>
+        <v>4.8E-05</v>
       </c>
       <c r="D286">
-        <v>0.000147</v>
+        <v>2E-05</v>
       </c>
       <c r="F286">
-        <v>0.52521</v>
+        <v>0.575729</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>2729</v>
+        <v>2401</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
       </c>
       <c r="C287">
-        <v>0.006818</v>
+        <v>0.000589</v>
       </c>
       <c r="D287">
-        <v>0.005382</v>
+        <v>0.000362</v>
       </c>
       <c r="F287">
-        <v>0.210629</v>
+        <v>0.384675</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288">
-        <v>3772</v>
+        <v>3722</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
       </c>
       <c r="C288">
-        <v>0.000124</v>
+        <v>9.399999999999999E-05</v>
       </c>
       <c r="D288">
-        <v>4.1E-05</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="F288">
-        <v>0.672194</v>
+        <v>0.295313</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289">
-        <v>4086</v>
+        <v>4215</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
       </c>
       <c r="C289">
-        <v>0.000186</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D289">
-        <v>5.3E-05</v>
+        <v>3.4E-05</v>
       </c>
       <c r="F289">
-        <v>0.7145089999999999</v>
+        <v>-1.299652</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290">
-        <v>2382</v>
+        <v>3499</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
       </c>
       <c r="C290">
-        <v>0.000252</v>
+        <v>0.000226</v>
       </c>
       <c r="D290">
-        <v>0.000517</v>
+        <v>0.000152</v>
       </c>
       <c r="F290">
-        <v>-1.049931</v>
+        <v>0.326486</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291">
-        <v>3786</v>
+        <v>3853</v>
       </c>
       <c r="B291" t="s">
         <v>6</v>
       </c>
       <c r="C291">
-        <v>5E-06</v>
+        <v>2.6E-05</v>
       </c>
       <c r="D291">
-        <v>6E-06</v>
+        <v>4.4E-05</v>
       </c>
       <c r="F291">
-        <v>-0.275887</v>
+        <v>-0.676978</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292">
-        <v>2215</v>
+        <v>4077</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
       </c>
       <c r="C292">
-        <v>0.000626</v>
+        <v>2.7E-05</v>
       </c>
       <c r="D292">
-        <v>0.000487</v>
+        <v>2E-05</v>
       </c>
       <c r="F292">
-        <v>0.221703</v>
+        <v>0.260861</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293">
-        <v>3927</v>
+        <v>2218</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
       </c>
       <c r="C293">
-        <v>6E-06</v>
+        <v>0.002012</v>
       </c>
       <c r="D293">
-        <v>1E-06</v>
+        <v>0.001384</v>
       </c>
       <c r="F293">
-        <v>0.852171</v>
+        <v>0.312035</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294">
-        <v>2919</v>
+        <v>3897</v>
       </c>
       <c r="B294" t="s">
         <v>6</v>
       </c>
       <c r="C294">
-        <v>0.000677</v>
+        <v>0.000415</v>
       </c>
       <c r="D294">
-        <v>0.000705</v>
+        <v>0.000224</v>
       </c>
       <c r="F294">
-        <v>-0.041099</v>
+        <v>0.460886</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295">
-        <v>4412</v>
+        <v>2936</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
       </c>
       <c r="C295">
-        <v>1.6E-05</v>
+        <v>0.000676</v>
       </c>
       <c r="D295">
-        <v>8.500000000000001E-05</v>
+        <v>0.0004929999999999999</v>
       </c>
       <c r="F295">
-        <v>-4.438895</v>
+        <v>0.271477</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
       </c>
       <c r="C296">
-        <v>0.00658</v>
+        <v>0.00366</v>
       </c>
       <c r="D296">
-        <v>0.008265</v>
+        <v>0.005099</v>
       </c>
       <c r="F296">
-        <v>-0.25609</v>
+        <v>-0.393305</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297">
-        <v>4375</v>
+        <v>2993</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
       </c>
       <c r="C297">
-        <v>0.000651</v>
+        <v>2.7E-05</v>
       </c>
       <c r="D297">
-        <v>0.000537</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F297">
-        <v>0.174228</v>
+        <v>0.543115</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298">
-        <v>3526</v>
+        <v>2118</v>
       </c>
       <c r="B298" t="s">
         <v>6</v>
       </c>
       <c r="C298">
-        <v>0.000167</v>
+        <v>0.000108</v>
       </c>
       <c r="D298">
-        <v>8.500000000000001E-05</v>
+        <v>0.000105</v>
       </c>
       <c r="F298">
-        <v>0.49053</v>
+        <v>0.020401</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299">
-        <v>4230</v>
+        <v>4101</v>
       </c>
       <c r="B299" t="s">
         <v>6</v>
       </c>
       <c r="C299">
-        <v>4.9E-05</v>
+        <v>0.000127</v>
       </c>
       <c r="D299">
-        <v>0.000132</v>
+        <v>0.000124</v>
       </c>
       <c r="F299">
-        <v>-1.714523</v>
+        <v>0.019603</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300">
-        <v>2349</v>
+        <v>4325</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
       </c>
       <c r="C300">
-        <v>0.00049</v>
+        <v>0.000197</v>
       </c>
       <c r="D300">
-        <v>0.000305</v>
+        <v>0.000137</v>
       </c>
       <c r="F300">
-        <v>0.377655</v>
+        <v>0.307673</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301">
-        <v>3832</v>
+        <v>2754</v>
       </c>
       <c r="B301" t="s">
         <v>6</v>
       </c>
       <c r="C301">
-        <v>6.499999999999999E-05</v>
+        <v>0.008333</v>
       </c>
       <c r="D301">
-        <v>1.7E-05</v>
+        <v>0.007095</v>
       </c>
       <c r="F301">
-        <v>0.741524</v>
+        <v>0.148521</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302">
-        <v>4063</v>
+        <v>3298</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
       </c>
       <c r="C302">
-        <v>0.000676</v>
+        <v>0.00143</v>
       </c>
       <c r="D302">
-        <v>9.1E-05</v>
+        <v>0.000831</v>
       </c>
       <c r="F302">
-        <v>0.865139</v>
+        <v>0.418866</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303">
-        <v>3793</v>
+        <v>3873</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
       </c>
       <c r="C303">
-        <v>1.5E-05</v>
+        <v>0.000239</v>
       </c>
       <c r="D303">
-        <v>5.6E-05</v>
+        <v>0.000323</v>
       </c>
       <c r="F303">
-        <v>-2.666326</v>
+        <v>-0.351837</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304">
-        <v>3310</v>
+        <v>4216</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
       </c>
       <c r="C304">
-        <v>0.000117</v>
+        <v>1E-05</v>
       </c>
       <c r="D304">
-        <v>0.000122</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F304">
-        <v>-0.041845</v>
+        <v>-2.165688</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305">
-        <v>3790</v>
+        <v>2347</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
       </c>
       <c r="C305">
-        <v>5E-06</v>
+        <v>0.002078</v>
       </c>
       <c r="D305">
-        <v>9E-06</v>
+        <v>0.000516</v>
       </c>
       <c r="F305">
-        <v>-0.842263</v>
+        <v>0.751539</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306">
-        <v>3178</v>
+        <v>2393</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
       </c>
       <c r="C306">
-        <v>1.6E-05</v>
+        <v>0.00058</v>
       </c>
       <c r="D306">
-        <v>4.6E-05</v>
+        <v>0.00035</v>
       </c>
       <c r="F306">
-        <v>-1.879378</v>
+        <v>0.396334</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307">
-        <v>2767</v>
+        <v>2772</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
       </c>
       <c r="C307">
-        <v>0.003636</v>
+        <v>0.001879</v>
       </c>
       <c r="D307">
-        <v>0.002412</v>
+        <v>0.001208</v>
       </c>
       <c r="F307">
-        <v>0.336713</v>
+        <v>0.357172</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308">
-        <v>2465</v>
+        <v>4229</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
       </c>
       <c r="C308">
-        <v>0.00013</v>
+        <v>7.8E-05</v>
       </c>
       <c r="D308">
-        <v>3.9E-05</v>
+        <v>8.1E-05</v>
       </c>
       <c r="F308">
-        <v>0.702847</v>
+        <v>-0.036748</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309">
-        <v>2680</v>
+        <v>4376</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
       </c>
       <c r="C309">
-        <v>4.8E-05</v>
+        <v>0.000722</v>
       </c>
       <c r="D309">
-        <v>5.4E-05</v>
+        <v>0.001102</v>
       </c>
       <c r="F309">
-        <v>-0.135495</v>
+        <v>-0.525761</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310">
-        <v>3898</v>
+        <v>4099</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
       </c>
       <c r="C310">
-        <v>0.000142</v>
+        <v>8E-06</v>
       </c>
       <c r="D310">
-        <v>7.499999999999999E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F310">
-        <v>0.474852</v>
+        <v>-1.622346</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311">
-        <v>4351</v>
+        <v>2779</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
       </c>
       <c r="C311">
-        <v>0.000449</v>
+        <v>0.001565</v>
       </c>
       <c r="D311">
-        <v>0.000619</v>
+        <v>0.000374</v>
       </c>
       <c r="F311">
-        <v>-0.379753</v>
+        <v>0.76085</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312">
-        <v>3544</v>
+        <v>4299</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
       </c>
       <c r="C312">
-        <v>0.000159</v>
+        <v>6.4E-05</v>
       </c>
       <c r="D312">
-        <v>8.000000000000001E-05</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="F312">
-        <v>0.49599</v>
+        <v>-0.029338</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313">
-        <v>4394</v>
+        <v>2576</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
       </c>
       <c r="C313">
-        <v>0.000197</v>
+        <v>4.6E-05</v>
       </c>
       <c r="D313">
-        <v>0.00023</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F313">
-        <v>-0.16763</v>
+        <v>-0.22194</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314">
-        <v>3434</v>
+        <v>2188</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
       </c>
       <c r="C314">
-        <v>0.00991</v>
+        <v>0.003216</v>
       </c>
       <c r="D314">
-        <v>0.006999</v>
+        <v>0.003922</v>
       </c>
       <c r="F314">
-        <v>0.293721</v>
+        <v>-0.219491</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315">
-        <v>2041</v>
+        <v>3313</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
       </c>
       <c r="C315">
-        <v>0.000198</v>
+        <v>0.001965</v>
       </c>
       <c r="D315">
-        <v>5.1E-05</v>
+        <v>0.000342</v>
       </c>
       <c r="F315">
-        <v>0.745111</v>
+        <v>0.825751</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316">
-        <v>4104</v>
+        <v>3321</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
       </c>
       <c r="C316">
-        <v>2.1E-05</v>
+        <v>5.9E-05</v>
       </c>
       <c r="D316">
-        <v>7.7E-05</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F316">
-        <v>-2.723505</v>
+        <v>-0.175885</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317">
-        <v>4223</v>
+        <v>3255</v>
       </c>
       <c r="B317" t="s">
         <v>6</v>
       </c>
       <c r="C317">
-        <v>1E-06</v>
+        <v>0.002335</v>
       </c>
       <c r="D317">
-        <v>4.4E-05</v>
+        <v>0.001165</v>
       </c>
       <c r="F317">
-        <v>-43.127114</v>
+        <v>0.501099</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318">
-        <v>3829</v>
+        <v>4379</v>
       </c>
       <c r="B318" t="s">
         <v>6</v>
       </c>
       <c r="C318">
-        <v>3.2E-05</v>
+        <v>0.000103</v>
       </c>
       <c r="D318">
-        <v>1.1E-05</v>
+        <v>9.6E-05</v>
       </c>
       <c r="F318">
-        <v>0.64639</v>
+        <v>0.073699</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319">
-        <v>4004</v>
+        <v>4301</v>
       </c>
       <c r="B319" t="s">
         <v>6</v>
       </c>
       <c r="C319">
-        <v>9.3E-05</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D319">
-        <v>6E-06</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F319">
-        <v>0.932786</v>
+        <v>-0.116211</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320">
-        <v>2965</v>
+        <v>3433</v>
       </c>
       <c r="B320" t="s">
         <v>6</v>
       </c>
       <c r="C320">
-        <v>0.003252</v>
+        <v>0.00516</v>
       </c>
       <c r="D320">
-        <v>0.002698</v>
+        <v>0.00371</v>
       </c>
       <c r="F320">
-        <v>0.170426</v>
+        <v>0.280913</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321">
-        <v>3692</v>
+        <v>3417</v>
       </c>
       <c r="B321" t="s">
         <v>6</v>
       </c>
       <c r="C321">
-        <v>4.3E-05</v>
+        <v>0.000712</v>
       </c>
       <c r="D321">
-        <v>3.9E-05</v>
+        <v>0.00092</v>
       </c>
       <c r="F321">
-        <v>0.104388</v>
+        <v>-0.29181</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322">
-        <v>3818</v>
+        <v>3497</v>
       </c>
       <c r="B322" t="s">
         <v>6</v>
       </c>
       <c r="C322">
-        <v>1.5E-05</v>
+        <v>0.000362</v>
       </c>
       <c r="D322">
-        <v>7E-06</v>
+        <v>0.000213</v>
       </c>
       <c r="F322">
-        <v>0.5533090000000001</v>
+        <v>0.411443</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323">
-        <v>2010</v>
+        <v>2371</v>
       </c>
       <c r="B323" t="s">
         <v>6</v>
       </c>
       <c r="C323">
-        <v>0.001481</v>
+        <v>0.000489</v>
       </c>
       <c r="D323">
-        <v>0.003305</v>
+        <v>0.000893</v>
       </c>
       <c r="F323">
-        <v>-1.231906</v>
+        <v>-0.826017</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324">
-        <v>3177</v>
+        <v>3999</v>
       </c>
       <c r="B324" t="s">
         <v>6</v>
       </c>
       <c r="C324">
-        <v>2.3E-05</v>
+        <v>0.000266</v>
       </c>
       <c r="D324">
-        <v>5.9E-05</v>
+        <v>0.000105</v>
       </c>
       <c r="F324">
-        <v>-1.600646</v>
+        <v>0.603952</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325">
-        <v>3747</v>
+        <v>2594</v>
       </c>
       <c r="B325" t="s">
         <v>6</v>
       </c>
       <c r="C325">
-        <v>6.7E-05</v>
+        <v>3.7E-05</v>
       </c>
       <c r="D325">
-        <v>6.2E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F325">
-        <v>0.075332</v>
+        <v>0.399449</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326">
-        <v>4221</v>
+        <v>2833</v>
       </c>
       <c r="B326" t="s">
         <v>6</v>
       </c>
       <c r="C326">
-        <v>2E-06</v>
+        <v>0.000174</v>
       </c>
       <c r="D326">
-        <v>5E-05</v>
+        <v>0.000135</v>
       </c>
       <c r="F326">
-        <v>-26.668171</v>
+        <v>0.221187</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327">
-        <v>3980</v>
+        <v>4094</v>
       </c>
       <c r="B327" t="s">
         <v>6</v>
       </c>
       <c r="C327">
-        <v>4E-06</v>
+        <v>9E-06</v>
       </c>
       <c r="D327">
-        <v>8E-06</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F327">
-        <v>-0.802598</v>
+        <v>-1.744083</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328">
-        <v>2712</v>
+        <v>2753</v>
       </c>
       <c r="B328" t="s">
         <v>6</v>
       </c>
       <c r="C328">
-        <v>0.000925</v>
+        <v>0.006959</v>
       </c>
       <c r="D328">
-        <v>0.000521</v>
+        <v>0.0047</v>
       </c>
       <c r="F328">
-        <v>0.436523</v>
+        <v>0.324668</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329">
-        <v>2898</v>
+        <v>3889</v>
       </c>
       <c r="B329" t="s">
         <v>6</v>
       </c>
       <c r="C329">
-        <v>4.3E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="D329">
-        <v>9E-06</v>
+        <v>1E-05</v>
       </c>
       <c r="F329">
-        <v>0.798878</v>
+        <v>-0.338319</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330">
-        <v>3883</v>
+        <v>2714</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
       </c>
       <c r="C330">
-        <v>4.9E-05</v>
+        <v>0.000652</v>
       </c>
       <c r="D330">
-        <v>9.8E-05</v>
+        <v>0.000523</v>
       </c>
       <c r="F330">
-        <v>-0.98011</v>
+        <v>0.197364</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331">
-        <v>3741</v>
+        <v>2346</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
       </c>
       <c r="C331">
-        <v>5.2E-05</v>
+        <v>0.000783</v>
       </c>
       <c r="D331">
-        <v>2.3E-05</v>
+        <v>0.000354</v>
       </c>
       <c r="F331">
-        <v>0.555955</v>
+        <v>0.547315</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332">
-        <v>3151</v>
+        <v>3613</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
       </c>
       <c r="C332">
-        <v>8E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="D332">
-        <v>2.4E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F332">
-        <v>-2.031663</v>
+        <v>-9.219488</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333">
-        <v>2945</v>
+        <v>2644</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
       </c>
       <c r="C333">
-        <v>0.003205</v>
+        <v>0.000406</v>
       </c>
       <c r="D333">
-        <v>0.002294</v>
+        <v>0.000495</v>
       </c>
       <c r="F333">
-        <v>0.284229</v>
+        <v>-0.219545</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334">
-        <v>3410</v>
+        <v>2956</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
       </c>
       <c r="C334">
-        <v>0.000708</v>
+        <v>5.2E-05</v>
       </c>
       <c r="D334">
-        <v>0.0008140000000000001</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F334">
-        <v>-0.14924</v>
+        <v>-0.074625</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335">
-        <v>2143</v>
+        <v>3636</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
       </c>
       <c r="C335">
-        <v>0.00096</v>
+        <v>9E-06</v>
       </c>
       <c r="D335">
-        <v>0.000619</v>
+        <v>8.1E-05</v>
       </c>
       <c r="F335">
-        <v>0.355249</v>
+        <v>-8.397278999999999</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336">
-        <v>3513</v>
+        <v>3147</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
       </c>
       <c r="C336">
-        <v>0.000301</v>
+        <v>0.000421</v>
       </c>
       <c r="D336">
-        <v>0.000192</v>
+        <v>0.000327</v>
       </c>
       <c r="F336">
-        <v>0.362438</v>
+        <v>0.222287</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337">
-        <v>2864</v>
+        <v>3819</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
       </c>
       <c r="C337">
-        <v>0.0005910000000000001</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D337">
-        <v>0.000382</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F337">
-        <v>0.353709</v>
+        <v>0.400369</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338">
-        <v>4098</v>
+        <v>2385</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
       </c>
       <c r="C338">
-        <v>8E-06</v>
+        <v>0.000529</v>
       </c>
       <c r="D338">
-        <v>2E-05</v>
+        <v>0.000806</v>
       </c>
       <c r="F338">
-        <v>-1.447824</v>
+        <v>-0.524319</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339">
-        <v>3731</v>
+        <v>4334</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
       </c>
       <c r="C339">
-        <v>0.00012</v>
+        <v>0.000754</v>
       </c>
       <c r="D339">
-        <v>4.6E-05</v>
+        <v>0.000691</v>
       </c>
       <c r="F339">
-        <v>0.616105</v>
+        <v>0.08369699999999999</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340">
-        <v>3549</v>
+        <v>3578</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
       </c>
       <c r="C340">
-        <v>1.4E-05</v>
+        <v>2E-06</v>
       </c>
       <c r="D340">
-        <v>1E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="F340">
-        <v>0.309558</v>
+        <v>-1.325088</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341">
-        <v>3545</v>
+        <v>2687</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
       </c>
       <c r="C341">
-        <v>0.000389</v>
+        <v>3.7E-05</v>
       </c>
       <c r="D341">
-        <v>0.000183</v>
+        <v>3E-05</v>
       </c>
       <c r="F341">
-        <v>0.528471</v>
+        <v>0.19248</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342">
-        <v>3848</v>
+        <v>2849</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
       </c>
       <c r="C342">
-        <v>1.5E-05</v>
+        <v>0.00042</v>
       </c>
       <c r="D342">
-        <v>2.8E-05</v>
+        <v>0.000248</v>
       </c>
       <c r="F342">
-        <v>-0.847665</v>
+        <v>0.408571</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343">
-        <v>2329</v>
+        <v>2914</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
       </c>
       <c r="C343">
-        <v>0.000708</v>
+        <v>9E-06</v>
       </c>
       <c r="D343">
-        <v>0.0008140000000000001</v>
+        <v>5.4E-05</v>
       </c>
       <c r="F343">
-        <v>-0.149242</v>
+        <v>-5.041388</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344">
-        <v>2696</v>
+        <v>3883</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
       </c>
       <c r="C344">
-        <v>0.00023</v>
+        <v>4.9E-05</v>
       </c>
       <c r="D344">
-        <v>0.000196</v>
+        <v>0.000101</v>
       </c>
       <c r="F344">
-        <v>0.14588</v>
+        <v>-1.046999</v>
       </c>
     </row>
   </sheetData>
